--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_yyn_gen_pf_sc_results_0_branch_ward34_inductance.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_yyn_gen_pf_sc_results_0_branch_ward34_inductance.xlsx
@@ -1050,40 +1050,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.563194052506556E-14</v>
+        <v>-1.042129368337661E-14</v>
       </c>
       <c r="O2">
-        <v>1.563189667967258E-14</v>
+        <v>2.084254351685506E-14</v>
       </c>
       <c r="P2">
-        <v>-1.042133822868902E-14</v>
+        <v>-4.168521929015074E-14</v>
       </c>
       <c r="Q2">
-        <v>-2.60532342084423E-14</v>
+        <v>-1.283339516412291E-28</v>
       </c>
       <c r="R2">
-        <v>-5.210174758053882E-15</v>
+        <v>-1.302614500946349E-14</v>
       </c>
       <c r="S2">
-        <v>5.211119632898032E-15</v>
+        <v>2.60537070077728E-14</v>
       </c>
       <c r="T2">
-        <v>-3.647452789181843E-14</v>
+        <v>-1.042129368337686E-14</v>
       </c>
       <c r="U2">
-        <v>5.763350571398476E-09</v>
+        <v>5.763389651249776E-09</v>
       </c>
       <c r="V2">
-        <v>-5.763387050089307E-09</v>
+        <v>-5.763392260736167E-09</v>
       </c>
       <c r="W2">
-        <v>3.64745278918183E-14</v>
+        <v>1.042129368337674E-14</v>
       </c>
       <c r="X2">
-        <v>-5.763355781559422E-09</v>
+        <v>-5.763392256087297E-09</v>
       </c>
       <c r="Y2">
-        <v>5.763387050575203E-09</v>
+        <v>5.76338705057522E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1104,37 +1104,37 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023808766</v>
+        <v>1.100000023808765</v>
       </c>
       <c r="AG2">
-        <v>0.5500000117057474</v>
+        <v>0.5500000117057475</v>
       </c>
       <c r="AH2">
-        <v>0.550000012103018</v>
+        <v>0.5500000121030195</v>
       </c>
       <c r="AI2">
-        <v>1.100000023808766</v>
+        <v>1.100000023808765</v>
       </c>
       <c r="AJ2">
-        <v>0.5500000116593784</v>
+        <v>0.5500000116593782</v>
       </c>
       <c r="AK2">
-        <v>0.550000012149387</v>
+        <v>0.5500000121493889</v>
       </c>
       <c r="AL2">
-        <v>6.94449666104254E-13</v>
+        <v>7.050436821470241E-13</v>
       </c>
       <c r="AM2">
-        <v>-179.9999999995569</v>
+        <v>-179.9999999995568</v>
       </c>
       <c r="AN2">
         <v>179.9999999995499</v>
       </c>
       <c r="AO2">
-        <v>6.887451165512839E-13</v>
+        <v>7.055739930837065E-13</v>
       </c>
       <c r="AP2">
-        <v>-179.9999999952996</v>
+        <v>-179.9999999952995</v>
       </c>
       <c r="AQ2">
         <v>179.9999999952925</v>
@@ -1181,40 +1181,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-2.084258736675361E-14</v>
+        <v>-2.08425873667536E-14</v>
       </c>
       <c r="O3">
-        <v>1.563214546371081E-14</v>
+        <v>-2.084238241016898E-14</v>
       </c>
       <c r="P3">
-        <v>1.042149886348086E-14</v>
+        <v>2.051791148516571E-19</v>
       </c>
       <c r="Q3">
-        <v>1.252730165043641E-28</v>
+        <v>1.563194052506523E-14</v>
       </c>
       <c r="R3">
-        <v>-5.210804201512236E-15</v>
+        <v>2.865840025239669E-14</v>
       </c>
       <c r="S3">
-        <v>-1.563209812746983E-14</v>
+        <v>-5.210804441627689E-15</v>
       </c>
       <c r="T3">
-        <v>1.04212936833765E-14</v>
+        <v>1.042129368337648E-14</v>
       </c>
       <c r="U3">
-        <v>-1.92113422573967E-09</v>
+        <v>-1.92113683106309E-09</v>
       </c>
       <c r="V3">
-        <v>1.921108174325013E-09</v>
+        <v>1.92113422755924E-09</v>
       </c>
       <c r="W3">
-        <v>-1.042129368337675E-14</v>
+        <v>-1.042129368337654E-14</v>
       </c>
       <c r="X3">
-        <v>1.921139436440498E-09</v>
+        <v>1.921144647087339E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.921118595564711E-09</v>
+        <v>-1.921149859445783E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1235,25 +1235,25 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023808766</v>
+        <v>1.100000023808765</v>
       </c>
       <c r="AG3">
-        <v>0.5500000116439223</v>
+        <v>0.5500000116439215</v>
       </c>
       <c r="AH3">
-        <v>0.5500000121648436</v>
+        <v>0.5500000121648452</v>
       </c>
       <c r="AI3">
-        <v>1.100000023808766</v>
+        <v>1.100000023808765</v>
       </c>
       <c r="AJ3">
-        <v>0.5500000116593784</v>
+        <v>0.5500000116593782</v>
       </c>
       <c r="AK3">
-        <v>0.550000012149387</v>
+        <v>0.5500000121493889</v>
       </c>
       <c r="AL3">
-        <v>6.660169023184687E-13</v>
+        <v>6.927639275834002E-13</v>
       </c>
       <c r="AM3">
         <v>-179.9999999938804</v>
@@ -1262,10 +1262,10 @@
         <v>179.9999999938735</v>
       </c>
       <c r="AO3">
-        <v>6.887451165512839E-13</v>
+        <v>7.055739930837065E-13</v>
       </c>
       <c r="AP3">
-        <v>-179.9999999952996</v>
+        <v>-179.9999999952995</v>
       </c>
       <c r="AQ3">
         <v>179.9999999952925</v>
@@ -1312,40 +1312,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-1.563194052506493E-14</v>
+        <v>-1.563194052506529E-14</v>
       </c>
       <c r="O4">
-        <v>1.563214546482255E-14</v>
+        <v>-1.042108873095181E-14</v>
       </c>
       <c r="P4">
-        <v>1.042149886348086E-14</v>
+        <v>-1.042108850958488E-14</v>
       </c>
       <c r="Q4">
-        <v>-1.252730165043641E-28</v>
+        <v>1.042129368337699E-14</v>
       </c>
       <c r="R4">
-        <v>5.210489477222209E-15</v>
+        <v>2.865840025239669E-14</v>
       </c>
       <c r="S4">
-        <v>-1.563209812661494E-14</v>
+        <v>-5.2108044407728E-15</v>
       </c>
       <c r="T4">
-        <v>-1.56319405250653E-14</v>
+        <v>1.563194052506492E-14</v>
       </c>
       <c r="U4">
-        <v>-1.921144647033347E-09</v>
+        <v>-1.921136831063089E-09</v>
       </c>
       <c r="V4">
-        <v>1.921108174325013E-09</v>
+        <v>1.921134227559241E-09</v>
       </c>
       <c r="W4">
-        <v>1.042129368337675E-14</v>
+        <v>-2.084258736675334E-14</v>
       </c>
       <c r="X4">
-        <v>1.921139436440499E-09</v>
+        <v>1.921144647087339E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.921108174271024E-09</v>
+        <v>-1.921139438152095E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1366,25 +1366,25 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023808766</v>
+        <v>1.100000023808765</v>
       </c>
       <c r="AG4">
-        <v>0.5500000116439222</v>
+        <v>0.5500000116439215</v>
       </c>
       <c r="AH4">
-        <v>0.5500000121648436</v>
+        <v>0.5500000121648452</v>
       </c>
       <c r="AI4">
-        <v>1.100000023808766</v>
+        <v>1.100000023808765</v>
       </c>
       <c r="AJ4">
-        <v>0.5500000116593784</v>
+        <v>0.5500000116593782</v>
       </c>
       <c r="AK4">
-        <v>0.550000012149387</v>
+        <v>0.5500000121493889</v>
       </c>
       <c r="AL4">
-        <v>6.729871228056328E-13</v>
+        <v>6.8770712626023E-13</v>
       </c>
       <c r="AM4">
         <v>-179.9999999938804</v>
@@ -1393,10 +1393,10 @@
         <v>179.9999999938735</v>
       </c>
       <c r="AO4">
-        <v>6.887451165512839E-13</v>
+        <v>7.055739930837065E-13</v>
       </c>
       <c r="AP4">
-        <v>-179.9999999952996</v>
+        <v>-179.9999999952995</v>
       </c>
       <c r="AQ4">
         <v>179.9999999952925</v>
@@ -1443,40 +1443,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-5.210646841688615E-15</v>
+        <v>1.260039815139964E-28</v>
       </c>
       <c r="O5">
-        <v>1.042129367732985E-14</v>
+        <v>-5.210646839498722E-15</v>
       </c>
       <c r="P5">
-        <v>-5.210646844155951E-15</v>
+        <v>5.210646844712469E-15</v>
       </c>
       <c r="Q5">
-        <v>-1.042129368337644E-14</v>
+        <v>-6.254211035974127E-29</v>
       </c>
       <c r="R5">
-        <v>-5.210646840332533E-15</v>
+        <v>1.04212936778857E-14</v>
       </c>
       <c r="S5">
-        <v>-5.21064684526895E-15</v>
+        <v>-1.042129368998144E-14</v>
       </c>
       <c r="T5">
-        <v>2.084258736675343E-14</v>
+        <v>-1.042129368337674E-14</v>
       </c>
       <c r="U5">
-        <v>1.042129367955333E-14</v>
+        <v>2.605323419054521E-15</v>
       </c>
       <c r="V5">
-        <v>5.56499296051812E-25</v>
+        <v>5.210646843599464E-15</v>
       </c>
       <c r="W5">
-        <v>-2.605323420844199E-14</v>
+        <v>5.210646841688368E-15</v>
       </c>
       <c r="X5">
-        <v>1.042129367788572E-14</v>
+        <v>5.210646840332533E-15</v>
       </c>
       <c r="Y5">
-        <v>-1.042129368775541E-14</v>
+        <v>-1.56319405313549E-14</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>1.100000023808766</v>
+        <v>1.100000023808765</v>
       </c>
       <c r="AG5">
-        <v>0.5500000116439223</v>
+        <v>0.5500000116439215</v>
       </c>
       <c r="AH5">
-        <v>0.5500000121648436</v>
+        <v>0.5500000121648452</v>
       </c>
       <c r="AI5">
-        <v>1.100000023808766</v>
+        <v>1.100000023808765</v>
       </c>
       <c r="AJ5">
-        <v>0.5500000116439222</v>
+        <v>0.5500000116439215</v>
       </c>
       <c r="AK5">
-        <v>0.5500000121648436</v>
+        <v>0.5500000121648452</v>
       </c>
       <c r="AL5">
-        <v>6.660169023184687E-13</v>
+        <v>6.927639275834002E-13</v>
       </c>
       <c r="AM5">
         <v>-179.9999999938804</v>
@@ -1524,7 +1524,7 @@
         <v>179.9999999938735</v>
       </c>
       <c r="AO5">
-        <v>6.729871228056328E-13</v>
+        <v>6.8770712626023E-13</v>
       </c>
       <c r="AP5">
         <v>-179.9999999938804</v>
@@ -1718,40 +1718,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>5.210646841703929E-15</v>
+        <v>1.04212936834077E-14</v>
       </c>
       <c r="O2">
-        <v>-7.307564051549513E-10</v>
+        <v>-7.307585798694129E-10</v>
       </c>
       <c r="P2">
-        <v>-2.039307828491597E-09</v>
+        <v>-2.039317920366303E-09</v>
       </c>
       <c r="Q2">
-        <v>-1.563194052511143E-14</v>
+        <v>-2.084258736681529E-14</v>
       </c>
       <c r="R2">
-        <v>7.307617996355367E-10</v>
+        <v>7.307540269564193E-10</v>
       </c>
       <c r="S2">
-        <v>2.039299456555506E-09</v>
+        <v>2.039317920655324E-09</v>
       </c>
       <c r="T2">
-        <v>-1.563194052511128E-14</v>
+        <v>-1.563194052511121E-14</v>
       </c>
       <c r="U2">
-        <v>5.822474143464276E-09</v>
+        <v>5.822507001349043E-09</v>
       </c>
       <c r="V2">
-        <v>-3.556048237506592E-09</v>
+        <v>-3.556073354181929E-09</v>
       </c>
       <c r="W2">
-        <v>1.04212936834074E-14</v>
+        <v>2.084258736681488E-14</v>
       </c>
       <c r="X2">
-        <v>-5.822469343566672E-09</v>
+        <v>-5.822514918181366E-09</v>
       </c>
       <c r="Y2">
-        <v>3.556051601792752E-09</v>
+        <v>3.556073354509855E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1772,40 +1772,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023812018</v>
+        <v>1.100000023812017</v>
       </c>
       <c r="AG2">
         <v>0.6816683458635722</v>
       </c>
       <c r="AH2">
-        <v>0.4761907155780336</v>
+        <v>0.4761907155780348</v>
       </c>
       <c r="AI2">
-        <v>1.100000023812018</v>
+        <v>1.100000023812017</v>
       </c>
       <c r="AJ2">
-        <v>0.6816683458299569</v>
+        <v>0.6816683458299566</v>
       </c>
       <c r="AK2">
-        <v>0.4761907156277802</v>
+        <v>0.4761907156277816</v>
       </c>
       <c r="AL2">
-        <v>5.619264055562163E-13</v>
+        <v>5.677571390343473E-13</v>
       </c>
       <c r="AM2">
         <v>-164.9034422584275</v>
       </c>
       <c r="AN2">
-        <v>158.1097491654784</v>
+        <v>158.1097491654786</v>
       </c>
       <c r="AO2">
-        <v>5.609448367570525E-13</v>
+        <v>5.731098464028133E-13</v>
       </c>
       <c r="AP2">
         <v>-164.9034422552288</v>
       </c>
       <c r="AQ2">
-        <v>158.1097491642543</v>
+        <v>158.1097491642544</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1849,40 +1849,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-1.563194052511137E-14</v>
+        <v>-1.563194052511152E-14</v>
       </c>
       <c r="O3">
-        <v>2.43611530557365E-10</v>
+        <v>2.435820366308373E-10</v>
       </c>
       <c r="P3">
-        <v>6.797597827477959E-10</v>
+        <v>6.797748828893793E-10</v>
       </c>
       <c r="Q3">
-        <v>5.210646841703877E-15</v>
+        <v>-5.210646841703667E-15</v>
       </c>
       <c r="R3">
-        <v>-2.43593665971423E-10</v>
+        <v>-2.435616490762176E-10</v>
       </c>
       <c r="S3">
-        <v>-6.797597827156841E-10</v>
+        <v>-6.79774882857266E-10</v>
       </c>
       <c r="T3">
-        <v>5.210646841703627E-15</v>
+        <v>2.084258736681493E-14</v>
       </c>
       <c r="U3">
-        <v>-1.940822143213295E-09</v>
+        <v>-1.940836788290015E-09</v>
       </c>
       <c r="V3">
-        <v>1.185349985864476E-09</v>
+        <v>1.18536336635646E-09</v>
       </c>
       <c r="W3">
-        <v>-1.04212936834075E-14</v>
+        <v>-1.04212936834076E-14</v>
       </c>
       <c r="X3">
-        <v>1.940830306777651E-09</v>
+        <v>1.940835599082678E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.185349985828039E-09</v>
+        <v>-1.185363366320024E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1906,37 +1906,37 @@
         <v>1.100000023812017</v>
       </c>
       <c r="AG3">
-        <v>0.6816683458187521</v>
+        <v>0.6816683458187512</v>
       </c>
       <c r="AH3">
-        <v>0.4761907156443623</v>
+        <v>0.4761907156443638</v>
       </c>
       <c r="AI3">
-        <v>1.100000023812018</v>
+        <v>1.100000023812017</v>
       </c>
       <c r="AJ3">
-        <v>0.6816683458299569</v>
+        <v>0.6816683458299566</v>
       </c>
       <c r="AK3">
-        <v>0.4761907156277802</v>
+        <v>0.4761907156277816</v>
       </c>
       <c r="AL3">
-        <v>5.435082623316418E-13</v>
+        <v>5.635020212904674E-13</v>
       </c>
       <c r="AM3">
         <v>-164.9034422541626</v>
       </c>
       <c r="AN3">
-        <v>158.1097491638463</v>
+        <v>158.1097491638464</v>
       </c>
       <c r="AO3">
-        <v>5.609448367570525E-13</v>
+        <v>5.731098464028133E-13</v>
       </c>
       <c r="AP3">
         <v>-164.9034422552288</v>
       </c>
       <c r="AQ3">
-        <v>158.1097491642543</v>
+        <v>158.1097491642544</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1980,40 +1980,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-2.0842587366815E-14</v>
+        <v>-5.210646841703925E-15</v>
       </c>
       <c r="O4">
-        <v>2.436024241533438E-10</v>
+        <v>2.436012349095708E-10</v>
       </c>
       <c r="P4">
-        <v>6.797681549729043E-10</v>
+        <v>6.797665106642704E-10</v>
       </c>
       <c r="Q4">
-        <v>1.042129368340745E-14</v>
+        <v>-1.042129368340749E-14</v>
       </c>
       <c r="R4">
-        <v>-2.435845595674015E-10</v>
+        <v>-2.435808473549501E-10</v>
       </c>
       <c r="S4">
-        <v>-6.797681549407923E-10</v>
+        <v>-6.797665106321577E-10</v>
       </c>
       <c r="T4">
-        <v>-1.042129368340775E-14</v>
+        <v>1.563194052511127E-14</v>
       </c>
       <c r="U4">
-        <v>-1.940837977533791E-09</v>
+        <v>-1.940858365056295E-09</v>
       </c>
       <c r="V4">
-        <v>1.185346621906238E-09</v>
+        <v>1.185366730314697E-09</v>
       </c>
       <c r="W4">
-        <v>1.042129368340765E-14</v>
+        <v>-5.210646841703875E-15</v>
       </c>
       <c r="X4">
-        <v>1.940846141098146E-09</v>
+        <v>1.940857175848958E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.185346621869802E-09</v>
+        <v>-1.185366730278261E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -2037,37 +2037,37 @@
         <v>1.100000023812017</v>
       </c>
       <c r="AG4">
-        <v>0.681668345818752</v>
+        <v>0.6816683458187514</v>
       </c>
       <c r="AH4">
-        <v>0.4761907156443624</v>
+        <v>0.4761907156443638</v>
       </c>
       <c r="AI4">
-        <v>1.100000023812018</v>
+        <v>1.100000023812017</v>
       </c>
       <c r="AJ4">
-        <v>0.6816683458299569</v>
+        <v>0.6816683458299566</v>
       </c>
       <c r="AK4">
-        <v>0.4761907156277802</v>
+        <v>0.4761907156277816</v>
       </c>
       <c r="AL4">
-        <v>5.447990994124733E-13</v>
+        <v>5.58772319761441E-13</v>
       </c>
       <c r="AM4">
-        <v>-164.9034422541626</v>
+        <v>-164.9034422541625</v>
       </c>
       <c r="AN4">
-        <v>158.1097491638463</v>
+        <v>158.1097491638464</v>
       </c>
       <c r="AO4">
-        <v>5.609448367570525E-13</v>
+        <v>5.731098464028133E-13</v>
       </c>
       <c r="AP4">
         <v>-164.9034422552288</v>
       </c>
       <c r="AQ4">
-        <v>158.1097491642543</v>
+        <v>158.1097491642544</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -2111,40 +2111,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-1.977129648728667E-28</v>
+        <v>-1.563194052511142E-14</v>
       </c>
       <c r="O5">
-        <v>1.534158515026858E-14</v>
+        <v>-1.044012892561024E-14</v>
       </c>
       <c r="P5">
-        <v>-6.690245989935963E-15</v>
+        <v>4.186112554260998E-15</v>
       </c>
       <c r="Q5">
-        <v>-1.563194052511117E-14</v>
+        <v>-5.210646841703772E-15</v>
       </c>
       <c r="R5">
-        <v>2.522968677878239E-15</v>
+        <v>2.914567231304979E-14</v>
       </c>
       <c r="S5">
-        <v>6.690245989935963E-15</v>
+        <v>-5.868091672847001E-15</v>
       </c>
       <c r="T5">
-        <v>2.08425873668151E-14</v>
+        <v>1.042129368340739E-14</v>
       </c>
       <c r="U5">
-        <v>1.751629961404952E-14</v>
+        <v>1.39059737042808E-14</v>
       </c>
       <c r="V5">
-        <v>7.550070791432991E-15</v>
+        <v>-1.681979118586004E-15</v>
       </c>
       <c r="W5">
-        <v>-1.563194052511147E-14</v>
+        <v>-5.081639953134356E-29</v>
       </c>
       <c r="X5">
-        <v>-9.352771693719782E-15</v>
+        <v>-8.860036348524315E-15</v>
       </c>
       <c r="Y5">
-        <v>-7.550070791432993E-15</v>
+        <v>-2.504133435674996E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -2168,37 +2168,37 @@
         <v>1.100000023812017</v>
       </c>
       <c r="AG5">
-        <v>0.6816683458187521</v>
+        <v>0.6816683458187512</v>
       </c>
       <c r="AH5">
-        <v>0.4761907156443623</v>
+        <v>0.4761907156443638</v>
       </c>
       <c r="AI5">
         <v>1.100000023812017</v>
       </c>
       <c r="AJ5">
-        <v>0.681668345818752</v>
+        <v>0.6816683458187514</v>
       </c>
       <c r="AK5">
-        <v>0.4761907156443624</v>
+        <v>0.4761907156443638</v>
       </c>
       <c r="AL5">
-        <v>5.435082623316418E-13</v>
+        <v>5.635020212904674E-13</v>
       </c>
       <c r="AM5">
         <v>-164.9034422541626</v>
       </c>
       <c r="AN5">
-        <v>158.1097491638463</v>
+        <v>158.1097491638464</v>
       </c>
       <c r="AO5">
-        <v>5.447990994124733E-13</v>
+        <v>5.58772319761441E-13</v>
       </c>
       <c r="AP5">
-        <v>-164.9034422541626</v>
+        <v>-164.9034422541625</v>
       </c>
       <c r="AQ5">
-        <v>158.1097491638463</v>
+        <v>158.1097491638464</v>
       </c>
     </row>
   </sheetData>
@@ -2386,40 +2386,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>5.210646841703929E-15</v>
+        <v>1.04212936834077E-14</v>
       </c>
       <c r="O2">
-        <v>-7.307564051549513E-10</v>
+        <v>-7.307585798694129E-10</v>
       </c>
       <c r="P2">
-        <v>-2.039307828491597E-09</v>
+        <v>-2.039317920366303E-09</v>
       </c>
       <c r="Q2">
-        <v>-1.563194052511143E-14</v>
+        <v>-2.084258736681529E-14</v>
       </c>
       <c r="R2">
-        <v>7.307617996355367E-10</v>
+        <v>7.307540269564193E-10</v>
       </c>
       <c r="S2">
-        <v>2.039299456555506E-09</v>
+        <v>2.039317920655324E-09</v>
       </c>
       <c r="T2">
-        <v>-1.563194052511128E-14</v>
+        <v>-1.563194052511121E-14</v>
       </c>
       <c r="U2">
-        <v>5.822474143464276E-09</v>
+        <v>5.822507001349043E-09</v>
       </c>
       <c r="V2">
-        <v>-3.556048237506592E-09</v>
+        <v>-3.556073354181929E-09</v>
       </c>
       <c r="W2">
-        <v>1.04212936834074E-14</v>
+        <v>2.084258736681488E-14</v>
       </c>
       <c r="X2">
-        <v>-5.822469343566672E-09</v>
+        <v>-5.822514918181366E-09</v>
       </c>
       <c r="Y2">
-        <v>3.556051601792752E-09</v>
+        <v>3.556073354509855E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -2440,40 +2440,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023812018</v>
+        <v>1.100000023812017</v>
       </c>
       <c r="AG2">
         <v>0.6816683458635722</v>
       </c>
       <c r="AH2">
-        <v>0.4761907155780336</v>
+        <v>0.4761907155780348</v>
       </c>
       <c r="AI2">
-        <v>1.100000023812018</v>
+        <v>1.100000023812017</v>
       </c>
       <c r="AJ2">
-        <v>0.6816683458299569</v>
+        <v>0.6816683458299566</v>
       </c>
       <c r="AK2">
-        <v>0.4761907156277802</v>
+        <v>0.4761907156277816</v>
       </c>
       <c r="AL2">
-        <v>5.619264055562163E-13</v>
+        <v>5.677571390343473E-13</v>
       </c>
       <c r="AM2">
         <v>-164.9034422584275</v>
       </c>
       <c r="AN2">
-        <v>158.1097491654784</v>
+        <v>158.1097491654786</v>
       </c>
       <c r="AO2">
-        <v>5.609448367570525E-13</v>
+        <v>5.731098464028133E-13</v>
       </c>
       <c r="AP2">
         <v>-164.9034422552288</v>
       </c>
       <c r="AQ2">
-        <v>158.1097491642543</v>
+        <v>158.1097491642544</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -2517,40 +2517,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-1.563194052511137E-14</v>
+        <v>-1.563194052511152E-14</v>
       </c>
       <c r="O3">
-        <v>2.43611530557365E-10</v>
+        <v>2.435820366308373E-10</v>
       </c>
       <c r="P3">
-        <v>6.797597827477959E-10</v>
+        <v>6.797748828893793E-10</v>
       </c>
       <c r="Q3">
-        <v>5.210646841703877E-15</v>
+        <v>-5.210646841703667E-15</v>
       </c>
       <c r="R3">
-        <v>-2.43593665971423E-10</v>
+        <v>-2.435616490762176E-10</v>
       </c>
       <c r="S3">
-        <v>-6.797597827156841E-10</v>
+        <v>-6.79774882857266E-10</v>
       </c>
       <c r="T3">
-        <v>5.210646841703627E-15</v>
+        <v>2.084258736681493E-14</v>
       </c>
       <c r="U3">
-        <v>-1.940822143213295E-09</v>
+        <v>-1.940836788290015E-09</v>
       </c>
       <c r="V3">
-        <v>1.185349985864476E-09</v>
+        <v>1.18536336635646E-09</v>
       </c>
       <c r="W3">
-        <v>-1.04212936834075E-14</v>
+        <v>-1.04212936834076E-14</v>
       </c>
       <c r="X3">
-        <v>1.940830306777651E-09</v>
+        <v>1.940835599082678E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.185349985828039E-09</v>
+        <v>-1.185363366320024E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -2574,37 +2574,37 @@
         <v>1.100000023812017</v>
       </c>
       <c r="AG3">
-        <v>0.6816683458187521</v>
+        <v>0.6816683458187512</v>
       </c>
       <c r="AH3">
-        <v>0.4761907156443623</v>
+        <v>0.4761907156443638</v>
       </c>
       <c r="AI3">
-        <v>1.100000023812018</v>
+        <v>1.100000023812017</v>
       </c>
       <c r="AJ3">
-        <v>0.6816683458299569</v>
+        <v>0.6816683458299566</v>
       </c>
       <c r="AK3">
-        <v>0.4761907156277802</v>
+        <v>0.4761907156277816</v>
       </c>
       <c r="AL3">
-        <v>5.435082623316418E-13</v>
+        <v>5.635020212904674E-13</v>
       </c>
       <c r="AM3">
         <v>-164.9034422541626</v>
       </c>
       <c r="AN3">
-        <v>158.1097491638463</v>
+        <v>158.1097491638464</v>
       </c>
       <c r="AO3">
-        <v>5.609448367570525E-13</v>
+        <v>5.731098464028133E-13</v>
       </c>
       <c r="AP3">
         <v>-164.9034422552288</v>
       </c>
       <c r="AQ3">
-        <v>158.1097491642543</v>
+        <v>158.1097491642544</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -2648,40 +2648,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-2.0842587366815E-14</v>
+        <v>-5.210646841703925E-15</v>
       </c>
       <c r="O4">
-        <v>2.436024241533438E-10</v>
+        <v>2.436012349095708E-10</v>
       </c>
       <c r="P4">
-        <v>6.797681549729043E-10</v>
+        <v>6.797665106642704E-10</v>
       </c>
       <c r="Q4">
-        <v>1.042129368340745E-14</v>
+        <v>-1.042129368340749E-14</v>
       </c>
       <c r="R4">
-        <v>-2.435845595674015E-10</v>
+        <v>-2.435808473549501E-10</v>
       </c>
       <c r="S4">
-        <v>-6.797681549407923E-10</v>
+        <v>-6.797665106321577E-10</v>
       </c>
       <c r="T4">
-        <v>-1.042129368340775E-14</v>
+        <v>1.563194052511127E-14</v>
       </c>
       <c r="U4">
-        <v>-1.940837977533791E-09</v>
+        <v>-1.940858365056295E-09</v>
       </c>
       <c r="V4">
-        <v>1.185346621906238E-09</v>
+        <v>1.185366730314697E-09</v>
       </c>
       <c r="W4">
-        <v>1.042129368340765E-14</v>
+        <v>-5.210646841703875E-15</v>
       </c>
       <c r="X4">
-        <v>1.940846141098146E-09</v>
+        <v>1.940857175848958E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.185346621869802E-09</v>
+        <v>-1.185366730278261E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -2705,37 +2705,37 @@
         <v>1.100000023812017</v>
       </c>
       <c r="AG4">
-        <v>0.681668345818752</v>
+        <v>0.6816683458187514</v>
       </c>
       <c r="AH4">
-        <v>0.4761907156443624</v>
+        <v>0.4761907156443638</v>
       </c>
       <c r="AI4">
-        <v>1.100000023812018</v>
+        <v>1.100000023812017</v>
       </c>
       <c r="AJ4">
-        <v>0.6816683458299569</v>
+        <v>0.6816683458299566</v>
       </c>
       <c r="AK4">
-        <v>0.4761907156277802</v>
+        <v>0.4761907156277816</v>
       </c>
       <c r="AL4">
-        <v>5.447990994124733E-13</v>
+        <v>5.58772319761441E-13</v>
       </c>
       <c r="AM4">
-        <v>-164.9034422541626</v>
+        <v>-164.9034422541625</v>
       </c>
       <c r="AN4">
-        <v>158.1097491638463</v>
+        <v>158.1097491638464</v>
       </c>
       <c r="AO4">
-        <v>5.609448367570525E-13</v>
+        <v>5.731098464028133E-13</v>
       </c>
       <c r="AP4">
         <v>-164.9034422552288</v>
       </c>
       <c r="AQ4">
-        <v>158.1097491642543</v>
+        <v>158.1097491642544</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -2779,40 +2779,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-1.977129648728667E-28</v>
+        <v>-1.563194052511142E-14</v>
       </c>
       <c r="O5">
-        <v>1.534158515026858E-14</v>
+        <v>-1.044012892561024E-14</v>
       </c>
       <c r="P5">
-        <v>-6.690245989935963E-15</v>
+        <v>4.186112554260998E-15</v>
       </c>
       <c r="Q5">
-        <v>-1.563194052511117E-14</v>
+        <v>-5.210646841703772E-15</v>
       </c>
       <c r="R5">
-        <v>2.522968677878239E-15</v>
+        <v>2.914567231304979E-14</v>
       </c>
       <c r="S5">
-        <v>6.690245989935963E-15</v>
+        <v>-5.868091672847001E-15</v>
       </c>
       <c r="T5">
-        <v>2.08425873668151E-14</v>
+        <v>1.042129368340739E-14</v>
       </c>
       <c r="U5">
-        <v>1.751629961404952E-14</v>
+        <v>1.39059737042808E-14</v>
       </c>
       <c r="V5">
-        <v>7.550070791432991E-15</v>
+        <v>-1.681979118586004E-15</v>
       </c>
       <c r="W5">
-        <v>-1.563194052511147E-14</v>
+        <v>-5.081639953134356E-29</v>
       </c>
       <c r="X5">
-        <v>-9.352771693719782E-15</v>
+        <v>-8.860036348524315E-15</v>
       </c>
       <c r="Y5">
-        <v>-7.550070791432993E-15</v>
+        <v>-2.504133435674996E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -2836,37 +2836,37 @@
         <v>1.100000023812017</v>
       </c>
       <c r="AG5">
-        <v>0.6816683458187521</v>
+        <v>0.6816683458187512</v>
       </c>
       <c r="AH5">
-        <v>0.4761907156443623</v>
+        <v>0.4761907156443638</v>
       </c>
       <c r="AI5">
         <v>1.100000023812017</v>
       </c>
       <c r="AJ5">
-        <v>0.681668345818752</v>
+        <v>0.6816683458187514</v>
       </c>
       <c r="AK5">
-        <v>0.4761907156443624</v>
+        <v>0.4761907156443638</v>
       </c>
       <c r="AL5">
-        <v>5.435082623316418E-13</v>
+        <v>5.635020212904674E-13</v>
       </c>
       <c r="AM5">
         <v>-164.9034422541626</v>
       </c>
       <c r="AN5">
-        <v>158.1097491638463</v>
+        <v>158.1097491638464</v>
       </c>
       <c r="AO5">
-        <v>5.447990994124733E-13</v>
+        <v>5.58772319761441E-13</v>
       </c>
       <c r="AP5">
-        <v>-164.9034422541626</v>
+        <v>-164.9034422541625</v>
       </c>
       <c r="AQ5">
-        <v>158.1097491638463</v>
+        <v>158.1097491638464</v>
       </c>
     </row>
   </sheetData>
@@ -3054,40 +3054,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.131628207281076E-14</v>
+        <v>-1.777626949275425E-28</v>
       </c>
       <c r="O2">
-        <v>1.302651450832089E-14</v>
+        <v>8.289562935696942E-15</v>
       </c>
       <c r="P2">
-        <v>1.421075183225518E-14</v>
+        <v>-4.737054461426056E-15</v>
       </c>
       <c r="Q2">
-        <v>-2.131628207281077E-14</v>
+        <v>-2.368475785867663E-15</v>
       </c>
       <c r="R2">
-        <v>-1.302583498009507E-14</v>
+        <v>-8.288883403822671E-15</v>
       </c>
       <c r="S2">
-        <v>-7.104644939524591E-15</v>
+        <v>7.106209784422245E-15</v>
       </c>
       <c r="T2">
-        <v>-1.421085471520683E-14</v>
+        <v>1.421085471520707E-14</v>
       </c>
       <c r="U2">
-        <v>4.763111385045251E-09</v>
+        <v>4.763135069803085E-09</v>
       </c>
       <c r="V2">
-        <v>-4.763132704818049E-09</v>
+        <v>-4.76312323091489E-09</v>
       </c>
       <c r="W2">
-        <v>1.421085471520683E-14</v>
+        <v>-1.42108547152071E-14</v>
       </c>
       <c r="X2">
-        <v>-4.763111384643682E-09</v>
+        <v>-4.763132700925732E-09</v>
       </c>
       <c r="Y2">
-        <v>4.763118494364889E-09</v>
+        <v>4.763132705219602E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -3108,25 +3108,25 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.000000000000356</v>
+        <v>1.000000000000357</v>
       </c>
       <c r="AG2">
-        <v>0.4999999998169629</v>
+        <v>0.4999999998169612</v>
       </c>
       <c r="AH2">
-        <v>0.5000000001833955</v>
+        <v>0.5000000001833942</v>
       </c>
       <c r="AI2">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ2">
-        <v>0.4999999997748087</v>
+        <v>0.4999999997748074</v>
       </c>
       <c r="AK2">
-        <v>0.5000000002255485</v>
+        <v>0.5000000002255478</v>
       </c>
       <c r="AL2">
-        <v>6.493179824892998E-13</v>
+        <v>7.167093308835482E-13</v>
       </c>
       <c r="AM2">
         <v>-179.999999998762</v>
@@ -3135,10 +3135,10 @@
         <v>179.999999998755</v>
       </c>
       <c r="AO2">
-        <v>6.429971712676169E-13</v>
+        <v>7.377172859837794E-13</v>
       </c>
       <c r="AP2">
-        <v>-179.999999990588</v>
+        <v>-179.9999999905879</v>
       </c>
       <c r="AQ2">
         <v>179.9999999905809</v>
@@ -3185,40 +3185,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-2.131628207281072E-14</v>
+        <v>-2.131628207281048E-14</v>
       </c>
       <c r="O3">
-        <v>-1.065780491484833E-14</v>
+        <v>-1.183901772442842E-15</v>
       </c>
       <c r="P3">
-        <v>-4.736615260736931E-15</v>
+        <v>9.474239460217276E-15</v>
       </c>
       <c r="Q3">
-        <v>1.894780628694293E-14</v>
+        <v>1.894780628694264E-14</v>
       </c>
       <c r="R3">
-        <v>1.065788041846238E-14</v>
+        <v>1.183977275482222E-15</v>
       </c>
       <c r="S3">
-        <v>1.184211812498944E-14</v>
+        <v>-2.368736594288667E-15</v>
       </c>
       <c r="T3">
-        <v>9.473903143471146E-15</v>
+        <v>-9.473903143471646E-15</v>
       </c>
       <c r="U3">
-        <v>-1.587710110772036E-09</v>
+        <v>-1.587714847723601E-09</v>
       </c>
       <c r="V3">
-        <v>1.587717217719922E-09</v>
+        <v>1.587717217719919E-09</v>
       </c>
       <c r="W3">
-        <v>-1.421085471520686E-14</v>
+        <v>9.473903143471626E-15</v>
       </c>
       <c r="X3">
-        <v>1.587710110816654E-09</v>
+        <v>1.587726690147143E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.587721954626878E-09</v>
+        <v>-1.587707743772152E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -3239,25 +3239,25 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.000000000000357</v>
+        <v>1.000000000000356</v>
       </c>
       <c r="AG3">
-        <v>0.4999999997607572</v>
+        <v>0.4999999997607566</v>
       </c>
       <c r="AH3">
-        <v>0.5000000002395997</v>
+        <v>0.5000000002395998</v>
       </c>
       <c r="AI3">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ3">
-        <v>0.4999999997748087</v>
+        <v>0.4999999997748074</v>
       </c>
       <c r="AK3">
-        <v>0.5000000002255485</v>
+        <v>0.5000000002255478</v>
       </c>
       <c r="AL3">
-        <v>6.304574187411997E-13</v>
+        <v>7.243110044814799E-13</v>
       </c>
       <c r="AM3">
         <v>-179.9999999878632</v>
@@ -3266,10 +3266,10 @@
         <v>179.9999999878562</v>
       </c>
       <c r="AO3">
-        <v>6.429971712676169E-13</v>
+        <v>7.377172859837794E-13</v>
       </c>
       <c r="AP3">
-        <v>-179.999999990588</v>
+        <v>-179.9999999905879</v>
       </c>
       <c r="AQ3">
         <v>179.9999999905809</v>
@@ -3316,40 +3316,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-1.894780628694292E-14</v>
+        <v>-1.894780628694269E-14</v>
       </c>
       <c r="O4">
-        <v>-1.18390177520837E-15</v>
+        <v>-1.183901777159179E-15</v>
       </c>
       <c r="P4">
-        <v>-9.473566834740874E-15</v>
+        <v>4.737287884206553E-15</v>
       </c>
       <c r="Q4">
-        <v>1.894780628694293E-14</v>
+        <v>1.894780628694264E-14</v>
       </c>
       <c r="R4">
-        <v>5.920928847306737E-15</v>
+        <v>1.183977277037313E-15</v>
       </c>
       <c r="S4">
-        <v>1.657906969886026E-14</v>
+        <v>-2.368736592732421E-15</v>
       </c>
       <c r="T4">
-        <v>1.421085471520686E-14</v>
+        <v>-4.73695157173593E-15</v>
       </c>
       <c r="U4">
-        <v>-1.587710110772034E-09</v>
+        <v>-1.587695899917323E-09</v>
       </c>
       <c r="V4">
-        <v>1.587717217719922E-09</v>
+        <v>1.587707743816771E-09</v>
       </c>
       <c r="W4">
-        <v>-1.421085471520686E-14</v>
+        <v>9.473903143471626E-15</v>
       </c>
       <c r="X4">
-        <v>1.587719584719793E-09</v>
+        <v>1.587717216244003E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.587721954626878E-09</v>
+        <v>-1.587698269869004E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -3370,10 +3370,10 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.000000000000357</v>
+        <v>1.000000000000356</v>
       </c>
       <c r="AG4">
-        <v>0.4999999997607573</v>
+        <v>0.4999999997607565</v>
       </c>
       <c r="AH4">
         <v>0.5000000002395996</v>
@@ -3382,13 +3382,13 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AJ4">
-        <v>0.4999999997748087</v>
+        <v>0.4999999997748074</v>
       </c>
       <c r="AK4">
-        <v>0.5000000002255485</v>
+        <v>0.5000000002255478</v>
       </c>
       <c r="AL4">
-        <v>6.268133933251543E-13</v>
+        <v>7.27369144564047E-13</v>
       </c>
       <c r="AM4">
         <v>-179.9999999878632</v>
@@ -3397,10 +3397,10 @@
         <v>179.9999999878562</v>
       </c>
       <c r="AO4">
-        <v>6.429971712676169E-13</v>
+        <v>7.377172859837794E-13</v>
       </c>
       <c r="AP4">
-        <v>-179.999999990588</v>
+        <v>-179.9999999905879</v>
       </c>
       <c r="AQ4">
         <v>179.9999999905809</v>
@@ -3447,40 +3447,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-2.368475785867794E-15</v>
+        <v>-2.368475785867844E-15</v>
       </c>
       <c r="O5">
-        <v>-7.105427355705368E-15</v>
+        <v>4.736951571974469E-15</v>
       </c>
       <c r="P5">
-        <v>1.003390050674056E-24</v>
+        <v>2.368475789008747E-15</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-6.013553601776432E-29</v>
       </c>
       <c r="R5">
-        <v>9.473903140439092E-15</v>
+        <v>-2.368475787240747E-15</v>
       </c>
       <c r="S5">
-        <v>7.105427358999136E-15</v>
+        <v>2.368475783991811E-15</v>
       </c>
       <c r="T5">
-        <v>-4.736951571735718E-15</v>
+        <v>-2.994135152939787E-29</v>
       </c>
       <c r="U5">
-        <v>7.105427352696946E-15</v>
+        <v>-1.184237892266577E-14</v>
       </c>
       <c r="V5">
-        <v>4.736951574003945E-15</v>
+        <v>9.4739031475062E-15</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>4.736951571735688E-15</v>
       </c>
       <c r="X5">
-        <v>-7.105427352195539E-15</v>
+        <v>1.184237892316717E-14</v>
       </c>
       <c r="Y5">
-        <v>-9.473903149512974E-15</v>
+        <v>-1.421085472251353E-14</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -3501,25 +3501,25 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>1.000000000000357</v>
+        <v>1.000000000000356</v>
       </c>
       <c r="AG5">
-        <v>0.4999999997607572</v>
+        <v>0.4999999997607566</v>
       </c>
       <c r="AH5">
-        <v>0.5000000002395997</v>
+        <v>0.5000000002395998</v>
       </c>
       <c r="AI5">
-        <v>1.000000000000357</v>
+        <v>1.000000000000356</v>
       </c>
       <c r="AJ5">
-        <v>0.4999999997607573</v>
+        <v>0.4999999997607565</v>
       </c>
       <c r="AK5">
         <v>0.5000000002395996</v>
       </c>
       <c r="AL5">
-        <v>6.304574187411997E-13</v>
+        <v>7.243110044814799E-13</v>
       </c>
       <c r="AM5">
         <v>-179.9999999878632</v>
@@ -3528,7 +3528,7 @@
         <v>179.9999999878562</v>
       </c>
       <c r="AO5">
-        <v>6.268133933251543E-13</v>
+        <v>7.27369144564047E-13</v>
       </c>
       <c r="AP5">
         <v>-179.9999999878632</v>
@@ -3722,40 +3722,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.131628207281076E-14</v>
+        <v>-1.777626949275425E-28</v>
       </c>
       <c r="O2">
-        <v>1.302651450832089E-14</v>
+        <v>8.289562935696942E-15</v>
       </c>
       <c r="P2">
-        <v>1.421075183225518E-14</v>
+        <v>-4.737054461426056E-15</v>
       </c>
       <c r="Q2">
-        <v>-2.131628207281077E-14</v>
+        <v>-2.368475785867663E-15</v>
       </c>
       <c r="R2">
-        <v>-1.302583498009507E-14</v>
+        <v>-8.288883403822671E-15</v>
       </c>
       <c r="S2">
-        <v>-7.104644939524591E-15</v>
+        <v>7.106209784422245E-15</v>
       </c>
       <c r="T2">
-        <v>-1.421085471520683E-14</v>
+        <v>1.421085471520707E-14</v>
       </c>
       <c r="U2">
-        <v>4.763111385045251E-09</v>
+        <v>4.763135069803085E-09</v>
       </c>
       <c r="V2">
-        <v>-4.763132704818049E-09</v>
+        <v>-4.76312323091489E-09</v>
       </c>
       <c r="W2">
-        <v>1.421085471520683E-14</v>
+        <v>-1.42108547152071E-14</v>
       </c>
       <c r="X2">
-        <v>-4.763111384643682E-09</v>
+        <v>-4.763132700925732E-09</v>
       </c>
       <c r="Y2">
-        <v>4.763118494364889E-09</v>
+        <v>4.763132705219602E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -3776,25 +3776,25 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.000000000000356</v>
+        <v>1.000000000000357</v>
       </c>
       <c r="AG2">
-        <v>0.4999999998169629</v>
+        <v>0.4999999998169612</v>
       </c>
       <c r="AH2">
-        <v>0.5000000001833955</v>
+        <v>0.5000000001833942</v>
       </c>
       <c r="AI2">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ2">
-        <v>0.4999999997748087</v>
+        <v>0.4999999997748074</v>
       </c>
       <c r="AK2">
-        <v>0.5000000002255485</v>
+        <v>0.5000000002255478</v>
       </c>
       <c r="AL2">
-        <v>6.493179824892998E-13</v>
+        <v>7.167093308835482E-13</v>
       </c>
       <c r="AM2">
         <v>-179.999999998762</v>
@@ -3803,10 +3803,10 @@
         <v>179.999999998755</v>
       </c>
       <c r="AO2">
-        <v>6.429971712676169E-13</v>
+        <v>7.377172859837794E-13</v>
       </c>
       <c r="AP2">
-        <v>-179.999999990588</v>
+        <v>-179.9999999905879</v>
       </c>
       <c r="AQ2">
         <v>179.9999999905809</v>
@@ -3853,40 +3853,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-2.131628207281072E-14</v>
+        <v>-2.131628207281048E-14</v>
       </c>
       <c r="O3">
-        <v>-1.065780491484833E-14</v>
+        <v>-1.183901772442842E-15</v>
       </c>
       <c r="P3">
-        <v>-4.736615260736931E-15</v>
+        <v>9.474239460217276E-15</v>
       </c>
       <c r="Q3">
-        <v>1.894780628694293E-14</v>
+        <v>1.894780628694264E-14</v>
       </c>
       <c r="R3">
-        <v>1.065788041846238E-14</v>
+        <v>1.183977275482222E-15</v>
       </c>
       <c r="S3">
-        <v>1.184211812498944E-14</v>
+        <v>-2.368736594288667E-15</v>
       </c>
       <c r="T3">
-        <v>9.473903143471146E-15</v>
+        <v>-9.473903143471646E-15</v>
       </c>
       <c r="U3">
-        <v>-1.587710110772036E-09</v>
+        <v>-1.587714847723601E-09</v>
       </c>
       <c r="V3">
-        <v>1.587717217719922E-09</v>
+        <v>1.587717217719919E-09</v>
       </c>
       <c r="W3">
-        <v>-1.421085471520686E-14</v>
+        <v>9.473903143471626E-15</v>
       </c>
       <c r="X3">
-        <v>1.587710110816654E-09</v>
+        <v>1.587726690147143E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.587721954626878E-09</v>
+        <v>-1.587707743772152E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -3907,25 +3907,25 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.000000000000357</v>
+        <v>1.000000000000356</v>
       </c>
       <c r="AG3">
-        <v>0.4999999997607572</v>
+        <v>0.4999999997607566</v>
       </c>
       <c r="AH3">
-        <v>0.5000000002395997</v>
+        <v>0.5000000002395998</v>
       </c>
       <c r="AI3">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ3">
-        <v>0.4999999997748087</v>
+        <v>0.4999999997748074</v>
       </c>
       <c r="AK3">
-        <v>0.5000000002255485</v>
+        <v>0.5000000002255478</v>
       </c>
       <c r="AL3">
-        <v>6.304574187411997E-13</v>
+        <v>7.243110044814799E-13</v>
       </c>
       <c r="AM3">
         <v>-179.9999999878632</v>
@@ -3934,10 +3934,10 @@
         <v>179.9999999878562</v>
       </c>
       <c r="AO3">
-        <v>6.429971712676169E-13</v>
+        <v>7.377172859837794E-13</v>
       </c>
       <c r="AP3">
-        <v>-179.999999990588</v>
+        <v>-179.9999999905879</v>
       </c>
       <c r="AQ3">
         <v>179.9999999905809</v>
@@ -3984,40 +3984,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-1.894780628694292E-14</v>
+        <v>-1.894780628694269E-14</v>
       </c>
       <c r="O4">
-        <v>-1.18390177520837E-15</v>
+        <v>-1.183901777159179E-15</v>
       </c>
       <c r="P4">
-        <v>-9.473566834740874E-15</v>
+        <v>4.737287884206553E-15</v>
       </c>
       <c r="Q4">
-        <v>1.894780628694293E-14</v>
+        <v>1.894780628694264E-14</v>
       </c>
       <c r="R4">
-        <v>5.920928847306737E-15</v>
+        <v>1.183977277037313E-15</v>
       </c>
       <c r="S4">
-        <v>1.657906969886026E-14</v>
+        <v>-2.368736592732421E-15</v>
       </c>
       <c r="T4">
-        <v>1.421085471520686E-14</v>
+        <v>-4.73695157173593E-15</v>
       </c>
       <c r="U4">
-        <v>-1.587710110772034E-09</v>
+        <v>-1.587695899917323E-09</v>
       </c>
       <c r="V4">
-        <v>1.587717217719922E-09</v>
+        <v>1.587707743816771E-09</v>
       </c>
       <c r="W4">
-        <v>-1.421085471520686E-14</v>
+        <v>9.473903143471626E-15</v>
       </c>
       <c r="X4">
-        <v>1.587719584719793E-09</v>
+        <v>1.587717216244003E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.587721954626878E-09</v>
+        <v>-1.587698269869004E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -4038,10 +4038,10 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.000000000000357</v>
+        <v>1.000000000000356</v>
       </c>
       <c r="AG4">
-        <v>0.4999999997607573</v>
+        <v>0.4999999997607565</v>
       </c>
       <c r="AH4">
         <v>0.5000000002395996</v>
@@ -4050,13 +4050,13 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AJ4">
-        <v>0.4999999997748087</v>
+        <v>0.4999999997748074</v>
       </c>
       <c r="AK4">
-        <v>0.5000000002255485</v>
+        <v>0.5000000002255478</v>
       </c>
       <c r="AL4">
-        <v>6.268133933251543E-13</v>
+        <v>7.27369144564047E-13</v>
       </c>
       <c r="AM4">
         <v>-179.9999999878632</v>
@@ -4065,10 +4065,10 @@
         <v>179.9999999878562</v>
       </c>
       <c r="AO4">
-        <v>6.429971712676169E-13</v>
+        <v>7.377172859837794E-13</v>
       </c>
       <c r="AP4">
-        <v>-179.999999990588</v>
+        <v>-179.9999999905879</v>
       </c>
       <c r="AQ4">
         <v>179.9999999905809</v>
@@ -4115,40 +4115,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-2.368475785867794E-15</v>
+        <v>-2.368475785867844E-15</v>
       </c>
       <c r="O5">
-        <v>-7.105427355705368E-15</v>
+        <v>4.736951571974469E-15</v>
       </c>
       <c r="P5">
-        <v>1.003390050674056E-24</v>
+        <v>2.368475789008747E-15</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-6.013553601776432E-29</v>
       </c>
       <c r="R5">
-        <v>9.473903140439092E-15</v>
+        <v>-2.368475787240747E-15</v>
       </c>
       <c r="S5">
-        <v>7.105427358999136E-15</v>
+        <v>2.368475783991811E-15</v>
       </c>
       <c r="T5">
-        <v>-4.736951571735718E-15</v>
+        <v>-2.994135152939787E-29</v>
       </c>
       <c r="U5">
-        <v>7.105427352696946E-15</v>
+        <v>-1.184237892266577E-14</v>
       </c>
       <c r="V5">
-        <v>4.736951574003945E-15</v>
+        <v>9.4739031475062E-15</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>4.736951571735688E-15</v>
       </c>
       <c r="X5">
-        <v>-7.105427352195539E-15</v>
+        <v>1.184237892316717E-14</v>
       </c>
       <c r="Y5">
-        <v>-9.473903149512974E-15</v>
+        <v>-1.421085472251353E-14</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -4169,25 +4169,25 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>1.000000000000357</v>
+        <v>1.000000000000356</v>
       </c>
       <c r="AG5">
-        <v>0.4999999997607572</v>
+        <v>0.4999999997607566</v>
       </c>
       <c r="AH5">
-        <v>0.5000000002395997</v>
+        <v>0.5000000002395998</v>
       </c>
       <c r="AI5">
-        <v>1.000000000000357</v>
+        <v>1.000000000000356</v>
       </c>
       <c r="AJ5">
-        <v>0.4999999997607573</v>
+        <v>0.4999999997607565</v>
       </c>
       <c r="AK5">
         <v>0.5000000002395996</v>
       </c>
       <c r="AL5">
-        <v>6.304574187411997E-13</v>
+        <v>7.243110044814799E-13</v>
       </c>
       <c r="AM5">
         <v>-179.9999999878632</v>
@@ -4196,7 +4196,7 @@
         <v>179.9999999878562</v>
       </c>
       <c r="AO5">
-        <v>6.268133933251543E-13</v>
+        <v>7.27369144564047E-13</v>
       </c>
       <c r="AP5">
         <v>-179.9999999878632</v>
@@ -4390,40 +4390,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.605323364468834E-14</v>
+        <v>-2.368475785880887E-15</v>
       </c>
       <c r="O2">
-        <v>-5.559438601015702E-10</v>
+        <v>-5.559532749251181E-10</v>
       </c>
       <c r="P2">
-        <v>-1.551456747312587E-09</v>
+        <v>-1.551456747312586E-09</v>
       </c>
       <c r="Q2">
-        <v>-1.894780628704615E-14</v>
+        <v>1.785280952760572E-28</v>
       </c>
       <c r="R2">
-        <v>5.559442358533699E-10</v>
+        <v>5.559605410991728E-10</v>
       </c>
       <c r="S2">
-        <v>1.551457323156361E-09</v>
+        <v>1.551458112209684E-09</v>
       </c>
       <c r="T2">
-        <v>-2.131628207292642E-14</v>
+        <v>1.421085471528441E-14</v>
       </c>
       <c r="U2">
-        <v>4.833145536304521E-09</v>
+        <v>4.833147685433737E-09</v>
       </c>
       <c r="V2">
-        <v>-3.108898961877404E-09</v>
+        <v>-3.108898961877402E-09</v>
       </c>
       <c r="W2">
-        <v>2.368475785880723E-14</v>
+        <v>-1.657933050116518E-14</v>
       </c>
       <c r="X2">
-        <v>-4.833140999161421E-09</v>
+        <v>-4.833159249103003E-09</v>
       </c>
       <c r="Y2">
-        <v>3.108894400389425E-09</v>
+        <v>3.108902841723692E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -4447,22 +4447,22 @@
         <v>1.000000000005801</v>
       </c>
       <c r="AG2">
-        <v>0.6078088903891389</v>
+        <v>0.6078088903891382</v>
       </c>
       <c r="AH2">
-        <v>0.4340870104140596</v>
+        <v>0.4340870104140593</v>
       </c>
       <c r="AI2">
         <v>1.000000000005801</v>
       </c>
       <c r="AJ2">
-        <v>0.6078088903608013</v>
+        <v>0.6078088903608005</v>
       </c>
       <c r="AK2">
-        <v>0.4340870104725136</v>
+        <v>0.4340870104725134</v>
       </c>
       <c r="AL2">
-        <v>5.449228582527957E-13</v>
+        <v>5.926984901657703E-13</v>
       </c>
       <c r="AM2">
         <v>-166.2935793302449</v>
@@ -4471,10 +4471,10 @@
         <v>160.6235536346806</v>
       </c>
       <c r="AO2">
-        <v>5.379631538231196E-13</v>
+        <v>6.169673970313961E-13</v>
       </c>
       <c r="AP2">
-        <v>-166.2935793242506</v>
+        <v>-166.2935793242505</v>
       </c>
       <c r="AQ2">
         <v>160.6235536296895</v>
@@ -4521,40 +4521,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-1.657933050116521E-14</v>
+        <v>-1.421085471528436E-14</v>
       </c>
       <c r="O3">
-        <v>1.853108906868387E-10</v>
+        <v>1.853250809711451E-10</v>
       </c>
       <c r="P3">
-        <v>5.171548356926079E-10</v>
+        <v>5.17158928944689E-10</v>
       </c>
       <c r="Q3">
-        <v>2.131628207292667E-14</v>
+        <v>1.657933050116515E-14</v>
       </c>
       <c r="R3">
-        <v>-1.853091509441078E-10</v>
+        <v>-1.853233412284129E-10</v>
       </c>
       <c r="S3">
-        <v>-5.171528958579068E-10</v>
+        <v>-5.171550493285897E-10</v>
       </c>
       <c r="T3">
-        <v>2.368475785880587E-15</v>
+        <v>-7.105427357642368E-15</v>
       </c>
       <c r="U3">
-        <v>-1.611049421587082E-09</v>
+        <v>-1.611071150907522E-09</v>
       </c>
       <c r="V3">
-        <v>1.03629874447356E-09</v>
+        <v>1.036310383161945E-09</v>
       </c>
       <c r="W3">
-        <v>2.001434386474658E-28</v>
+        <v>2.368475785880918E-15</v>
       </c>
       <c r="X3">
-        <v>1.611048364137834E-09</v>
+        <v>1.611070093458274E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.03629942665074E-09</v>
+        <v>-1.036311747547803E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -4575,37 +4575,37 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.000000000005801</v>
+        <v>1.0000000000058</v>
       </c>
       <c r="AG3">
-        <v>0.6078088903513554</v>
+        <v>0.607808890351355</v>
       </c>
       <c r="AH3">
-        <v>0.4340870104919984</v>
+        <v>0.4340870104919986</v>
       </c>
       <c r="AI3">
         <v>1.000000000005801</v>
       </c>
       <c r="AJ3">
-        <v>0.6078088903608013</v>
+        <v>0.6078088903608005</v>
       </c>
       <c r="AK3">
-        <v>0.4340870104725136</v>
+        <v>0.4340870104725134</v>
       </c>
       <c r="AL3">
-        <v>5.299044281279242E-13</v>
+        <v>6.111190058075638E-13</v>
       </c>
       <c r="AM3">
-        <v>-166.2935793222524</v>
+        <v>-166.2935793222523</v>
       </c>
       <c r="AN3">
         <v>160.6235536280259</v>
       </c>
       <c r="AO3">
-        <v>5.379631538231196E-13</v>
+        <v>6.169673970313961E-13</v>
       </c>
       <c r="AP3">
-        <v>-166.2935793242506</v>
+        <v>-166.2935793242505</v>
       </c>
       <c r="AQ3">
         <v>160.6235536296895</v>
@@ -4652,40 +4652,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-1.18423789294037E-14</v>
+        <v>-1.421085471528436E-14</v>
       </c>
       <c r="O4">
-        <v>1.853234437848968E-10</v>
+        <v>1.853306753114937E-10</v>
       </c>
       <c r="P4">
-        <v>5.171517451831363E-10</v>
+        <v>5.171550493818943E-10</v>
       </c>
       <c r="Q4">
-        <v>1.421085471528444E-14</v>
+        <v>1.421085471528441E-14</v>
       </c>
       <c r="R4">
-        <v>-1.853202712893511E-10</v>
+        <v>-1.853289355687617E-10</v>
       </c>
       <c r="S4">
-        <v>-5.171503807124721E-10</v>
+        <v>-5.171498053484349E-10</v>
       </c>
       <c r="T4">
-        <v>-1.093121344354784E-28</v>
+        <v>-7.10542735764237E-15</v>
       </c>
       <c r="U4">
-        <v>-1.61105228709271E-09</v>
+        <v>-1.611069786490162E-09</v>
       </c>
       <c r="V4">
-        <v>1.03630855022519E-09</v>
+        <v>1.036311747579304E-09</v>
       </c>
       <c r="W4">
-        <v>1.334289590983106E-28</v>
+        <v>2.368475785880893E-15</v>
       </c>
       <c r="X4">
-        <v>1.611057506192491E-09</v>
+        <v>1.611068729040914E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.036304670630895E-09</v>
+        <v>-1.036309232402368E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -4706,10 +4706,10 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.000000000005801</v>
+        <v>1.0000000000058</v>
       </c>
       <c r="AG4">
-        <v>0.6078088903513557</v>
+        <v>0.607808890351355</v>
       </c>
       <c r="AH4">
         <v>0.4340870104919984</v>
@@ -4718,25 +4718,25 @@
         <v>1.000000000005801</v>
       </c>
       <c r="AJ4">
-        <v>0.6078088903608013</v>
+        <v>0.6078088903608005</v>
       </c>
       <c r="AK4">
-        <v>0.4340870104725136</v>
+        <v>0.4340870104725134</v>
       </c>
       <c r="AL4">
-        <v>5.288738006152195E-13</v>
+        <v>6.135914631423961E-13</v>
       </c>
       <c r="AM4">
-        <v>-166.2935793222524</v>
+        <v>-166.2935793222523</v>
       </c>
       <c r="AN4">
-        <v>160.6235536280259</v>
+        <v>160.6235536280258</v>
       </c>
       <c r="AO4">
-        <v>5.379631538231196E-13</v>
+        <v>6.169673970313961E-13</v>
       </c>
       <c r="AP4">
-        <v>-166.2935793242506</v>
+        <v>-166.2935793242505</v>
       </c>
       <c r="AQ4">
         <v>160.6235536296895</v>
@@ -4783,40 +4783,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-4.736951571761503E-15</v>
+        <v>2.526225456477637E-29</v>
       </c>
       <c r="O5">
-        <v>-1.07792409033319E-14</v>
+        <v>-6.27654902876881E-15</v>
       </c>
       <c r="P5">
-        <v>3.879562794843453E-15</v>
+        <v>3.304198757600888E-15</v>
       </c>
       <c r="Q5">
-        <v>7.105427357642221E-15</v>
+        <v>2.368475785880764E-15</v>
       </c>
       <c r="R5">
-        <v>1.149561731041243E-14</v>
+        <v>6.992925435849333E-15</v>
       </c>
       <c r="S5">
-        <v>-1.939781397421726E-15</v>
+        <v>3.879562794843452E-15</v>
       </c>
       <c r="T5">
-        <v>2.368475785880697E-15</v>
+        <v>-2.368475785880739E-15</v>
       </c>
       <c r="U5">
-        <v>7.743469569921062E-15</v>
+        <v>1.432752814161047E-15</v>
       </c>
       <c r="V5">
-        <v>-1.36441736017916E-15</v>
+        <v>3.197354114753873E-15</v>
       </c>
       <c r="W5">
-        <v>6.558728066128705E-29</v>
+        <v>-2.368475785880714E-15</v>
       </c>
       <c r="X5">
-        <v>-4.605195055536653E-15</v>
+        <v>1.705521700223358E-15</v>
       </c>
       <c r="Y5">
-        <v>6.822086800895803E-16</v>
+        <v>-1.364417360179163E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -4837,40 +4837,40 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>1.000000000005801</v>
+        <v>1.0000000000058</v>
       </c>
       <c r="AG5">
-        <v>0.6078088903513554</v>
+        <v>0.607808890351355</v>
       </c>
       <c r="AH5">
-        <v>0.4340870104919984</v>
+        <v>0.4340870104919986</v>
       </c>
       <c r="AI5">
-        <v>1.000000000005801</v>
+        <v>1.0000000000058</v>
       </c>
       <c r="AJ5">
-        <v>0.6078088903513557</v>
+        <v>0.607808890351355</v>
       </c>
       <c r="AK5">
         <v>0.4340870104919984</v>
       </c>
       <c r="AL5">
-        <v>5.299044281279242E-13</v>
+        <v>6.111190058075638E-13</v>
       </c>
       <c r="AM5">
-        <v>-166.2935793222524</v>
+        <v>-166.2935793222523</v>
       </c>
       <c r="AN5">
         <v>160.6235536280259</v>
       </c>
       <c r="AO5">
-        <v>5.288738006152195E-13</v>
+        <v>6.135914631423961E-13</v>
       </c>
       <c r="AP5">
-        <v>-166.2935793222524</v>
+        <v>-166.2935793222523</v>
       </c>
       <c r="AQ5">
-        <v>160.6235536280259</v>
+        <v>160.6235536280258</v>
       </c>
     </row>
   </sheetData>
@@ -5058,40 +5058,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.605323364468834E-14</v>
+        <v>-2.368475785880887E-15</v>
       </c>
       <c r="O2">
-        <v>-5.559438601015702E-10</v>
+        <v>-5.559532749251181E-10</v>
       </c>
       <c r="P2">
-        <v>-1.551456747312587E-09</v>
+        <v>-1.551456747312586E-09</v>
       </c>
       <c r="Q2">
-        <v>-1.894780628704615E-14</v>
+        <v>1.785280952760572E-28</v>
       </c>
       <c r="R2">
-        <v>5.559442358533699E-10</v>
+        <v>5.559605410991728E-10</v>
       </c>
       <c r="S2">
-        <v>1.551457323156361E-09</v>
+        <v>1.551458112209684E-09</v>
       </c>
       <c r="T2">
-        <v>-2.131628207292642E-14</v>
+        <v>1.421085471528441E-14</v>
       </c>
       <c r="U2">
-        <v>4.833145536304521E-09</v>
+        <v>4.833147685433737E-09</v>
       </c>
       <c r="V2">
-        <v>-3.108898961877404E-09</v>
+        <v>-3.108898961877402E-09</v>
       </c>
       <c r="W2">
-        <v>2.368475785880723E-14</v>
+        <v>-1.657933050116518E-14</v>
       </c>
       <c r="X2">
-        <v>-4.833140999161421E-09</v>
+        <v>-4.833159249103003E-09</v>
       </c>
       <c r="Y2">
-        <v>3.108894400389425E-09</v>
+        <v>3.108902841723692E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -5115,22 +5115,22 @@
         <v>1.000000000005801</v>
       </c>
       <c r="AG2">
-        <v>0.6078088903891389</v>
+        <v>0.6078088903891382</v>
       </c>
       <c r="AH2">
-        <v>0.4340870104140596</v>
+        <v>0.4340870104140593</v>
       </c>
       <c r="AI2">
         <v>1.000000000005801</v>
       </c>
       <c r="AJ2">
-        <v>0.6078088903608013</v>
+        <v>0.6078088903608005</v>
       </c>
       <c r="AK2">
-        <v>0.4340870104725136</v>
+        <v>0.4340870104725134</v>
       </c>
       <c r="AL2">
-        <v>5.449228582527957E-13</v>
+        <v>5.926984901657703E-13</v>
       </c>
       <c r="AM2">
         <v>-166.2935793302449</v>
@@ -5139,10 +5139,10 @@
         <v>160.6235536346806</v>
       </c>
       <c r="AO2">
-        <v>5.379631538231196E-13</v>
+        <v>6.169673970313961E-13</v>
       </c>
       <c r="AP2">
-        <v>-166.2935793242506</v>
+        <v>-166.2935793242505</v>
       </c>
       <c r="AQ2">
         <v>160.6235536296895</v>
@@ -5189,40 +5189,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-1.657933050116521E-14</v>
+        <v>-1.421085471528436E-14</v>
       </c>
       <c r="O3">
-        <v>1.853108906868387E-10</v>
+        <v>1.853250809711451E-10</v>
       </c>
       <c r="P3">
-        <v>5.171548356926079E-10</v>
+        <v>5.17158928944689E-10</v>
       </c>
       <c r="Q3">
-        <v>2.131628207292667E-14</v>
+        <v>1.657933050116515E-14</v>
       </c>
       <c r="R3">
-        <v>-1.853091509441078E-10</v>
+        <v>-1.853233412284129E-10</v>
       </c>
       <c r="S3">
-        <v>-5.171528958579068E-10</v>
+        <v>-5.171550493285897E-10</v>
       </c>
       <c r="T3">
-        <v>2.368475785880587E-15</v>
+        <v>-7.105427357642368E-15</v>
       </c>
       <c r="U3">
-        <v>-1.611049421587082E-09</v>
+        <v>-1.611071150907522E-09</v>
       </c>
       <c r="V3">
-        <v>1.03629874447356E-09</v>
+        <v>1.036310383161945E-09</v>
       </c>
       <c r="W3">
-        <v>2.001434386474658E-28</v>
+        <v>2.368475785880918E-15</v>
       </c>
       <c r="X3">
-        <v>1.611048364137834E-09</v>
+        <v>1.611070093458274E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.03629942665074E-09</v>
+        <v>-1.036311747547803E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -5243,37 +5243,37 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.000000000005801</v>
+        <v>1.0000000000058</v>
       </c>
       <c r="AG3">
-        <v>0.6078088903513554</v>
+        <v>0.607808890351355</v>
       </c>
       <c r="AH3">
-        <v>0.4340870104919984</v>
+        <v>0.4340870104919986</v>
       </c>
       <c r="AI3">
         <v>1.000000000005801</v>
       </c>
       <c r="AJ3">
-        <v>0.6078088903608013</v>
+        <v>0.6078088903608005</v>
       </c>
       <c r="AK3">
-        <v>0.4340870104725136</v>
+        <v>0.4340870104725134</v>
       </c>
       <c r="AL3">
-        <v>5.299044281279242E-13</v>
+        <v>6.111190058075638E-13</v>
       </c>
       <c r="AM3">
-        <v>-166.2935793222524</v>
+        <v>-166.2935793222523</v>
       </c>
       <c r="AN3">
         <v>160.6235536280259</v>
       </c>
       <c r="AO3">
-        <v>5.379631538231196E-13</v>
+        <v>6.169673970313961E-13</v>
       </c>
       <c r="AP3">
-        <v>-166.2935793242506</v>
+        <v>-166.2935793242505</v>
       </c>
       <c r="AQ3">
         <v>160.6235536296895</v>
@@ -5320,40 +5320,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-1.18423789294037E-14</v>
+        <v>-1.421085471528436E-14</v>
       </c>
       <c r="O4">
-        <v>1.853234437848968E-10</v>
+        <v>1.853306753114937E-10</v>
       </c>
       <c r="P4">
-        <v>5.171517451831363E-10</v>
+        <v>5.171550493818943E-10</v>
       </c>
       <c r="Q4">
-        <v>1.421085471528444E-14</v>
+        <v>1.421085471528441E-14</v>
       </c>
       <c r="R4">
-        <v>-1.853202712893511E-10</v>
+        <v>-1.853289355687617E-10</v>
       </c>
       <c r="S4">
-        <v>-5.171503807124721E-10</v>
+        <v>-5.171498053484349E-10</v>
       </c>
       <c r="T4">
-        <v>-1.093121344354784E-28</v>
+        <v>-7.10542735764237E-15</v>
       </c>
       <c r="U4">
-        <v>-1.61105228709271E-09</v>
+        <v>-1.611069786490162E-09</v>
       </c>
       <c r="V4">
-        <v>1.03630855022519E-09</v>
+        <v>1.036311747579304E-09</v>
       </c>
       <c r="W4">
-        <v>1.334289590983106E-28</v>
+        <v>2.368475785880893E-15</v>
       </c>
       <c r="X4">
-        <v>1.611057506192491E-09</v>
+        <v>1.611068729040914E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.036304670630895E-09</v>
+        <v>-1.036309232402368E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -5374,10 +5374,10 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.000000000005801</v>
+        <v>1.0000000000058</v>
       </c>
       <c r="AG4">
-        <v>0.6078088903513557</v>
+        <v>0.607808890351355</v>
       </c>
       <c r="AH4">
         <v>0.4340870104919984</v>
@@ -5386,25 +5386,25 @@
         <v>1.000000000005801</v>
       </c>
       <c r="AJ4">
-        <v>0.6078088903608013</v>
+        <v>0.6078088903608005</v>
       </c>
       <c r="AK4">
-        <v>0.4340870104725136</v>
+        <v>0.4340870104725134</v>
       </c>
       <c r="AL4">
-        <v>5.288738006152195E-13</v>
+        <v>6.135914631423961E-13</v>
       </c>
       <c r="AM4">
-        <v>-166.2935793222524</v>
+        <v>-166.2935793222523</v>
       </c>
       <c r="AN4">
-        <v>160.6235536280259</v>
+        <v>160.6235536280258</v>
       </c>
       <c r="AO4">
-        <v>5.379631538231196E-13</v>
+        <v>6.169673970313961E-13</v>
       </c>
       <c r="AP4">
-        <v>-166.2935793242506</v>
+        <v>-166.2935793242505</v>
       </c>
       <c r="AQ4">
         <v>160.6235536296895</v>
@@ -5451,40 +5451,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-4.736951571761503E-15</v>
+        <v>2.526225456477637E-29</v>
       </c>
       <c r="O5">
-        <v>-1.07792409033319E-14</v>
+        <v>-6.27654902876881E-15</v>
       </c>
       <c r="P5">
-        <v>3.879562794843453E-15</v>
+        <v>3.304198757600888E-15</v>
       </c>
       <c r="Q5">
-        <v>7.105427357642221E-15</v>
+        <v>2.368475785880764E-15</v>
       </c>
       <c r="R5">
-        <v>1.149561731041243E-14</v>
+        <v>6.992925435849333E-15</v>
       </c>
       <c r="S5">
-        <v>-1.939781397421726E-15</v>
+        <v>3.879562794843452E-15</v>
       </c>
       <c r="T5">
-        <v>2.368475785880697E-15</v>
+        <v>-2.368475785880739E-15</v>
       </c>
       <c r="U5">
-        <v>7.743469569921062E-15</v>
+        <v>1.432752814161047E-15</v>
       </c>
       <c r="V5">
-        <v>-1.36441736017916E-15</v>
+        <v>3.197354114753873E-15</v>
       </c>
       <c r="W5">
-        <v>6.558728066128705E-29</v>
+        <v>-2.368475785880714E-15</v>
       </c>
       <c r="X5">
-        <v>-4.605195055536653E-15</v>
+        <v>1.705521700223358E-15</v>
       </c>
       <c r="Y5">
-        <v>6.822086800895803E-16</v>
+        <v>-1.364417360179163E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -5505,40 +5505,40 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>1.000000000005801</v>
+        <v>1.0000000000058</v>
       </c>
       <c r="AG5">
-        <v>0.6078088903513554</v>
+        <v>0.607808890351355</v>
       </c>
       <c r="AH5">
-        <v>0.4340870104919984</v>
+        <v>0.4340870104919986</v>
       </c>
       <c r="AI5">
-        <v>1.000000000005801</v>
+        <v>1.0000000000058</v>
       </c>
       <c r="AJ5">
-        <v>0.6078088903513557</v>
+        <v>0.607808890351355</v>
       </c>
       <c r="AK5">
         <v>0.4340870104919984</v>
       </c>
       <c r="AL5">
-        <v>5.299044281279242E-13</v>
+        <v>6.111190058075638E-13</v>
       </c>
       <c r="AM5">
-        <v>-166.2935793222524</v>
+        <v>-166.2935793222523</v>
       </c>
       <c r="AN5">
         <v>160.6235536280259</v>
       </c>
       <c r="AO5">
-        <v>5.288738006152195E-13</v>
+        <v>6.135914631423961E-13</v>
       </c>
       <c r="AP5">
-        <v>-166.2935793222524</v>
+        <v>-166.2935793222523</v>
       </c>
       <c r="AQ5">
-        <v>160.6235536280259</v>
+        <v>160.6235536280258</v>
       </c>
     </row>
   </sheetData>
@@ -5729,40 +5729,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.957756375909227E-09</v>
+        <v>-2.95777808693773E-09</v>
       </c>
       <c r="O2">
-        <v>-7.39469138691326E-10</v>
+        <v>-7.394714033210842E-10</v>
       </c>
       <c r="P2">
-        <v>-7.394012416465706E-10</v>
+        <v>-7.394121739807594E-10</v>
       </c>
       <c r="Q2">
-        <v>2.957755941942429E-09</v>
+        <v>2.957770705441812E-09</v>
       </c>
       <c r="R2">
-        <v>7.394687045341993E-10</v>
+        <v>7.394664566114232E-10</v>
       </c>
       <c r="S2">
-        <v>7.394048858214109E-10</v>
+        <v>7.394121740442041E-10</v>
       </c>
       <c r="T2">
-        <v>2.084173012249856E-14</v>
+        <v>1.302575984779976E-14</v>
       </c>
       <c r="U2">
-        <v>-3.842211983831569E-09</v>
+        <v>-3.84227238389682E-09</v>
       </c>
       <c r="V2">
-        <v>3.842284716167732E-09</v>
+        <v>3.842268573186705E-09</v>
       </c>
       <c r="W2">
-        <v>-1.823611876698371E-14</v>
+        <v>-1.042014849256541E-14</v>
       </c>
       <c r="X2">
-        <v>3.842209727627284E-09</v>
+        <v>3.842270996133679E-09</v>
       </c>
       <c r="Y2">
-        <v>-3.84227933510207E-09</v>
+        <v>-3.842268573114719E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -5783,40 +5783,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.3666666746541439</v>
+        <v>0.3666666746541434</v>
       </c>
       <c r="AH2">
-        <v>0.9701088351760887</v>
+        <v>0.9701088351760907</v>
       </c>
       <c r="AI2">
         <v>0.9701088350717373</v>
       </c>
       <c r="AJ2">
-        <v>0.3666666746856034</v>
+        <v>0.3666666746856033</v>
       </c>
       <c r="AK2">
-        <v>0.9701088351965873</v>
+        <v>0.9701088351965896</v>
       </c>
       <c r="AL2">
-        <v>0.9701088350571836</v>
+        <v>0.9701088350571837</v>
       </c>
       <c r="AM2">
-        <v>1.660604809896655E-08</v>
+        <v>1.660614072922717E-08</v>
       </c>
       <c r="AN2">
-        <v>-100.8933946492836</v>
+        <v>-100.8933946492837</v>
       </c>
       <c r="AO2">
-        <v>100.8933946504708</v>
+        <v>100.8933946504709</v>
       </c>
       <c r="AP2">
-        <v>2.218376233036782E-08</v>
+        <v>2.218384770264242E-08</v>
       </c>
       <c r="AQ2">
-        <v>-100.8933946499967</v>
+        <v>-100.8933946499968</v>
       </c>
       <c r="AR2">
-        <v>100.8933946515823</v>
+        <v>100.8933946515824</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -5860,40 +5860,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.859182131217694E-10</v>
+        <v>9.859347135034406E-10</v>
       </c>
       <c r="O3">
-        <v>2.464984485499971E-10</v>
+        <v>2.464803983398553E-10</v>
       </c>
       <c r="P3">
-        <v>2.464646511694585E-10</v>
+        <v>2.464592701757838E-10</v>
       </c>
       <c r="Q3">
-        <v>-9.859151735495849E-10</v>
+        <v>-9.859316739312513E-10</v>
       </c>
       <c r="R3">
-        <v>-2.465079078685894E-10</v>
+        <v>-2.464853451059125E-10</v>
       </c>
       <c r="S3">
-        <v>-2.464519819459445E-10</v>
+        <v>-2.464502450636649E-10</v>
       </c>
       <c r="T3">
-        <v>-6.947115403829659E-15</v>
+        <v>-7.815556535152305E-15</v>
       </c>
       <c r="U3">
-        <v>1.28073408690939E-09</v>
+        <v>1.280737560673954E-09</v>
       </c>
       <c r="V3">
-        <v>-1.280765159353034E-09</v>
+        <v>-1.280761515241639E-09</v>
       </c>
       <c r="W3">
-        <v>1.64999999427329E-14</v>
+        <v>1.042091195153465E-14</v>
       </c>
       <c r="X3">
-        <v>-1.280734606295378E-09</v>
+        <v>-1.280738948501084E-09</v>
       </c>
       <c r="Y3">
-        <v>1.280772277236989E-09</v>
+        <v>1.280763252131919E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -5914,40 +5914,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.3666666746960897</v>
+        <v>0.3666666746960902</v>
       </c>
       <c r="AH3">
-        <v>0.9701088352034204</v>
+        <v>0.9701088352034224</v>
       </c>
       <c r="AI3">
         <v>0.9701088350523324</v>
       </c>
       <c r="AJ3">
-        <v>0.3666666746856034</v>
+        <v>0.3666666746856033</v>
       </c>
       <c r="AK3">
-        <v>0.9701088351965873</v>
+        <v>0.9701088351965896</v>
       </c>
       <c r="AL3">
-        <v>0.9701088350571836</v>
+        <v>0.9701088350571837</v>
       </c>
       <c r="AM3">
-        <v>2.40429888495575E-08</v>
+        <v>2.404311991680401E-08</v>
       </c>
       <c r="AN3">
         <v>-100.8933946502344</v>
       </c>
       <c r="AO3">
-        <v>100.8933946519528</v>
+        <v>100.8933946519529</v>
       </c>
       <c r="AP3">
-        <v>2.218376233036782E-08</v>
+        <v>2.218384770264242E-08</v>
       </c>
       <c r="AQ3">
-        <v>-100.8933946499967</v>
+        <v>-100.8933946499968</v>
       </c>
       <c r="AR3">
-        <v>100.8933946515823</v>
+        <v>100.8933946515824</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -5991,40 +5991,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.859147393572045E-10</v>
+        <v>9.859312397388755E-10</v>
       </c>
       <c r="O4">
-        <v>2.464911603272067E-10</v>
+        <v>2.464795298987148E-10</v>
       </c>
       <c r="P4">
-        <v>2.464620458460369E-10</v>
+        <v>2.464700321631349E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.859151735495824E-10</v>
+        <v>-9.859316739312488E-10</v>
       </c>
       <c r="R4">
-        <v>-2.465014880869395E-10</v>
+        <v>-2.465025268749148E-10</v>
       </c>
       <c r="S4">
-        <v>-2.464575332864526E-10</v>
+        <v>-2.46470032156086E-10</v>
       </c>
       <c r="T4">
-        <v>4.137185029558344E-19</v>
+        <v>-8.680274130329527E-16</v>
       </c>
       <c r="U4">
-        <v>1.280744848896742E-09</v>
+        <v>1.280733048121419E-09</v>
       </c>
       <c r="V4">
-        <v>-1.280751621695429E-09</v>
+        <v>-1.280768803464428E-09</v>
       </c>
       <c r="W4">
-        <v>9.552470818915106E-15</v>
+        <v>3.473382827716857E-15</v>
       </c>
       <c r="X4">
-        <v>-1.280749880835266E-09</v>
+        <v>-1.280730962183986E-09</v>
       </c>
       <c r="Y4">
-        <v>1.280752490144568E-09</v>
+        <v>1.280768803472427E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -6045,40 +6045,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.3666666746960897</v>
+        <v>0.3666666746960902</v>
       </c>
       <c r="AH4">
-        <v>0.9701088352034204</v>
+        <v>0.9701088352034225</v>
       </c>
       <c r="AI4">
         <v>0.9701088350523324</v>
       </c>
       <c r="AJ4">
-        <v>0.3666666746856034</v>
+        <v>0.3666666746856033</v>
       </c>
       <c r="AK4">
-        <v>0.9701088351965873</v>
+        <v>0.9701088351965896</v>
       </c>
       <c r="AL4">
-        <v>0.9701088350571836</v>
+        <v>0.9701088350571837</v>
       </c>
       <c r="AM4">
-        <v>2.404297570527625E-08</v>
+        <v>2.404309437934623E-08</v>
       </c>
       <c r="AN4">
         <v>-100.8933946502344</v>
       </c>
       <c r="AO4">
-        <v>100.8933946519528</v>
+        <v>100.8933946519529</v>
       </c>
       <c r="AP4">
-        <v>2.218376233036782E-08</v>
+        <v>2.218384770264242E-08</v>
       </c>
       <c r="AQ4">
-        <v>-100.8933946499967</v>
+        <v>-100.8933946499968</v>
       </c>
       <c r="AR4">
-        <v>100.8933946515823</v>
+        <v>100.8933946515824</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -6122,40 +6122,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>6.079087982421157E-15</v>
+        <v>6.079087984243285E-15</v>
       </c>
       <c r="O5">
-        <v>-3.776048263742492E-15</v>
+        <v>-7.722443360702523E-15</v>
       </c>
       <c r="P5">
-        <v>1.423575191301074E-14</v>
+        <v>9.025105069997898E-15</v>
       </c>
       <c r="Q5">
-        <v>-3.907985134445813E-15</v>
+        <v>-3.907985133716978E-15</v>
       </c>
       <c r="R5">
-        <v>-1.223499589643031E-14</v>
+        <v>7.50533307557701E-15</v>
       </c>
       <c r="S5">
-        <v>-8.854758237509651E-15</v>
+        <v>9.025105069997898E-15</v>
       </c>
       <c r="T5">
-        <v>2.605323424057147E-15</v>
+        <v>-1.736882278453146E-15</v>
       </c>
       <c r="U5">
-        <v>-7.462746367272616E-15</v>
+        <v>8.505711084595824E-15</v>
       </c>
       <c r="V5">
-        <v>-2.533843292898942E-14</v>
+        <v>1.736882281004287E-15</v>
       </c>
       <c r="W5">
-        <v>5.210646841372462E-15</v>
+        <v>3.473764560368336E-15</v>
       </c>
       <c r="X5">
-        <v>9.374152225097855E-15</v>
+        <v>-9.633849218527774E-15</v>
       </c>
       <c r="Y5">
-        <v>2.169432153449261E-14</v>
+        <v>1.736882281004287E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -6176,40 +6176,40 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.3666666746960897</v>
+        <v>0.3666666746960902</v>
       </c>
       <c r="AH5">
-        <v>0.9701088352034204</v>
+        <v>0.9701088352034224</v>
       </c>
       <c r="AI5">
         <v>0.9701088350523324</v>
       </c>
       <c r="AJ5">
-        <v>0.3666666746960897</v>
+        <v>0.3666666746960902</v>
       </c>
       <c r="AK5">
-        <v>0.9701088352034204</v>
+        <v>0.9701088352034225</v>
       </c>
       <c r="AL5">
         <v>0.9701088350523324</v>
       </c>
       <c r="AM5">
-        <v>2.40429888495575E-08</v>
+        <v>2.404311991680401E-08</v>
       </c>
       <c r="AN5">
         <v>-100.8933946502344</v>
       </c>
       <c r="AO5">
-        <v>100.8933946519528</v>
+        <v>100.8933946519529</v>
       </c>
       <c r="AP5">
-        <v>2.404297570527625E-08</v>
+        <v>2.404309437934623E-08</v>
       </c>
       <c r="AQ5">
         <v>-100.8933946502344</v>
       </c>
       <c r="AR5">
-        <v>100.8933946519528</v>
+        <v>100.8933946519529</v>
       </c>
     </row>
   </sheetData>
@@ -6400,40 +6400,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.957756375909227E-09</v>
+        <v>-2.95777808693773E-09</v>
       </c>
       <c r="O2">
-        <v>-7.39469138691326E-10</v>
+        <v>-7.394714033210842E-10</v>
       </c>
       <c r="P2">
-        <v>-7.394012416465706E-10</v>
+        <v>-7.394121739807594E-10</v>
       </c>
       <c r="Q2">
-        <v>2.957755941942429E-09</v>
+        <v>2.957770705441812E-09</v>
       </c>
       <c r="R2">
-        <v>7.394687045341993E-10</v>
+        <v>7.394664566114232E-10</v>
       </c>
       <c r="S2">
-        <v>7.394048858214109E-10</v>
+        <v>7.394121740442041E-10</v>
       </c>
       <c r="T2">
-        <v>2.084173012249856E-14</v>
+        <v>1.302575984779976E-14</v>
       </c>
       <c r="U2">
-        <v>-3.842211983831569E-09</v>
+        <v>-3.84227238389682E-09</v>
       </c>
       <c r="V2">
-        <v>3.842284716167732E-09</v>
+        <v>3.842268573186705E-09</v>
       </c>
       <c r="W2">
-        <v>-1.823611876698371E-14</v>
+        <v>-1.042014849256541E-14</v>
       </c>
       <c r="X2">
-        <v>3.842209727627284E-09</v>
+        <v>3.842270996133679E-09</v>
       </c>
       <c r="Y2">
-        <v>-3.84227933510207E-09</v>
+        <v>-3.842268573114719E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -6454,40 +6454,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.3666666746541439</v>
+        <v>0.3666666746541434</v>
       </c>
       <c r="AH2">
-        <v>0.9701088351760887</v>
+        <v>0.9701088351760907</v>
       </c>
       <c r="AI2">
         <v>0.9701088350717373</v>
       </c>
       <c r="AJ2">
-        <v>0.3666666746856034</v>
+        <v>0.3666666746856033</v>
       </c>
       <c r="AK2">
-        <v>0.9701088351965873</v>
+        <v>0.9701088351965896</v>
       </c>
       <c r="AL2">
-        <v>0.9701088350571836</v>
+        <v>0.9701088350571837</v>
       </c>
       <c r="AM2">
-        <v>1.660604809896655E-08</v>
+        <v>1.660614072922717E-08</v>
       </c>
       <c r="AN2">
-        <v>-100.8933946492836</v>
+        <v>-100.8933946492837</v>
       </c>
       <c r="AO2">
-        <v>100.8933946504708</v>
+        <v>100.8933946504709</v>
       </c>
       <c r="AP2">
-        <v>2.218376233036782E-08</v>
+        <v>2.218384770264242E-08</v>
       </c>
       <c r="AQ2">
-        <v>-100.8933946499967</v>
+        <v>-100.8933946499968</v>
       </c>
       <c r="AR2">
-        <v>100.8933946515823</v>
+        <v>100.8933946515824</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -6531,40 +6531,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.859182131217694E-10</v>
+        <v>9.859347135034406E-10</v>
       </c>
       <c r="O3">
-        <v>2.464984485499971E-10</v>
+        <v>2.464803983398553E-10</v>
       </c>
       <c r="P3">
-        <v>2.464646511694585E-10</v>
+        <v>2.464592701757838E-10</v>
       </c>
       <c r="Q3">
-        <v>-9.859151735495849E-10</v>
+        <v>-9.859316739312513E-10</v>
       </c>
       <c r="R3">
-        <v>-2.465079078685894E-10</v>
+        <v>-2.464853451059125E-10</v>
       </c>
       <c r="S3">
-        <v>-2.464519819459445E-10</v>
+        <v>-2.464502450636649E-10</v>
       </c>
       <c r="T3">
-        <v>-6.947115403829659E-15</v>
+        <v>-7.815556535152305E-15</v>
       </c>
       <c r="U3">
-        <v>1.28073408690939E-09</v>
+        <v>1.280737560673954E-09</v>
       </c>
       <c r="V3">
-        <v>-1.280765159353034E-09</v>
+        <v>-1.280761515241639E-09</v>
       </c>
       <c r="W3">
-        <v>1.64999999427329E-14</v>
+        <v>1.042091195153465E-14</v>
       </c>
       <c r="X3">
-        <v>-1.280734606295378E-09</v>
+        <v>-1.280738948501084E-09</v>
       </c>
       <c r="Y3">
-        <v>1.280772277236989E-09</v>
+        <v>1.280763252131919E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -6585,40 +6585,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.3666666746960897</v>
+        <v>0.3666666746960902</v>
       </c>
       <c r="AH3">
-        <v>0.9701088352034204</v>
+        <v>0.9701088352034224</v>
       </c>
       <c r="AI3">
         <v>0.9701088350523324</v>
       </c>
       <c r="AJ3">
-        <v>0.3666666746856034</v>
+        <v>0.3666666746856033</v>
       </c>
       <c r="AK3">
-        <v>0.9701088351965873</v>
+        <v>0.9701088351965896</v>
       </c>
       <c r="AL3">
-        <v>0.9701088350571836</v>
+        <v>0.9701088350571837</v>
       </c>
       <c r="AM3">
-        <v>2.40429888495575E-08</v>
+        <v>2.404311991680401E-08</v>
       </c>
       <c r="AN3">
         <v>-100.8933946502344</v>
       </c>
       <c r="AO3">
-        <v>100.8933946519528</v>
+        <v>100.8933946519529</v>
       </c>
       <c r="AP3">
-        <v>2.218376233036782E-08</v>
+        <v>2.218384770264242E-08</v>
       </c>
       <c r="AQ3">
-        <v>-100.8933946499967</v>
+        <v>-100.8933946499968</v>
       </c>
       <c r="AR3">
-        <v>100.8933946515823</v>
+        <v>100.8933946515824</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -6662,40 +6662,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.859147393572045E-10</v>
+        <v>9.859312397388755E-10</v>
       </c>
       <c r="O4">
-        <v>2.464911603272067E-10</v>
+        <v>2.464795298987148E-10</v>
       </c>
       <c r="P4">
-        <v>2.464620458460369E-10</v>
+        <v>2.464700321631349E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.859151735495824E-10</v>
+        <v>-9.859316739312488E-10</v>
       </c>
       <c r="R4">
-        <v>-2.465014880869395E-10</v>
+        <v>-2.465025268749148E-10</v>
       </c>
       <c r="S4">
-        <v>-2.464575332864526E-10</v>
+        <v>-2.46470032156086E-10</v>
       </c>
       <c r="T4">
-        <v>4.137185029558344E-19</v>
+        <v>-8.680274130329527E-16</v>
       </c>
       <c r="U4">
-        <v>1.280744848896742E-09</v>
+        <v>1.280733048121419E-09</v>
       </c>
       <c r="V4">
-        <v>-1.280751621695429E-09</v>
+        <v>-1.280768803464428E-09</v>
       </c>
       <c r="W4">
-        <v>9.552470818915106E-15</v>
+        <v>3.473382827716857E-15</v>
       </c>
       <c r="X4">
-        <v>-1.280749880835266E-09</v>
+        <v>-1.280730962183986E-09</v>
       </c>
       <c r="Y4">
-        <v>1.280752490144568E-09</v>
+        <v>1.280768803472427E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -6716,40 +6716,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.3666666746960897</v>
+        <v>0.3666666746960902</v>
       </c>
       <c r="AH4">
-        <v>0.9701088352034204</v>
+        <v>0.9701088352034225</v>
       </c>
       <c r="AI4">
         <v>0.9701088350523324</v>
       </c>
       <c r="AJ4">
-        <v>0.3666666746856034</v>
+        <v>0.3666666746856033</v>
       </c>
       <c r="AK4">
-        <v>0.9701088351965873</v>
+        <v>0.9701088351965896</v>
       </c>
       <c r="AL4">
-        <v>0.9701088350571836</v>
+        <v>0.9701088350571837</v>
       </c>
       <c r="AM4">
-        <v>2.404297570527625E-08</v>
+        <v>2.404309437934623E-08</v>
       </c>
       <c r="AN4">
         <v>-100.8933946502344</v>
       </c>
       <c r="AO4">
-        <v>100.8933946519528</v>
+        <v>100.8933946519529</v>
       </c>
       <c r="AP4">
-        <v>2.218376233036782E-08</v>
+        <v>2.218384770264242E-08</v>
       </c>
       <c r="AQ4">
-        <v>-100.8933946499967</v>
+        <v>-100.8933946499968</v>
       </c>
       <c r="AR4">
-        <v>100.8933946515823</v>
+        <v>100.8933946515824</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -6793,40 +6793,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>6.079087982421157E-15</v>
+        <v>6.079087984243285E-15</v>
       </c>
       <c r="O5">
-        <v>-3.776048263742492E-15</v>
+        <v>-7.722443360702523E-15</v>
       </c>
       <c r="P5">
-        <v>1.423575191301074E-14</v>
+        <v>9.025105069997898E-15</v>
       </c>
       <c r="Q5">
-        <v>-3.907985134445813E-15</v>
+        <v>-3.907985133716978E-15</v>
       </c>
       <c r="R5">
-        <v>-1.223499589643031E-14</v>
+        <v>7.50533307557701E-15</v>
       </c>
       <c r="S5">
-        <v>-8.854758237509651E-15</v>
+        <v>9.025105069997898E-15</v>
       </c>
       <c r="T5">
-        <v>2.605323424057147E-15</v>
+        <v>-1.736882278453146E-15</v>
       </c>
       <c r="U5">
-        <v>-7.462746367272616E-15</v>
+        <v>8.505711084595824E-15</v>
       </c>
       <c r="V5">
-        <v>-2.533843292898942E-14</v>
+        <v>1.736882281004287E-15</v>
       </c>
       <c r="W5">
-        <v>5.210646841372462E-15</v>
+        <v>3.473764560368336E-15</v>
       </c>
       <c r="X5">
-        <v>9.374152225097855E-15</v>
+        <v>-9.633849218527774E-15</v>
       </c>
       <c r="Y5">
-        <v>2.169432153449261E-14</v>
+        <v>1.736882281004287E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -6847,40 +6847,40 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.3666666746960897</v>
+        <v>0.3666666746960902</v>
       </c>
       <c r="AH5">
-        <v>0.9701088352034204</v>
+        <v>0.9701088352034224</v>
       </c>
       <c r="AI5">
         <v>0.9701088350523324</v>
       </c>
       <c r="AJ5">
-        <v>0.3666666746960897</v>
+        <v>0.3666666746960902</v>
       </c>
       <c r="AK5">
-        <v>0.9701088352034204</v>
+        <v>0.9701088352034225</v>
       </c>
       <c r="AL5">
         <v>0.9701088350523324</v>
       </c>
       <c r="AM5">
-        <v>2.40429888495575E-08</v>
+        <v>2.404311991680401E-08</v>
       </c>
       <c r="AN5">
         <v>-100.8933946502344</v>
       </c>
       <c r="AO5">
-        <v>100.8933946519528</v>
+        <v>100.8933946519529</v>
       </c>
       <c r="AP5">
-        <v>2.404297570527625E-08</v>
+        <v>2.404309437934623E-08</v>
       </c>
       <c r="AQ5">
         <v>-100.8933946502344</v>
       </c>
       <c r="AR5">
-        <v>100.8933946519528</v>
+        <v>100.8933946519529</v>
       </c>
     </row>
   </sheetData>
@@ -7071,40 +7071,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-3.138962321472716E-09</v>
+        <v>-3.138980502861341E-09</v>
       </c>
       <c r="O2">
-        <v>-1.398934025910226E-09</v>
+        <v>-1.398943816045045E-09</v>
       </c>
       <c r="P2">
-        <v>-1.705287030860854E-10</v>
+        <v>-1.705392378592199E-10</v>
       </c>
       <c r="Q2">
-        <v>3.138964403875671E-09</v>
+        <v>3.138988348073624E-09</v>
       </c>
       <c r="R2">
-        <v>1.398929474445958E-09</v>
+        <v>1.398938882607167E-09</v>
       </c>
       <c r="S2">
-        <v>1.705296575089937E-10</v>
+        <v>1.705344476991809E-10</v>
       </c>
       <c r="T2">
-        <v>1.418412418589804E-09</v>
+        <v>1.418399486059484E-09</v>
       </c>
       <c r="U2">
-        <v>-2.221703295477823E-09</v>
+        <v>-2.221742490238541E-09</v>
       </c>
       <c r="V2">
-        <v>2.93094722831024E-09</v>
+        <v>2.930938836364226E-09</v>
       </c>
       <c r="W2">
-        <v>-1.418401613185507E-09</v>
+        <v>-1.418389791205785E-09</v>
       </c>
       <c r="X2">
-        <v>2.22171075020913E-09</v>
+        <v>2.221745349879381E-09</v>
       </c>
       <c r="Y2">
-        <v>-2.930941717734684E-09</v>
+        <v>-2.930940277032352E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -7125,25 +7125,25 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.6194744497695823</v>
+        <v>0.619474449769582</v>
       </c>
       <c r="AH2">
-        <v>0.9443347709443486</v>
+        <v>0.9443347709443498</v>
       </c>
       <c r="AI2">
         <v>1.05598589769414</v>
       </c>
       <c r="AJ2">
-        <v>0.6194744497792121</v>
+        <v>0.6194744497792123</v>
       </c>
       <c r="AK2">
-        <v>0.9443347709605368</v>
+        <v>0.9443347709605383</v>
       </c>
       <c r="AL2">
         <v>1.055985897682488</v>
       </c>
       <c r="AM2">
-        <v>-10.90775017850476</v>
+        <v>-10.90775017850472</v>
       </c>
       <c r="AN2">
         <v>-108.7881138042144</v>
@@ -7152,10 +7152,10 @@
         <v>106.7392371168768</v>
       </c>
       <c r="AP2">
-        <v>-10.90775017560501</v>
+        <v>-10.90775017560496</v>
       </c>
       <c r="AQ2">
-        <v>-108.7881138043733</v>
+        <v>-108.7881138043734</v>
       </c>
       <c r="AR2">
         <v>106.7392371175029</v>
@@ -7202,40 +7202,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.046319408216689E-09</v>
+        <v>1.04633913533581E-09</v>
       </c>
       <c r="O3">
-        <v>4.663211943875034E-10</v>
+        <v>4.662976075741326E-10</v>
       </c>
       <c r="P3">
-        <v>5.685536282712641E-11</v>
+        <v>5.683427505448506E-11</v>
       </c>
       <c r="Q3">
-        <v>-1.046312673662192E-09</v>
+        <v>-1.046338163590637E-09</v>
       </c>
       <c r="R3">
-        <v>-4.66324392368345E-10</v>
+        <v>-4.663025410388074E-10</v>
       </c>
       <c r="S3">
-        <v>-5.685296772868414E-11</v>
+        <v>-5.6839065241321E-11</v>
       </c>
       <c r="T3">
-        <v>-4.728008878809331E-10</v>
+        <v>-4.728031952868744E-10</v>
       </c>
       <c r="U3">
-        <v>7.405596883867076E-10</v>
+        <v>7.40577162606049E-10</v>
       </c>
       <c r="V3">
-        <v>-9.769891083972525E-10</v>
+        <v>-9.769797802848559E-10</v>
       </c>
       <c r="W3">
-        <v>4.728048198036938E-10</v>
+        <v>4.728082377602351E-10</v>
       </c>
       <c r="X3">
-        <v>-7.405621442179057E-10</v>
+        <v>-7.405743029956132E-10</v>
       </c>
       <c r="Y3">
-        <v>9.769898287522187E-10</v>
+        <v>9.769783395863252E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -7256,37 +7256,37 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.6194744497824221</v>
+        <v>0.6194744497824224</v>
       </c>
       <c r="AH3">
-        <v>0.9443347709659328</v>
+        <v>0.9443347709659343</v>
       </c>
       <c r="AI3">
         <v>1.055985897678603</v>
       </c>
       <c r="AJ3">
-        <v>0.6194744497792121</v>
+        <v>0.6194744497792123</v>
       </c>
       <c r="AK3">
-        <v>0.9443347709605368</v>
+        <v>0.9443347709605383</v>
       </c>
       <c r="AL3">
         <v>1.055985897682488</v>
       </c>
       <c r="AM3">
-        <v>-10.90775017463844</v>
+        <v>-10.90775017463836</v>
       </c>
       <c r="AN3">
-        <v>-108.7881138044263</v>
+        <v>-108.7881138044264</v>
       </c>
       <c r="AO3">
         <v>106.7392371177116</v>
       </c>
       <c r="AP3">
-        <v>-10.90775017560501</v>
+        <v>-10.90775017560496</v>
       </c>
       <c r="AQ3">
-        <v>-108.7881138043733</v>
+        <v>-108.7881138043734</v>
       </c>
       <c r="AR3">
         <v>106.7392371175029</v>
@@ -7333,40 +7333,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.046314755957964E-09</v>
+        <v>1.046334483077085E-09</v>
       </c>
       <c r="O4">
-        <v>4.663212815796114E-10</v>
+        <v>4.662961668718015E-10</v>
       </c>
       <c r="P4">
-        <v>5.685727161264932E-11</v>
+        <v>5.683906524467036E-11</v>
       </c>
       <c r="Q4">
-        <v>-1.046319547022116E-09</v>
+        <v>-1.046333511331912E-09</v>
       </c>
       <c r="R4">
-        <v>-4.663201574534595E-10</v>
+        <v>-4.66309570166247E-10</v>
       </c>
       <c r="S4">
-        <v>-5.685966670439239E-11</v>
+        <v>-5.684529613383731E-11</v>
       </c>
       <c r="T4">
-        <v>-4.72794014521009E-10</v>
+        <v>-4.727963219269504E-10</v>
       </c>
       <c r="U4">
-        <v>7.405738338336948E-10</v>
+        <v>7.405729276911635E-10</v>
       </c>
       <c r="V4">
-        <v>-9.769780873145512E-10</v>
+        <v>-9.769783395825245E-10</v>
       </c>
       <c r="W4">
-        <v>4.72800167544969E-10</v>
+        <v>4.728013644003111E-10</v>
       </c>
       <c r="X4">
-        <v>-7.405635849202366E-10</v>
+        <v>-7.405671866760654E-10</v>
       </c>
       <c r="Y4">
-        <v>9.769773669671859E-10</v>
+        <v>9.769816890741793E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -7387,37 +7387,37 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.6194744497824221</v>
+        <v>0.6194744497824224</v>
       </c>
       <c r="AH4">
-        <v>0.9443347709659329</v>
+        <v>0.9443347709659344</v>
       </c>
       <c r="AI4">
-        <v>1.055985897678604</v>
+        <v>1.055985897678603</v>
       </c>
       <c r="AJ4">
-        <v>0.6194744497792121</v>
+        <v>0.6194744497792123</v>
       </c>
       <c r="AK4">
-        <v>0.9443347709605368</v>
+        <v>0.9443347709605383</v>
       </c>
       <c r="AL4">
         <v>1.055985897682488</v>
       </c>
       <c r="AM4">
-        <v>-10.90775017463844</v>
+        <v>-10.90775017463837</v>
       </c>
       <c r="AN4">
-        <v>-108.7881138044263</v>
+        <v>-108.7881138044264</v>
       </c>
       <c r="AO4">
         <v>106.7392371177116</v>
       </c>
       <c r="AP4">
-        <v>-10.90775017560501</v>
+        <v>-10.90775017560496</v>
       </c>
       <c r="AQ4">
-        <v>-108.7881138043733</v>
+        <v>-108.7881138043734</v>
       </c>
       <c r="AR4">
         <v>106.7392371175029</v>
@@ -7464,40 +7464,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>7.897605780357463E-15</v>
+        <v>5.762809324518473E-15</v>
       </c>
       <c r="O5">
-        <v>3.831143248676865E-15</v>
+        <v>-6.647153829971319E-15</v>
       </c>
       <c r="P5">
-        <v>6.717202085990638E-15</v>
+        <v>2.881404662259318E-15</v>
       </c>
       <c r="Q5">
-        <v>2.577509971520052E-15</v>
+        <v>-1.368667214573137E-14</v>
       </c>
       <c r="R5">
-        <v>-4.911669997024083E-15</v>
+        <v>2.052063361753102E-15</v>
       </c>
       <c r="S5">
-        <v>-4.8630956965765E-16</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>2.213567578405286E-15</v>
+        <v>-1.110550599534998E-15</v>
       </c>
       <c r="U5">
-        <v>-9.572154546207096E-15</v>
+        <v>1.171141001591328E-14</v>
       </c>
       <c r="V5">
-        <v>-1.365021939004516E-14</v>
+        <v>-9.580380370406661E-15</v>
       </c>
       <c r="W5">
-        <v>1.744597021868798E-15</v>
+        <v>2.637557673895623E-15</v>
       </c>
       <c r="X5">
-        <v>6.395968382130242E-15</v>
+        <v>-1.132943640614261E-14</v>
       </c>
       <c r="Y5">
-        <v>1.030073153597149E-14</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -7518,37 +7518,37 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.6194744497824221</v>
+        <v>0.6194744497824224</v>
       </c>
       <c r="AH5">
-        <v>0.9443347709659328</v>
+        <v>0.9443347709659343</v>
       </c>
       <c r="AI5">
         <v>1.055985897678603</v>
       </c>
       <c r="AJ5">
-        <v>0.6194744497824221</v>
+        <v>0.6194744497824224</v>
       </c>
       <c r="AK5">
-        <v>0.9443347709659329</v>
+        <v>0.9443347709659344</v>
       </c>
       <c r="AL5">
-        <v>1.055985897678604</v>
+        <v>1.055985897678603</v>
       </c>
       <c r="AM5">
-        <v>-10.90775017463844</v>
+        <v>-10.90775017463836</v>
       </c>
       <c r="AN5">
-        <v>-108.7881138044263</v>
+        <v>-108.7881138044264</v>
       </c>
       <c r="AO5">
         <v>106.7392371177116</v>
       </c>
       <c r="AP5">
-        <v>-10.90775017463844</v>
+        <v>-10.90775017463837</v>
       </c>
       <c r="AQ5">
-        <v>-108.7881138044263</v>
+        <v>-108.7881138044264</v>
       </c>
       <c r="AR5">
         <v>106.7392371177116</v>
@@ -8020,40 +8020,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-3.138962321472716E-09</v>
+        <v>-3.138980502861341E-09</v>
       </c>
       <c r="O2">
-        <v>-1.398934025910226E-09</v>
+        <v>-1.398943816045045E-09</v>
       </c>
       <c r="P2">
-        <v>-1.705287030860854E-10</v>
+        <v>-1.705392378592199E-10</v>
       </c>
       <c r="Q2">
-        <v>3.138964403875671E-09</v>
+        <v>3.138988348073624E-09</v>
       </c>
       <c r="R2">
-        <v>1.398929474445958E-09</v>
+        <v>1.398938882607167E-09</v>
       </c>
       <c r="S2">
-        <v>1.705296575089937E-10</v>
+        <v>1.705344476991809E-10</v>
       </c>
       <c r="T2">
-        <v>1.418412418589804E-09</v>
+        <v>1.418399486059484E-09</v>
       </c>
       <c r="U2">
-        <v>-2.221703295477823E-09</v>
+        <v>-2.221742490238541E-09</v>
       </c>
       <c r="V2">
-        <v>2.93094722831024E-09</v>
+        <v>2.930938836364226E-09</v>
       </c>
       <c r="W2">
-        <v>-1.418401613185507E-09</v>
+        <v>-1.418389791205785E-09</v>
       </c>
       <c r="X2">
-        <v>2.22171075020913E-09</v>
+        <v>2.221745349879381E-09</v>
       </c>
       <c r="Y2">
-        <v>-2.930941717734684E-09</v>
+        <v>-2.930940277032352E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -8074,25 +8074,25 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.6194744497695823</v>
+        <v>0.619474449769582</v>
       </c>
       <c r="AH2">
-        <v>0.9443347709443486</v>
+        <v>0.9443347709443498</v>
       </c>
       <c r="AI2">
         <v>1.05598589769414</v>
       </c>
       <c r="AJ2">
-        <v>0.6194744497792121</v>
+        <v>0.6194744497792123</v>
       </c>
       <c r="AK2">
-        <v>0.9443347709605368</v>
+        <v>0.9443347709605383</v>
       </c>
       <c r="AL2">
         <v>1.055985897682488</v>
       </c>
       <c r="AM2">
-        <v>-10.90775017850476</v>
+        <v>-10.90775017850472</v>
       </c>
       <c r="AN2">
         <v>-108.7881138042144</v>
@@ -8101,10 +8101,10 @@
         <v>106.7392371168768</v>
       </c>
       <c r="AP2">
-        <v>-10.90775017560501</v>
+        <v>-10.90775017560496</v>
       </c>
       <c r="AQ2">
-        <v>-108.7881138043733</v>
+        <v>-108.7881138043734</v>
       </c>
       <c r="AR2">
         <v>106.7392371175029</v>
@@ -8151,40 +8151,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.046319408216689E-09</v>
+        <v>1.04633913533581E-09</v>
       </c>
       <c r="O3">
-        <v>4.663211943875034E-10</v>
+        <v>4.662976075741326E-10</v>
       </c>
       <c r="P3">
-        <v>5.685536282712641E-11</v>
+        <v>5.683427505448506E-11</v>
       </c>
       <c r="Q3">
-        <v>-1.046312673662192E-09</v>
+        <v>-1.046338163590637E-09</v>
       </c>
       <c r="R3">
-        <v>-4.66324392368345E-10</v>
+        <v>-4.663025410388074E-10</v>
       </c>
       <c r="S3">
-        <v>-5.685296772868414E-11</v>
+        <v>-5.6839065241321E-11</v>
       </c>
       <c r="T3">
-        <v>-4.728008878809331E-10</v>
+        <v>-4.728031952868744E-10</v>
       </c>
       <c r="U3">
-        <v>7.405596883867076E-10</v>
+        <v>7.40577162606049E-10</v>
       </c>
       <c r="V3">
-        <v>-9.769891083972525E-10</v>
+        <v>-9.769797802848559E-10</v>
       </c>
       <c r="W3">
-        <v>4.728048198036938E-10</v>
+        <v>4.728082377602351E-10</v>
       </c>
       <c r="X3">
-        <v>-7.405621442179057E-10</v>
+        <v>-7.405743029956132E-10</v>
       </c>
       <c r="Y3">
-        <v>9.769898287522187E-10</v>
+        <v>9.769783395863252E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -8205,37 +8205,37 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.6194744497824221</v>
+        <v>0.6194744497824224</v>
       </c>
       <c r="AH3">
-        <v>0.9443347709659328</v>
+        <v>0.9443347709659343</v>
       </c>
       <c r="AI3">
         <v>1.055985897678603</v>
       </c>
       <c r="AJ3">
-        <v>0.6194744497792121</v>
+        <v>0.6194744497792123</v>
       </c>
       <c r="AK3">
-        <v>0.9443347709605368</v>
+        <v>0.9443347709605383</v>
       </c>
       <c r="AL3">
         <v>1.055985897682488</v>
       </c>
       <c r="AM3">
-        <v>-10.90775017463844</v>
+        <v>-10.90775017463836</v>
       </c>
       <c r="AN3">
-        <v>-108.7881138044263</v>
+        <v>-108.7881138044264</v>
       </c>
       <c r="AO3">
         <v>106.7392371177116</v>
       </c>
       <c r="AP3">
-        <v>-10.90775017560501</v>
+        <v>-10.90775017560496</v>
       </c>
       <c r="AQ3">
-        <v>-108.7881138043733</v>
+        <v>-108.7881138043734</v>
       </c>
       <c r="AR3">
         <v>106.7392371175029</v>
@@ -8282,40 +8282,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.046314755957964E-09</v>
+        <v>1.046334483077085E-09</v>
       </c>
       <c r="O4">
-        <v>4.663212815796114E-10</v>
+        <v>4.662961668718015E-10</v>
       </c>
       <c r="P4">
-        <v>5.685727161264932E-11</v>
+        <v>5.683906524467036E-11</v>
       </c>
       <c r="Q4">
-        <v>-1.046319547022116E-09</v>
+        <v>-1.046333511331912E-09</v>
       </c>
       <c r="R4">
-        <v>-4.663201574534595E-10</v>
+        <v>-4.66309570166247E-10</v>
       </c>
       <c r="S4">
-        <v>-5.685966670439239E-11</v>
+        <v>-5.684529613383731E-11</v>
       </c>
       <c r="T4">
-        <v>-4.72794014521009E-10</v>
+        <v>-4.727963219269504E-10</v>
       </c>
       <c r="U4">
-        <v>7.405738338336948E-10</v>
+        <v>7.405729276911635E-10</v>
       </c>
       <c r="V4">
-        <v>-9.769780873145512E-10</v>
+        <v>-9.769783395825245E-10</v>
       </c>
       <c r="W4">
-        <v>4.72800167544969E-10</v>
+        <v>4.728013644003111E-10</v>
       </c>
       <c r="X4">
-        <v>-7.405635849202366E-10</v>
+        <v>-7.405671866760654E-10</v>
       </c>
       <c r="Y4">
-        <v>9.769773669671859E-10</v>
+        <v>9.769816890741793E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -8336,37 +8336,37 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.6194744497824221</v>
+        <v>0.6194744497824224</v>
       </c>
       <c r="AH4">
-        <v>0.9443347709659329</v>
+        <v>0.9443347709659344</v>
       </c>
       <c r="AI4">
-        <v>1.055985897678604</v>
+        <v>1.055985897678603</v>
       </c>
       <c r="AJ4">
-        <v>0.6194744497792121</v>
+        <v>0.6194744497792123</v>
       </c>
       <c r="AK4">
-        <v>0.9443347709605368</v>
+        <v>0.9443347709605383</v>
       </c>
       <c r="AL4">
         <v>1.055985897682488</v>
       </c>
       <c r="AM4">
-        <v>-10.90775017463844</v>
+        <v>-10.90775017463837</v>
       </c>
       <c r="AN4">
-        <v>-108.7881138044263</v>
+        <v>-108.7881138044264</v>
       </c>
       <c r="AO4">
         <v>106.7392371177116</v>
       </c>
       <c r="AP4">
-        <v>-10.90775017560501</v>
+        <v>-10.90775017560496</v>
       </c>
       <c r="AQ4">
-        <v>-108.7881138043733</v>
+        <v>-108.7881138043734</v>
       </c>
       <c r="AR4">
         <v>106.7392371175029</v>
@@ -8413,40 +8413,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>7.897605780357463E-15</v>
+        <v>5.762809324518473E-15</v>
       </c>
       <c r="O5">
-        <v>3.831143248676865E-15</v>
+        <v>-6.647153829971319E-15</v>
       </c>
       <c r="P5">
-        <v>6.717202085990638E-15</v>
+        <v>2.881404662259318E-15</v>
       </c>
       <c r="Q5">
-        <v>2.577509971520052E-15</v>
+        <v>-1.368667214573137E-14</v>
       </c>
       <c r="R5">
-        <v>-4.911669997024083E-15</v>
+        <v>2.052063361753102E-15</v>
       </c>
       <c r="S5">
-        <v>-4.8630956965765E-16</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>2.213567578405286E-15</v>
+        <v>-1.110550599534998E-15</v>
       </c>
       <c r="U5">
-        <v>-9.572154546207096E-15</v>
+        <v>1.171141001591328E-14</v>
       </c>
       <c r="V5">
-        <v>-1.365021939004516E-14</v>
+        <v>-9.580380370406661E-15</v>
       </c>
       <c r="W5">
-        <v>1.744597021868798E-15</v>
+        <v>2.637557673895623E-15</v>
       </c>
       <c r="X5">
-        <v>6.395968382130242E-15</v>
+        <v>-1.132943640614261E-14</v>
       </c>
       <c r="Y5">
-        <v>1.030073153597149E-14</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -8467,37 +8467,37 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.6194744497824221</v>
+        <v>0.6194744497824224</v>
       </c>
       <c r="AH5">
-        <v>0.9443347709659328</v>
+        <v>0.9443347709659343</v>
       </c>
       <c r="AI5">
         <v>1.055985897678603</v>
       </c>
       <c r="AJ5">
-        <v>0.6194744497824221</v>
+        <v>0.6194744497824224</v>
       </c>
       <c r="AK5">
-        <v>0.9443347709659329</v>
+        <v>0.9443347709659344</v>
       </c>
       <c r="AL5">
-        <v>1.055985897678604</v>
+        <v>1.055985897678603</v>
       </c>
       <c r="AM5">
-        <v>-10.90775017463844</v>
+        <v>-10.90775017463836</v>
       </c>
       <c r="AN5">
-        <v>-108.7881138044263</v>
+        <v>-108.7881138044264</v>
       </c>
       <c r="AO5">
         <v>106.7392371177116</v>
       </c>
       <c r="AP5">
-        <v>-10.90775017463844</v>
+        <v>-10.90775017463837</v>
       </c>
       <c r="AQ5">
-        <v>-108.7881138044263</v>
+        <v>-108.7881138044264</v>
       </c>
       <c r="AR5">
         <v>106.7392371177116</v>
@@ -8691,40 +8691,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.44445293634582E-09</v>
+        <v>-2.444450173124074E-09</v>
       </c>
       <c r="O2">
-        <v>-6.111365650844516E-10</v>
+        <v>-6.111074153805175E-10</v>
       </c>
       <c r="P2">
-        <v>-6.111502536565793E-10</v>
+        <v>-6.111371572034581E-10</v>
       </c>
       <c r="Q2">
-        <v>2.444453331494474E-09</v>
+        <v>2.444457278954123E-09</v>
       </c>
       <c r="R2">
-        <v>6.111345140249259E-10</v>
+        <v>6.111061925281088E-10</v>
       </c>
       <c r="S2">
-        <v>6.111510432491819E-10</v>
+        <v>6.111310038235351E-10</v>
       </c>
       <c r="T2">
-        <v>-3.947813839275226E-15</v>
+        <v>-8.290019445861184E-15</v>
       </c>
       <c r="U2">
-        <v>-3.175426108724518E-09</v>
+        <v>-3.1754349092813E-09</v>
       </c>
       <c r="V2">
-        <v>3.175430919132327E-09</v>
+        <v>3.175429185287715E-09</v>
       </c>
       <c r="W2">
-        <v>3.948051807122423E-15</v>
+        <v>5.527035665418136E-15</v>
       </c>
       <c r="X2">
-        <v>3.175426503529974E-09</v>
+        <v>3.175434081133674E-09</v>
       </c>
       <c r="Y2">
-        <v>-3.175435021393232E-09</v>
+        <v>-3.175430369466117E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -8745,37 +8745,37 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.3333333333308631</v>
+        <v>0.3333333333308638</v>
       </c>
       <c r="AH2">
-        <v>0.8819171037085273</v>
+        <v>0.8819171037085276</v>
       </c>
       <c r="AI2">
-        <v>0.8819171036611007</v>
+        <v>0.8819171036611004</v>
       </c>
       <c r="AJ2">
-        <v>0.3333333333857752</v>
+        <v>0.333333333385776</v>
       </c>
       <c r="AK2">
         <v>0.8819171037296489</v>
       </c>
       <c r="AL2">
-        <v>0.881917103650357</v>
+        <v>0.8819171036503569</v>
       </c>
       <c r="AM2">
-        <v>8.302040373102128E-09</v>
+        <v>8.302030895968215E-09</v>
       </c>
       <c r="AN2">
-        <v>-100.8933946487908</v>
+        <v>-100.8933946487909</v>
       </c>
       <c r="AO2">
         <v>100.8933946493849</v>
       </c>
       <c r="AP2">
-        <v>1.387977531659781E-08</v>
+        <v>1.38797717152855E-08</v>
       </c>
       <c r="AQ2">
-        <v>-100.8933946503432</v>
+        <v>-100.8933946503433</v>
       </c>
       <c r="AR2">
         <v>100.8933946513357</v>
@@ -8822,40 +8822,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.1481922461144E-10</v>
+        <v>8.148188298654765E-10</v>
       </c>
       <c r="O3">
-        <v>2.037213915513164E-10</v>
+        <v>2.037090458749358E-10</v>
       </c>
       <c r="P3">
-        <v>2.037144910910397E-10</v>
+        <v>2.037113331233242E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.148188298207312E-10</v>
+        <v>-8.148148823610885E-10</v>
       </c>
       <c r="R3">
-        <v>-2.037254938605289E-10</v>
+        <v>-2.03702853667965E-10</v>
       </c>
       <c r="S3">
-        <v>-2.037170144163939E-10</v>
+        <v>-2.037108609357975E-10</v>
       </c>
       <c r="T3">
-        <v>-7.105203528794185E-15</v>
+        <v>-3.552489849323621E-15</v>
       </c>
       <c r="U3">
-        <v>1.058467926110928E-09</v>
+        <v>1.058475619860193E-09</v>
       </c>
       <c r="V3">
-        <v>-1.058487334590524E-09</v>
+        <v>-1.058470925308935E-09</v>
       </c>
       <c r="W3">
-        <v>5.526246113174209E-15</v>
+        <v>2.36827839919553E-15</v>
       </c>
       <c r="X3">
-        <v>-1.058467136612389E-09</v>
+        <v>-1.058482129364956E-09</v>
       </c>
       <c r="Y3">
-        <v>1.058478340464411E-09</v>
+        <v>1.058479524702304E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -8876,25 +8876,25 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.3333333334040794</v>
+        <v>0.3333333334040801</v>
       </c>
       <c r="AH3">
-        <v>0.8819171037366892</v>
+        <v>0.8819171037366889</v>
       </c>
       <c r="AI3">
-        <v>0.8819171036467759</v>
+        <v>0.881917103646776</v>
       </c>
       <c r="AJ3">
-        <v>0.3333333333857752</v>
+        <v>0.333333333385776</v>
       </c>
       <c r="AK3">
         <v>0.8819171037296489</v>
       </c>
       <c r="AL3">
-        <v>0.881917103650357</v>
+        <v>0.8819171036503569</v>
       </c>
       <c r="AM3">
-        <v>1.573911363566797E-08</v>
+        <v>1.573911535726234E-08</v>
       </c>
       <c r="AN3">
         <v>-100.8933946508607</v>
@@ -8903,10 +8903,10 @@
         <v>100.893394651986</v>
       </c>
       <c r="AP3">
-        <v>1.387977531659781E-08</v>
+        <v>1.38797717152855E-08</v>
       </c>
       <c r="AQ3">
-        <v>-100.8933946503432</v>
+        <v>-100.8933946503433</v>
       </c>
       <c r="AR3">
         <v>100.8933946513357</v>
@@ -8953,40 +8953,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.14816066643724E-10</v>
+        <v>8.148156718977605E-10</v>
       </c>
       <c r="O4">
-        <v>2.037206020593878E-10</v>
+        <v>2.037074668910782E-10</v>
       </c>
       <c r="P4">
-        <v>2.037226957318347E-10</v>
+        <v>2.037211167479767E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.148156718530157E-10</v>
+        <v>-8.148148823610878E-10</v>
       </c>
       <c r="R4">
-        <v>-2.037190230643448E-10</v>
+        <v>-2.037094793249031E-10</v>
       </c>
       <c r="S4">
-        <v>-2.037247468808476E-10</v>
+        <v>-2.037198550685211E-10</v>
       </c>
       <c r="T4">
-        <v>-5.526219672246738E-15</v>
+        <v>-3.945221356582997E-16</v>
       </c>
       <c r="U4">
-        <v>1.05846382379053E-09</v>
+        <v>1.058467415219398E-09</v>
       </c>
       <c r="V4">
-        <v>-1.058485755606667E-09</v>
+        <v>-1.058477550965872E-09</v>
       </c>
       <c r="W4">
-        <v>3.947262256446138E-15</v>
+        <v>-7.896893157906409E-16</v>
       </c>
       <c r="X4">
-        <v>-1.058455619143124E-09</v>
+        <v>-1.058472345740303E-09</v>
       </c>
       <c r="Y4">
-        <v>1.058485360867312E-09</v>
+        <v>1.058482048038844E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -9007,25 +9007,25 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.3333333334040792</v>
+        <v>0.3333333334040801</v>
       </c>
       <c r="AH4">
         <v>0.8819171037366891</v>
       </c>
       <c r="AI4">
-        <v>0.881917103646776</v>
+        <v>0.8819171036467759</v>
       </c>
       <c r="AJ4">
-        <v>0.3333333333857752</v>
+        <v>0.333333333385776</v>
       </c>
       <c r="AK4">
         <v>0.8819171037296489</v>
       </c>
       <c r="AL4">
-        <v>0.881917103650357</v>
+        <v>0.8819171036503569</v>
       </c>
       <c r="AM4">
-        <v>1.57391020435984E-08</v>
+        <v>1.573907128444564E-08</v>
       </c>
       <c r="AN4">
         <v>-100.8933946508607</v>
@@ -9034,10 +9034,10 @@
         <v>100.893394651986</v>
       </c>
       <c r="AP4">
-        <v>1.387977531659781E-08</v>
+        <v>1.38797717152855E-08</v>
       </c>
       <c r="AQ4">
-        <v>-100.8933946503432</v>
+        <v>-100.8933946503433</v>
       </c>
       <c r="AR4">
         <v>100.8933946513357</v>
@@ -9084,40 +9084,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>4.73695157252249E-15</v>
+        <v>3.157967715159583E-15</v>
       </c>
       <c r="O5">
-        <v>4.419635985279626E-15</v>
+        <v>5.534037581247939E-16</v>
       </c>
       <c r="P5">
-        <v>-1.261668269903133E-15</v>
+        <v>-4.891812326176166E-15</v>
       </c>
       <c r="Q5">
-        <v>-3.947459642865103E-15</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>-5.878677237597186E-15</v>
+        <v>4.415838945420288E-15</v>
       </c>
       <c r="S5">
-        <v>7.894919287899682E-16</v>
+        <v>4.102320397386199E-15</v>
       </c>
       <c r="T5">
-        <v>7.894919300911316E-16</v>
+        <v>8.674917871055418E-25</v>
       </c>
       <c r="U5">
-        <v>1.191221522906489E-14</v>
+        <v>8.402013777837358E-15</v>
       </c>
       <c r="V5">
-        <v>-4.497066361781183E-15</v>
+        <v>3.312828468596234E-15</v>
       </c>
       <c r="W5">
-        <v>-3.947459645033831E-15</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>-8.440728966304991E-15</v>
+        <v>-1.573973226775211E-14</v>
       </c>
       <c r="Y5">
-        <v>-4.102320397386199E-15</v>
+        <v>7.894919287899664E-16</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -9138,25 +9138,25 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.3333333334040794</v>
+        <v>0.3333333334040801</v>
       </c>
       <c r="AH5">
-        <v>0.8819171037366892</v>
+        <v>0.8819171037366889</v>
       </c>
       <c r="AI5">
-        <v>0.8819171036467759</v>
+        <v>0.881917103646776</v>
       </c>
       <c r="AJ5">
-        <v>0.3333333334040792</v>
+        <v>0.3333333334040801</v>
       </c>
       <c r="AK5">
         <v>0.8819171037366891</v>
       </c>
       <c r="AL5">
-        <v>0.881917103646776</v>
+        <v>0.8819171036467759</v>
       </c>
       <c r="AM5">
-        <v>1.573911363566797E-08</v>
+        <v>1.573911535726234E-08</v>
       </c>
       <c r="AN5">
         <v>-100.8933946508607</v>
@@ -9165,7 +9165,7 @@
         <v>100.893394651986</v>
       </c>
       <c r="AP5">
-        <v>1.57391020435984E-08</v>
+        <v>1.573907128444564E-08</v>
       </c>
       <c r="AQ5">
         <v>-100.8933946508607</v>
@@ -9362,40 +9362,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.44445293634582E-09</v>
+        <v>-2.444450173124074E-09</v>
       </c>
       <c r="O2">
-        <v>-6.111365650844516E-10</v>
+        <v>-6.111074153805175E-10</v>
       </c>
       <c r="P2">
-        <v>-6.111502536565793E-10</v>
+        <v>-6.111371572034581E-10</v>
       </c>
       <c r="Q2">
-        <v>2.444453331494474E-09</v>
+        <v>2.444457278954123E-09</v>
       </c>
       <c r="R2">
-        <v>6.111345140249259E-10</v>
+        <v>6.111061925281088E-10</v>
       </c>
       <c r="S2">
-        <v>6.111510432491819E-10</v>
+        <v>6.111310038235351E-10</v>
       </c>
       <c r="T2">
-        <v>-3.947813839275226E-15</v>
+        <v>-8.290019445861184E-15</v>
       </c>
       <c r="U2">
-        <v>-3.175426108724518E-09</v>
+        <v>-3.1754349092813E-09</v>
       </c>
       <c r="V2">
-        <v>3.175430919132327E-09</v>
+        <v>3.175429185287715E-09</v>
       </c>
       <c r="W2">
-        <v>3.948051807122423E-15</v>
+        <v>5.527035665418136E-15</v>
       </c>
       <c r="X2">
-        <v>3.175426503529974E-09</v>
+        <v>3.175434081133674E-09</v>
       </c>
       <c r="Y2">
-        <v>-3.175435021393232E-09</v>
+        <v>-3.175430369466117E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -9416,37 +9416,37 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.3333333333308631</v>
+        <v>0.3333333333308638</v>
       </c>
       <c r="AH2">
-        <v>0.8819171037085273</v>
+        <v>0.8819171037085276</v>
       </c>
       <c r="AI2">
-        <v>0.8819171036611007</v>
+        <v>0.8819171036611004</v>
       </c>
       <c r="AJ2">
-        <v>0.3333333333857752</v>
+        <v>0.333333333385776</v>
       </c>
       <c r="AK2">
         <v>0.8819171037296489</v>
       </c>
       <c r="AL2">
-        <v>0.881917103650357</v>
+        <v>0.8819171036503569</v>
       </c>
       <c r="AM2">
-        <v>8.302040373102128E-09</v>
+        <v>8.302030895968215E-09</v>
       </c>
       <c r="AN2">
-        <v>-100.8933946487908</v>
+        <v>-100.8933946487909</v>
       </c>
       <c r="AO2">
         <v>100.8933946493849</v>
       </c>
       <c r="AP2">
-        <v>1.387977531659781E-08</v>
+        <v>1.38797717152855E-08</v>
       </c>
       <c r="AQ2">
-        <v>-100.8933946503432</v>
+        <v>-100.8933946503433</v>
       </c>
       <c r="AR2">
         <v>100.8933946513357</v>
@@ -9493,40 +9493,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.1481922461144E-10</v>
+        <v>8.148188298654765E-10</v>
       </c>
       <c r="O3">
-        <v>2.037213915513164E-10</v>
+        <v>2.037090458749358E-10</v>
       </c>
       <c r="P3">
-        <v>2.037144910910397E-10</v>
+        <v>2.037113331233242E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.148188298207312E-10</v>
+        <v>-8.148148823610885E-10</v>
       </c>
       <c r="R3">
-        <v>-2.037254938605289E-10</v>
+        <v>-2.03702853667965E-10</v>
       </c>
       <c r="S3">
-        <v>-2.037170144163939E-10</v>
+        <v>-2.037108609357975E-10</v>
       </c>
       <c r="T3">
-        <v>-7.105203528794185E-15</v>
+        <v>-3.552489849323621E-15</v>
       </c>
       <c r="U3">
-        <v>1.058467926110928E-09</v>
+        <v>1.058475619860193E-09</v>
       </c>
       <c r="V3">
-        <v>-1.058487334590524E-09</v>
+        <v>-1.058470925308935E-09</v>
       </c>
       <c r="W3">
-        <v>5.526246113174209E-15</v>
+        <v>2.36827839919553E-15</v>
       </c>
       <c r="X3">
-        <v>-1.058467136612389E-09</v>
+        <v>-1.058482129364956E-09</v>
       </c>
       <c r="Y3">
-        <v>1.058478340464411E-09</v>
+        <v>1.058479524702304E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -9547,25 +9547,25 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.3333333334040794</v>
+        <v>0.3333333334040801</v>
       </c>
       <c r="AH3">
-        <v>0.8819171037366892</v>
+        <v>0.8819171037366889</v>
       </c>
       <c r="AI3">
-        <v>0.8819171036467759</v>
+        <v>0.881917103646776</v>
       </c>
       <c r="AJ3">
-        <v>0.3333333333857752</v>
+        <v>0.333333333385776</v>
       </c>
       <c r="AK3">
         <v>0.8819171037296489</v>
       </c>
       <c r="AL3">
-        <v>0.881917103650357</v>
+        <v>0.8819171036503569</v>
       </c>
       <c r="AM3">
-        <v>1.573911363566797E-08</v>
+        <v>1.573911535726234E-08</v>
       </c>
       <c r="AN3">
         <v>-100.8933946508607</v>
@@ -9574,10 +9574,10 @@
         <v>100.893394651986</v>
       </c>
       <c r="AP3">
-        <v>1.387977531659781E-08</v>
+        <v>1.38797717152855E-08</v>
       </c>
       <c r="AQ3">
-        <v>-100.8933946503432</v>
+        <v>-100.8933946503433</v>
       </c>
       <c r="AR3">
         <v>100.8933946513357</v>
@@ -9624,40 +9624,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.14816066643724E-10</v>
+        <v>8.148156718977605E-10</v>
       </c>
       <c r="O4">
-        <v>2.037206020593878E-10</v>
+        <v>2.037074668910782E-10</v>
       </c>
       <c r="P4">
-        <v>2.037226957318347E-10</v>
+        <v>2.037211167479767E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.148156718530157E-10</v>
+        <v>-8.148148823610878E-10</v>
       </c>
       <c r="R4">
-        <v>-2.037190230643448E-10</v>
+        <v>-2.037094793249031E-10</v>
       </c>
       <c r="S4">
-        <v>-2.037247468808476E-10</v>
+        <v>-2.037198550685211E-10</v>
       </c>
       <c r="T4">
-        <v>-5.526219672246738E-15</v>
+        <v>-3.945221356582997E-16</v>
       </c>
       <c r="U4">
-        <v>1.05846382379053E-09</v>
+        <v>1.058467415219398E-09</v>
       </c>
       <c r="V4">
-        <v>-1.058485755606667E-09</v>
+        <v>-1.058477550965872E-09</v>
       </c>
       <c r="W4">
-        <v>3.947262256446138E-15</v>
+        <v>-7.896893157906409E-16</v>
       </c>
       <c r="X4">
-        <v>-1.058455619143124E-09</v>
+        <v>-1.058472345740303E-09</v>
       </c>
       <c r="Y4">
-        <v>1.058485360867312E-09</v>
+        <v>1.058482048038844E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -9678,25 +9678,25 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.3333333334040792</v>
+        <v>0.3333333334040801</v>
       </c>
       <c r="AH4">
         <v>0.8819171037366891</v>
       </c>
       <c r="AI4">
-        <v>0.881917103646776</v>
+        <v>0.8819171036467759</v>
       </c>
       <c r="AJ4">
-        <v>0.3333333333857752</v>
+        <v>0.333333333385776</v>
       </c>
       <c r="AK4">
         <v>0.8819171037296489</v>
       </c>
       <c r="AL4">
-        <v>0.881917103650357</v>
+        <v>0.8819171036503569</v>
       </c>
       <c r="AM4">
-        <v>1.57391020435984E-08</v>
+        <v>1.573907128444564E-08</v>
       </c>
       <c r="AN4">
         <v>-100.8933946508607</v>
@@ -9705,10 +9705,10 @@
         <v>100.893394651986</v>
       </c>
       <c r="AP4">
-        <v>1.387977531659781E-08</v>
+        <v>1.38797717152855E-08</v>
       </c>
       <c r="AQ4">
-        <v>-100.8933946503432</v>
+        <v>-100.8933946503433</v>
       </c>
       <c r="AR4">
         <v>100.8933946513357</v>
@@ -9755,40 +9755,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>4.73695157252249E-15</v>
+        <v>3.157967715159583E-15</v>
       </c>
       <c r="O5">
-        <v>4.419635985279626E-15</v>
+        <v>5.534037581247939E-16</v>
       </c>
       <c r="P5">
-        <v>-1.261668269903133E-15</v>
+        <v>-4.891812326176166E-15</v>
       </c>
       <c r="Q5">
-        <v>-3.947459642865103E-15</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>-5.878677237597186E-15</v>
+        <v>4.415838945420288E-15</v>
       </c>
       <c r="S5">
-        <v>7.894919287899682E-16</v>
+        <v>4.102320397386199E-15</v>
       </c>
       <c r="T5">
-        <v>7.894919300911316E-16</v>
+        <v>8.674917871055418E-25</v>
       </c>
       <c r="U5">
-        <v>1.191221522906489E-14</v>
+        <v>8.402013777837358E-15</v>
       </c>
       <c r="V5">
-        <v>-4.497066361781183E-15</v>
+        <v>3.312828468596234E-15</v>
       </c>
       <c r="W5">
-        <v>-3.947459645033831E-15</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>-8.440728966304991E-15</v>
+        <v>-1.573973226775211E-14</v>
       </c>
       <c r="Y5">
-        <v>-4.102320397386199E-15</v>
+        <v>7.894919287899664E-16</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -9809,25 +9809,25 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.3333333334040794</v>
+        <v>0.3333333334040801</v>
       </c>
       <c r="AH5">
-        <v>0.8819171037366892</v>
+        <v>0.8819171037366889</v>
       </c>
       <c r="AI5">
-        <v>0.8819171036467759</v>
+        <v>0.881917103646776</v>
       </c>
       <c r="AJ5">
-        <v>0.3333333334040792</v>
+        <v>0.3333333334040801</v>
       </c>
       <c r="AK5">
         <v>0.8819171037366891</v>
       </c>
       <c r="AL5">
-        <v>0.881917103646776</v>
+        <v>0.8819171036467759</v>
       </c>
       <c r="AM5">
-        <v>1.573911363566797E-08</v>
+        <v>1.573911535726234E-08</v>
       </c>
       <c r="AN5">
         <v>-100.8933946508607</v>
@@ -9836,7 +9836,7 @@
         <v>100.893394651986</v>
       </c>
       <c r="AP5">
-        <v>1.57391020435984E-08</v>
+        <v>1.573907128444564E-08</v>
       </c>
       <c r="AQ5">
         <v>-100.8933946508607</v>
@@ -10033,40 +10033,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.624760452852779E-09</v>
+        <v>-2.624766612447825E-09</v>
       </c>
       <c r="O2">
-        <v>-1.140212193664637E-09</v>
+        <v>-1.140194314156287E-09</v>
       </c>
       <c r="P2">
-        <v>-1.722050157653741E-10</v>
+        <v>-1.721991319396604E-10</v>
       </c>
       <c r="Q2">
-        <v>2.624767270090519E-09</v>
+        <v>2.624771087513525E-09</v>
       </c>
       <c r="R2">
-        <v>1.140212213122575E-09</v>
+        <v>1.140196856293767E-09</v>
       </c>
       <c r="S2">
-        <v>1.722062771569795E-10</v>
+        <v>1.721969604929617E-10</v>
       </c>
       <c r="T2">
-        <v>1.117777381665394E-09</v>
+        <v>1.11776907932039E-09</v>
       </c>
       <c r="U2">
-        <v>-1.947064218837684E-09</v>
+        <v>-1.947073264101864E-09</v>
       </c>
       <c r="V2">
-        <v>2.505965207059475E-09</v>
+        <v>2.505969270567666E-09</v>
       </c>
       <c r="W2">
-        <v>-1.117779335934432E-09</v>
+        <v>-1.117769606231264E-09</v>
       </c>
       <c r="X2">
-        <v>1.947061007300574E-09</v>
+        <v>1.947077775852213E-09</v>
       </c>
       <c r="Y2">
-        <v>-2.505969550025911E-09</v>
+        <v>-2.505969901206921E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -10087,25 +10087,25 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.5421614591499194</v>
+        <v>0.5421614591499195</v>
       </c>
       <c r="AH2">
         <v>0.8576025463155462</v>
       </c>
       <c r="AI2">
-        <v>0.9547184906659619</v>
+        <v>0.9547184906659623</v>
       </c>
       <c r="AJ2">
-        <v>0.5421614591770479</v>
+        <v>0.5421614591770483</v>
       </c>
       <c r="AK2">
         <v>0.8576025463355481</v>
       </c>
       <c r="AL2">
-        <v>0.9547184906556978</v>
+        <v>0.9547184906556981</v>
       </c>
       <c r="AM2">
-        <v>-10.80277169403304</v>
+        <v>-10.80277169403299</v>
       </c>
       <c r="AN2">
         <v>-108.0887396155923</v>
@@ -10114,10 +10114,10 @@
         <v>106.1949204558219</v>
       </c>
       <c r="AP2">
-        <v>-10.80277169013758</v>
+        <v>-10.80277169013754</v>
       </c>
       <c r="AQ2">
-        <v>-108.088739616335</v>
+        <v>-108.0887396163351</v>
       </c>
       <c r="AR2">
         <v>106.1949204570494</v>
@@ -10164,40 +10164,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.749221507813443E-10</v>
+        <v>8.74922961958732E-10</v>
       </c>
       <c r="O3">
-        <v>3.800779095676996E-10</v>
+        <v>3.800703924629726E-10</v>
       </c>
       <c r="P3">
-        <v>5.741179486923634E-11</v>
+        <v>5.739778402714335E-11</v>
       </c>
       <c r="Q3">
-        <v>-8.749256651227373E-10</v>
+        <v>-8.749184870773281E-10</v>
       </c>
       <c r="R3">
-        <v>-3.800746979942007E-10</v>
+        <v>-3.800703730511097E-10</v>
       </c>
       <c r="S3">
-        <v>-5.741396636200998E-11</v>
+        <v>-5.7397959611889E-11</v>
       </c>
       <c r="T3">
-        <v>-3.726002498971614E-10</v>
+        <v>-3.725994242306672E-10</v>
       </c>
       <c r="U3">
-        <v>6.490204861628179E-10</v>
+        <v>6.490154626284767E-10</v>
       </c>
       <c r="V3">
-        <v>-8.353282143224104E-10</v>
+        <v>-8.353205101791739E-10</v>
       </c>
       <c r="W3">
-        <v>3.725989595927897E-10</v>
+        <v>3.725988972108852E-10</v>
       </c>
       <c r="X3">
-        <v>-6.490204667533108E-10</v>
+        <v>-6.490186741928134E-10</v>
       </c>
       <c r="Y3">
-        <v>8.353275836559278E-10</v>
+        <v>8.353251685145859E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -10218,7 +10218,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.5421614591860906</v>
+        <v>0.542161459186091</v>
       </c>
       <c r="AH3">
         <v>0.8576025463422151</v>
@@ -10227,28 +10227,28 @@
         <v>0.9547184906522768</v>
       </c>
       <c r="AJ3">
-        <v>0.5421614591770479</v>
+        <v>0.5421614591770483</v>
       </c>
       <c r="AK3">
         <v>0.8576025463355481</v>
       </c>
       <c r="AL3">
-        <v>0.9547184906556978</v>
+        <v>0.9547184906556981</v>
       </c>
       <c r="AM3">
-        <v>-10.80277168883904</v>
+        <v>-10.80277168883902</v>
       </c>
       <c r="AN3">
-        <v>-108.0887396165826</v>
+        <v>-108.0887396165827</v>
       </c>
       <c r="AO3">
-        <v>106.1949204574586</v>
+        <v>106.1949204574585</v>
       </c>
       <c r="AP3">
-        <v>-10.80277169013758</v>
+        <v>-10.80277169013754</v>
       </c>
       <c r="AQ3">
-        <v>-108.088739616335</v>
+        <v>-108.0887396163351</v>
       </c>
       <c r="AR3">
         <v>106.1949204570494</v>
@@ -10295,40 +10295,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.749226321346807E-10</v>
+        <v>8.749241653420732E-10</v>
       </c>
       <c r="O4">
-        <v>3.80073082513038E-10</v>
+        <v>3.800703924629728E-10</v>
       </c>
       <c r="P4">
-        <v>5.740962337070341E-11</v>
+        <v>5.740555986251347E-11</v>
       </c>
       <c r="Q4">
-        <v>-8.749206197636525E-10</v>
+        <v>-8.749249764964227E-10</v>
       </c>
       <c r="R4">
-        <v>-3.800715058325648E-10</v>
+        <v>-3.800691117113384E-10</v>
       </c>
       <c r="S4">
-        <v>-5.74128806127435E-11</v>
+        <v>-5.740555985675422E-11</v>
       </c>
       <c r="T4">
-        <v>-3.725977272176191E-10</v>
+        <v>-3.725931175318113E-10</v>
       </c>
       <c r="U4">
-        <v>6.490220628375319E-10</v>
+        <v>6.490154626284768E-10</v>
       </c>
       <c r="V4">
-        <v>-8.353288449922959E-10</v>
+        <v>-8.353229611665829E-10</v>
       </c>
       <c r="W4">
-        <v>3.725979968861167E-10</v>
+        <v>3.725922918789309E-10</v>
       </c>
       <c r="X4">
-        <v>-6.490172357794672E-10</v>
+        <v>-6.490148125490841E-10</v>
       </c>
       <c r="Y4">
-        <v>8.353278989908707E-10</v>
+        <v>8.353229611699864E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -10349,37 +10349,37 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.5421614591860906</v>
+        <v>0.5421614591860912</v>
       </c>
       <c r="AH4">
-        <v>0.8576025463422151</v>
+        <v>0.8576025463422153</v>
       </c>
       <c r="AI4">
         <v>0.9547184906522768</v>
       </c>
       <c r="AJ4">
-        <v>0.5421614591770479</v>
+        <v>0.5421614591770483</v>
       </c>
       <c r="AK4">
         <v>0.8576025463355481</v>
       </c>
       <c r="AL4">
-        <v>0.9547184906556978</v>
+        <v>0.9547184906556981</v>
       </c>
       <c r="AM4">
-        <v>-10.80277168883904</v>
+        <v>-10.80277168883905</v>
       </c>
       <c r="AN4">
-        <v>-108.0887396165826</v>
+        <v>-108.0887396165827</v>
       </c>
       <c r="AO4">
-        <v>106.1949204574586</v>
+        <v>106.1949204574585</v>
       </c>
       <c r="AP4">
-        <v>-10.80277169013758</v>
+        <v>-10.80277169013754</v>
       </c>
       <c r="AQ4">
-        <v>-108.088739616335</v>
+        <v>-108.0887396163351</v>
       </c>
       <c r="AR4">
         <v>106.1949204570494</v>
@@ -10426,40 +10426,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.883694544832968E-15</v>
+        <v>3.362835144307836E-15</v>
       </c>
       <c r="O5">
-        <v>5.43831844339532E-15</v>
+        <v>-1.448116398504525E-15</v>
       </c>
       <c r="P5">
-        <v>3.432838304148088E-15</v>
+        <v>-4.973666951436219E-15</v>
       </c>
       <c r="Q5">
-        <v>-5.887727423783641E-15</v>
+        <v>6.016916705885139E-16</v>
       </c>
       <c r="R5">
-        <v>-2.226750703576285E-15</v>
+        <v>1.94061039063967E-17</v>
       </c>
       <c r="S5">
-        <v>-7.320755989130251E-15</v>
+        <v>3.081657294576262E-15</v>
       </c>
       <c r="T5">
-        <v>1.410656320389085E-15</v>
+        <v>-2.929374604376096E-15</v>
       </c>
       <c r="U5">
-        <v>3.565714890441818E-15</v>
+        <v>4.730024142149767E-16</v>
       </c>
       <c r="V5">
-        <v>-3.712327180196247E-15</v>
+        <v>9.10158761668147E-16</v>
       </c>
       <c r="W5">
-        <v>-3.451982526398135E-15</v>
+        <v>3.153349428099829E-15</v>
       </c>
       <c r="X5">
-        <v>-3.546308786535419E-15</v>
+        <v>-3.211567739819036E-15</v>
       </c>
       <c r="Y5">
-        <v>4.937820884674385E-15</v>
+        <v>5.604336837056205E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -10480,7 +10480,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.5421614591860906</v>
+        <v>0.542161459186091</v>
       </c>
       <c r="AH5">
         <v>0.8576025463422151</v>
@@ -10489,31 +10489,31 @@
         <v>0.9547184906522768</v>
       </c>
       <c r="AJ5">
-        <v>0.5421614591860906</v>
+        <v>0.5421614591860912</v>
       </c>
       <c r="AK5">
-        <v>0.8576025463422151</v>
+        <v>0.8576025463422153</v>
       </c>
       <c r="AL5">
         <v>0.9547184906522768</v>
       </c>
       <c r="AM5">
-        <v>-10.80277168883904</v>
+        <v>-10.80277168883902</v>
       </c>
       <c r="AN5">
-        <v>-108.0887396165826</v>
+        <v>-108.0887396165827</v>
       </c>
       <c r="AO5">
-        <v>106.1949204574586</v>
+        <v>106.1949204574585</v>
       </c>
       <c r="AP5">
-        <v>-10.80277168883904</v>
+        <v>-10.80277168883905</v>
       </c>
       <c r="AQ5">
-        <v>-108.0887396165826</v>
+        <v>-108.0887396165827</v>
       </c>
       <c r="AR5">
-        <v>106.1949204574586</v>
+        <v>106.1949204574585</v>
       </c>
     </row>
   </sheetData>
@@ -10704,40 +10704,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.624760452852779E-09</v>
+        <v>-2.624766612447825E-09</v>
       </c>
       <c r="O2">
-        <v>-1.140212193664637E-09</v>
+        <v>-1.140194314156287E-09</v>
       </c>
       <c r="P2">
-        <v>-1.722050157653741E-10</v>
+        <v>-1.721991319396604E-10</v>
       </c>
       <c r="Q2">
-        <v>2.624767270090519E-09</v>
+        <v>2.624771087513525E-09</v>
       </c>
       <c r="R2">
-        <v>1.140212213122575E-09</v>
+        <v>1.140196856293767E-09</v>
       </c>
       <c r="S2">
-        <v>1.722062771569795E-10</v>
+        <v>1.721969604929617E-10</v>
       </c>
       <c r="T2">
-        <v>1.117777381665394E-09</v>
+        <v>1.11776907932039E-09</v>
       </c>
       <c r="U2">
-        <v>-1.947064218837684E-09</v>
+        <v>-1.947073264101864E-09</v>
       </c>
       <c r="V2">
-        <v>2.505965207059475E-09</v>
+        <v>2.505969270567666E-09</v>
       </c>
       <c r="W2">
-        <v>-1.117779335934432E-09</v>
+        <v>-1.117769606231264E-09</v>
       </c>
       <c r="X2">
-        <v>1.947061007300574E-09</v>
+        <v>1.947077775852213E-09</v>
       </c>
       <c r="Y2">
-        <v>-2.505969550025911E-09</v>
+        <v>-2.505969901206921E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -10758,25 +10758,25 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.5421614591499194</v>
+        <v>0.5421614591499195</v>
       </c>
       <c r="AH2">
         <v>0.8576025463155462</v>
       </c>
       <c r="AI2">
-        <v>0.9547184906659619</v>
+        <v>0.9547184906659623</v>
       </c>
       <c r="AJ2">
-        <v>0.5421614591770479</v>
+        <v>0.5421614591770483</v>
       </c>
       <c r="AK2">
         <v>0.8576025463355481</v>
       </c>
       <c r="AL2">
-        <v>0.9547184906556978</v>
+        <v>0.9547184906556981</v>
       </c>
       <c r="AM2">
-        <v>-10.80277169403304</v>
+        <v>-10.80277169403299</v>
       </c>
       <c r="AN2">
         <v>-108.0887396155923</v>
@@ -10785,10 +10785,10 @@
         <v>106.1949204558219</v>
       </c>
       <c r="AP2">
-        <v>-10.80277169013758</v>
+        <v>-10.80277169013754</v>
       </c>
       <c r="AQ2">
-        <v>-108.088739616335</v>
+        <v>-108.0887396163351</v>
       </c>
       <c r="AR2">
         <v>106.1949204570494</v>
@@ -10835,40 +10835,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.749221507813443E-10</v>
+        <v>8.74922961958732E-10</v>
       </c>
       <c r="O3">
-        <v>3.800779095676996E-10</v>
+        <v>3.800703924629726E-10</v>
       </c>
       <c r="P3">
-        <v>5.741179486923634E-11</v>
+        <v>5.739778402714335E-11</v>
       </c>
       <c r="Q3">
-        <v>-8.749256651227373E-10</v>
+        <v>-8.749184870773281E-10</v>
       </c>
       <c r="R3">
-        <v>-3.800746979942007E-10</v>
+        <v>-3.800703730511097E-10</v>
       </c>
       <c r="S3">
-        <v>-5.741396636200998E-11</v>
+        <v>-5.7397959611889E-11</v>
       </c>
       <c r="T3">
-        <v>-3.726002498971614E-10</v>
+        <v>-3.725994242306672E-10</v>
       </c>
       <c r="U3">
-        <v>6.490204861628179E-10</v>
+        <v>6.490154626284767E-10</v>
       </c>
       <c r="V3">
-        <v>-8.353282143224104E-10</v>
+        <v>-8.353205101791739E-10</v>
       </c>
       <c r="W3">
-        <v>3.725989595927897E-10</v>
+        <v>3.725988972108852E-10</v>
       </c>
       <c r="X3">
-        <v>-6.490204667533108E-10</v>
+        <v>-6.490186741928134E-10</v>
       </c>
       <c r="Y3">
-        <v>8.353275836559278E-10</v>
+        <v>8.353251685145859E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -10889,7 +10889,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.5421614591860906</v>
+        <v>0.542161459186091</v>
       </c>
       <c r="AH3">
         <v>0.8576025463422151</v>
@@ -10898,28 +10898,28 @@
         <v>0.9547184906522768</v>
       </c>
       <c r="AJ3">
-        <v>0.5421614591770479</v>
+        <v>0.5421614591770483</v>
       </c>
       <c r="AK3">
         <v>0.8576025463355481</v>
       </c>
       <c r="AL3">
-        <v>0.9547184906556978</v>
+        <v>0.9547184906556981</v>
       </c>
       <c r="AM3">
-        <v>-10.80277168883904</v>
+        <v>-10.80277168883902</v>
       </c>
       <c r="AN3">
-        <v>-108.0887396165826</v>
+        <v>-108.0887396165827</v>
       </c>
       <c r="AO3">
-        <v>106.1949204574586</v>
+        <v>106.1949204574585</v>
       </c>
       <c r="AP3">
-        <v>-10.80277169013758</v>
+        <v>-10.80277169013754</v>
       </c>
       <c r="AQ3">
-        <v>-108.088739616335</v>
+        <v>-108.0887396163351</v>
       </c>
       <c r="AR3">
         <v>106.1949204570494</v>
@@ -10966,40 +10966,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.749226321346807E-10</v>
+        <v>8.749241653420732E-10</v>
       </c>
       <c r="O4">
-        <v>3.80073082513038E-10</v>
+        <v>3.800703924629728E-10</v>
       </c>
       <c r="P4">
-        <v>5.740962337070341E-11</v>
+        <v>5.740555986251347E-11</v>
       </c>
       <c r="Q4">
-        <v>-8.749206197636525E-10</v>
+        <v>-8.749249764964227E-10</v>
       </c>
       <c r="R4">
-        <v>-3.800715058325648E-10</v>
+        <v>-3.800691117113384E-10</v>
       </c>
       <c r="S4">
-        <v>-5.74128806127435E-11</v>
+        <v>-5.740555985675422E-11</v>
       </c>
       <c r="T4">
-        <v>-3.725977272176191E-10</v>
+        <v>-3.725931175318113E-10</v>
       </c>
       <c r="U4">
-        <v>6.490220628375319E-10</v>
+        <v>6.490154626284768E-10</v>
       </c>
       <c r="V4">
-        <v>-8.353288449922959E-10</v>
+        <v>-8.353229611665829E-10</v>
       </c>
       <c r="W4">
-        <v>3.725979968861167E-10</v>
+        <v>3.725922918789309E-10</v>
       </c>
       <c r="X4">
-        <v>-6.490172357794672E-10</v>
+        <v>-6.490148125490841E-10</v>
       </c>
       <c r="Y4">
-        <v>8.353278989908707E-10</v>
+        <v>8.353229611699864E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -11020,37 +11020,37 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.5421614591860906</v>
+        <v>0.5421614591860912</v>
       </c>
       <c r="AH4">
-        <v>0.8576025463422151</v>
+        <v>0.8576025463422153</v>
       </c>
       <c r="AI4">
         <v>0.9547184906522768</v>
       </c>
       <c r="AJ4">
-        <v>0.5421614591770479</v>
+        <v>0.5421614591770483</v>
       </c>
       <c r="AK4">
         <v>0.8576025463355481</v>
       </c>
       <c r="AL4">
-        <v>0.9547184906556978</v>
+        <v>0.9547184906556981</v>
       </c>
       <c r="AM4">
-        <v>-10.80277168883904</v>
+        <v>-10.80277168883905</v>
       </c>
       <c r="AN4">
-        <v>-108.0887396165826</v>
+        <v>-108.0887396165827</v>
       </c>
       <c r="AO4">
-        <v>106.1949204574586</v>
+        <v>106.1949204574585</v>
       </c>
       <c r="AP4">
-        <v>-10.80277169013758</v>
+        <v>-10.80277169013754</v>
       </c>
       <c r="AQ4">
-        <v>-108.088739616335</v>
+        <v>-108.0887396163351</v>
       </c>
       <c r="AR4">
         <v>106.1949204570494</v>
@@ -11097,40 +11097,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.883694544832968E-15</v>
+        <v>3.362835144307836E-15</v>
       </c>
       <c r="O5">
-        <v>5.43831844339532E-15</v>
+        <v>-1.448116398504525E-15</v>
       </c>
       <c r="P5">
-        <v>3.432838304148088E-15</v>
+        <v>-4.973666951436219E-15</v>
       </c>
       <c r="Q5">
-        <v>-5.887727423783641E-15</v>
+        <v>6.016916705885139E-16</v>
       </c>
       <c r="R5">
-        <v>-2.226750703576285E-15</v>
+        <v>1.94061039063967E-17</v>
       </c>
       <c r="S5">
-        <v>-7.320755989130251E-15</v>
+        <v>3.081657294576262E-15</v>
       </c>
       <c r="T5">
-        <v>1.410656320389085E-15</v>
+        <v>-2.929374604376096E-15</v>
       </c>
       <c r="U5">
-        <v>3.565714890441818E-15</v>
+        <v>4.730024142149767E-16</v>
       </c>
       <c r="V5">
-        <v>-3.712327180196247E-15</v>
+        <v>9.10158761668147E-16</v>
       </c>
       <c r="W5">
-        <v>-3.451982526398135E-15</v>
+        <v>3.153349428099829E-15</v>
       </c>
       <c r="X5">
-        <v>-3.546308786535419E-15</v>
+        <v>-3.211567739819036E-15</v>
       </c>
       <c r="Y5">
-        <v>4.937820884674385E-15</v>
+        <v>5.604336837056205E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -11151,7 +11151,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.5421614591860906</v>
+        <v>0.542161459186091</v>
       </c>
       <c r="AH5">
         <v>0.8576025463422151</v>
@@ -11160,31 +11160,31 @@
         <v>0.9547184906522768</v>
       </c>
       <c r="AJ5">
-        <v>0.5421614591860906</v>
+        <v>0.5421614591860912</v>
       </c>
       <c r="AK5">
-        <v>0.8576025463422151</v>
+        <v>0.8576025463422153</v>
       </c>
       <c r="AL5">
         <v>0.9547184906522768</v>
       </c>
       <c r="AM5">
-        <v>-10.80277168883904</v>
+        <v>-10.80277168883902</v>
       </c>
       <c r="AN5">
-        <v>-108.0887396165826</v>
+        <v>-108.0887396165827</v>
       </c>
       <c r="AO5">
-        <v>106.1949204574586</v>
+        <v>106.1949204574585</v>
       </c>
       <c r="AP5">
-        <v>-10.80277168883904</v>
+        <v>-10.80277168883905</v>
       </c>
       <c r="AQ5">
-        <v>-108.0887396165826</v>
+        <v>-108.0887396165827</v>
       </c>
       <c r="AR5">
-        <v>106.1949204574586</v>
+        <v>106.1949204574585</v>
       </c>
     </row>
   </sheetData>
@@ -11375,40 +11375,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.957736835525453E-09</v>
+        <v>-2.957792415758422E-09</v>
       </c>
       <c r="O2">
-        <v>-7.394324716518613E-10</v>
+        <v>-7.394307347695918E-10</v>
       </c>
       <c r="P2">
-        <v>-7.394463673583617E-10</v>
+        <v>-7.394637361811858E-10</v>
       </c>
       <c r="Q2">
-        <v>2.957733361824335E-09</v>
+        <v>2.957788942057307E-09</v>
       </c>
       <c r="R2">
-        <v>7.394411565073656E-10</v>
+        <v>7.394394196251037E-10</v>
       </c>
       <c r="S2">
-        <v>7.394498415670326E-10</v>
+        <v>7.394602628607276E-10</v>
       </c>
       <c r="T2">
-        <v>6.947452506705805E-15</v>
+        <v>1.04212170647892E-14</v>
       </c>
       <c r="U2">
-        <v>3.842247608439417E-09</v>
+        <v>3.84227366167362E-09</v>
       </c>
       <c r="V2">
-        <v>-3.842247612875905E-09</v>
+        <v>-3.84226150793418E-09</v>
       </c>
       <c r="W2">
-        <v>-6.947380524063668E-15</v>
+        <v>-6.947380519283116E-15</v>
       </c>
       <c r="X2">
-        <v>-3.842247607935528E-09</v>
+        <v>-3.842268450522885E-09</v>
       </c>
       <c r="Y2">
-        <v>3.842254560908924E-09</v>
+        <v>3.84224761337982E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -11429,37 +11429,37 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.7333333491947058</v>
+        <v>0.7333333491947038</v>
       </c>
       <c r="AH2">
-        <v>0.3666666743874885</v>
+        <v>0.3666666743874897</v>
       </c>
       <c r="AI2">
-        <v>0.3666666748072236</v>
+        <v>0.3666666748072259</v>
       </c>
       <c r="AJ2">
-        <v>0.7333333492104355</v>
+        <v>0.7333333492104339</v>
       </c>
       <c r="AK2">
-        <v>0.3666666743489846</v>
+        <v>0.3666666743489853</v>
       </c>
       <c r="AL2">
-        <v>0.3666666748614578</v>
+        <v>0.3666666748614601</v>
       </c>
       <c r="AM2">
-        <v>1.484155485183155E-09</v>
+        <v>1.484185504249095E-09</v>
       </c>
       <c r="AN2">
-        <v>-179.9999999988594</v>
+        <v>-179.9999999988593</v>
       </c>
       <c r="AO2">
         <v>-179.9999999981704</v>
       </c>
       <c r="AP2">
-        <v>2.87857302791416E-09</v>
+        <v>2.878611540756831E-09</v>
       </c>
       <c r="AQ2">
-        <v>-179.999999991079</v>
+        <v>-179.9999999910788</v>
       </c>
       <c r="AR2">
         <v>179.9999999968235</v>
@@ -11506,40 +11506,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.85913436458201E-10</v>
+        <v>9.859447003392504E-10</v>
       </c>
       <c r="O3">
-        <v>2.464913858062406E-10</v>
+        <v>2.464583850429352E-10</v>
       </c>
       <c r="P3">
-        <v>2.464844384932088E-10</v>
+        <v>2.464948597868996E-10</v>
       </c>
       <c r="Q3">
-        <v>-9.859203839802743E-10</v>
+        <v>-9.859481740967619E-10</v>
       </c>
       <c r="R3">
-        <v>-2.464827013454965E-10</v>
+        <v>-2.464427530530749E-10</v>
       </c>
       <c r="S3">
-        <v>-2.464879122084285E-10</v>
+        <v>-2.465052810312475E-10</v>
       </c>
       <c r="T3">
-        <v>5.753042624211803E-20</v>
+        <v>3.473822094492268E-15</v>
       </c>
       <c r="U3">
-        <v>-1.28076309764742E-09</v>
+        <v>-1.280757887000588E-09</v>
       </c>
       <c r="V3">
-        <v>1.280749204515921E-09</v>
+        <v>1.280735309457671E-09</v>
       </c>
       <c r="W3">
-        <v>-4.953320906208275E-20</v>
+        <v>6.947479587026665E-15</v>
       </c>
       <c r="X3">
-        <v>1.28076309770341E-09</v>
+        <v>1.2807561501743E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.280742256930805E-09</v>
+        <v>-1.280735309401685E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -11560,37 +11560,37 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.7333333492156784</v>
+        <v>0.7333333492156776</v>
       </c>
       <c r="AH3">
-        <v>0.3666666743361501</v>
+        <v>0.36666667433615</v>
       </c>
       <c r="AI3">
-        <v>0.366666674879536</v>
+        <v>0.3666666748795377</v>
       </c>
       <c r="AJ3">
-        <v>0.7333333492104355</v>
+        <v>0.7333333492104339</v>
       </c>
       <c r="AK3">
-        <v>0.3666666743489846</v>
+        <v>0.3666666743489853</v>
       </c>
       <c r="AL3">
-        <v>0.3666666748614578</v>
+        <v>0.3666666748614601</v>
       </c>
       <c r="AM3">
-        <v>3.343346885608304E-09</v>
+        <v>3.343409039273945E-09</v>
       </c>
       <c r="AN3">
-        <v>-179.9999999884854</v>
+        <v>-179.9999999884853</v>
       </c>
       <c r="AO3">
         <v>179.9999999951597</v>
       </c>
       <c r="AP3">
-        <v>2.87857302791416E-09</v>
+        <v>2.878611540756831E-09</v>
       </c>
       <c r="AQ3">
-        <v>-179.999999991079</v>
+        <v>-179.9999999910788</v>
       </c>
       <c r="AR3">
         <v>179.9999999968235</v>
@@ -11637,40 +11637,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.859203839873235E-10</v>
+        <v>9.859308052810051E-10</v>
       </c>
       <c r="O4">
-        <v>2.464913858062423E-10</v>
+        <v>2.464653325720531E-10</v>
       </c>
       <c r="P4">
-        <v>2.464913860223363E-10</v>
+        <v>2.464948597868996E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.859342790385195E-10</v>
+        <v>-9.859447003322001E-10</v>
       </c>
       <c r="R4">
-        <v>-2.464827013454976E-10</v>
+        <v>-2.464497005821923E-10</v>
       </c>
       <c r="S4">
-        <v>-2.464879122084289E-10</v>
+        <v>-2.464983335021204E-10</v>
       </c>
       <c r="T4">
-        <v>-6.947471591425445E-15</v>
+        <v>1.042135121579958E-14</v>
       </c>
       <c r="U4">
-        <v>-1.280770045176537E-09</v>
+        <v>-1.280757887000587E-09</v>
       </c>
       <c r="V4">
-        <v>1.280749204515921E-09</v>
+        <v>1.280735309457671E-09</v>
       </c>
       <c r="W4">
-        <v>6.947479588387505E-15</v>
+        <v>-6.947578657388106E-15</v>
       </c>
       <c r="X4">
-        <v>1.280770045232528E-09</v>
+        <v>1.280756150174299E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.280749204459932E-09</v>
+        <v>-1.280735309401685E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -11691,37 +11691,37 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.7333333492156784</v>
+        <v>0.7333333492156776</v>
       </c>
       <c r="AH4">
         <v>0.36666667433615</v>
       </c>
       <c r="AI4">
-        <v>0.3666666748795361</v>
+        <v>0.3666666748795377</v>
       </c>
       <c r="AJ4">
-        <v>0.7333333492104355</v>
+        <v>0.7333333492104339</v>
       </c>
       <c r="AK4">
-        <v>0.3666666743489846</v>
+        <v>0.3666666743489853</v>
       </c>
       <c r="AL4">
-        <v>0.3666666748614578</v>
+        <v>0.3666666748614601</v>
       </c>
       <c r="AM4">
-        <v>3.343351955544776E-09</v>
+        <v>3.343395894994203E-09</v>
       </c>
       <c r="AN4">
-        <v>-179.9999999884854</v>
+        <v>-179.9999999884853</v>
       </c>
       <c r="AO4">
         <v>179.9999999951597</v>
       </c>
       <c r="AP4">
-        <v>2.87857302791416E-09</v>
+        <v>2.878611540756831E-09</v>
       </c>
       <c r="AQ4">
-        <v>-179.999999991079</v>
+        <v>-179.9999999910788</v>
       </c>
       <c r="AR4">
         <v>179.9999999968235</v>
@@ -11768,40 +11768,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-6.947529123155145E-15</v>
+        <v>1.042129368351649E-14</v>
       </c>
       <c r="O5">
-        <v>-1.395343480042167E-24</v>
+        <v>-1.736882279647944E-15</v>
       </c>
       <c r="P5">
-        <v>-6.947529127492393E-15</v>
+        <v>3.473764564332247E-15</v>
       </c>
       <c r="Q5">
-        <v>-3.473764560564058E-15</v>
+        <v>-1.736882280626623E-14</v>
       </c>
       <c r="R5">
-        <v>-3.473764557900537E-15</v>
+        <v>1.389505823474168E-14</v>
       </c>
       <c r="S5">
-        <v>-6.947529128078431E-15</v>
+        <v>-6.947529128078462E-15</v>
       </c>
       <c r="T5">
-        <v>1.389505824428326E-14</v>
+        <v>6.081189190286399E-25</v>
       </c>
       <c r="U5">
-        <v>6.947529117196422E-15</v>
+        <v>1.736882278950265E-15</v>
       </c>
       <c r="V5">
-        <v>5.860374037869076E-25</v>
+        <v>6.947529127199407E-15</v>
       </c>
       <c r="W5">
-        <v>-1.04212936837192E-14</v>
+        <v>6.947529121330799E-15</v>
       </c>
       <c r="X5">
-        <v>-3.473764559295882E-15</v>
+        <v>-1.736882276508384E-15</v>
       </c>
       <c r="Y5">
-        <v>-6.947529126906355E-15</v>
+        <v>-6.947529126906389E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -11822,37 +11822,37 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.7333333492156784</v>
+        <v>0.7333333492156776</v>
       </c>
       <c r="AH5">
-        <v>0.3666666743361501</v>
+        <v>0.36666667433615</v>
       </c>
       <c r="AI5">
-        <v>0.366666674879536</v>
+        <v>0.3666666748795377</v>
       </c>
       <c r="AJ5">
-        <v>0.7333333492156784</v>
+        <v>0.7333333492156776</v>
       </c>
       <c r="AK5">
         <v>0.36666667433615</v>
       </c>
       <c r="AL5">
-        <v>0.3666666748795361</v>
+        <v>0.3666666748795377</v>
       </c>
       <c r="AM5">
-        <v>3.343346885608304E-09</v>
+        <v>3.343409039273945E-09</v>
       </c>
       <c r="AN5">
-        <v>-179.9999999884854</v>
+        <v>-179.9999999884853</v>
       </c>
       <c r="AO5">
         <v>179.9999999951597</v>
       </c>
       <c r="AP5">
-        <v>3.343351955544776E-09</v>
+        <v>3.343395894994203E-09</v>
       </c>
       <c r="AQ5">
-        <v>-179.9999999884854</v>
+        <v>-179.9999999884853</v>
       </c>
       <c r="AR5">
         <v>179.9999999951597</v>
@@ -12046,40 +12046,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.957736835525453E-09</v>
+        <v>-2.957792415758422E-09</v>
       </c>
       <c r="O2">
-        <v>-7.394324716518613E-10</v>
+        <v>-7.394307347695918E-10</v>
       </c>
       <c r="P2">
-        <v>-7.394463673583617E-10</v>
+        <v>-7.394637361811858E-10</v>
       </c>
       <c r="Q2">
-        <v>2.957733361824335E-09</v>
+        <v>2.957788942057307E-09</v>
       </c>
       <c r="R2">
-        <v>7.394411565073656E-10</v>
+        <v>7.394394196251037E-10</v>
       </c>
       <c r="S2">
-        <v>7.394498415670326E-10</v>
+        <v>7.394602628607276E-10</v>
       </c>
       <c r="T2">
-        <v>6.947452506705805E-15</v>
+        <v>1.04212170647892E-14</v>
       </c>
       <c r="U2">
-        <v>3.842247608439417E-09</v>
+        <v>3.84227366167362E-09</v>
       </c>
       <c r="V2">
-        <v>-3.842247612875905E-09</v>
+        <v>-3.84226150793418E-09</v>
       </c>
       <c r="W2">
-        <v>-6.947380524063668E-15</v>
+        <v>-6.947380519283116E-15</v>
       </c>
       <c r="X2">
-        <v>-3.842247607935528E-09</v>
+        <v>-3.842268450522885E-09</v>
       </c>
       <c r="Y2">
-        <v>3.842254560908924E-09</v>
+        <v>3.84224761337982E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -12100,37 +12100,37 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.7333333491947058</v>
+        <v>0.7333333491947038</v>
       </c>
       <c r="AH2">
-        <v>0.3666666743874885</v>
+        <v>0.3666666743874897</v>
       </c>
       <c r="AI2">
-        <v>0.3666666748072236</v>
+        <v>0.3666666748072259</v>
       </c>
       <c r="AJ2">
-        <v>0.7333333492104355</v>
+        <v>0.7333333492104339</v>
       </c>
       <c r="AK2">
-        <v>0.3666666743489846</v>
+        <v>0.3666666743489853</v>
       </c>
       <c r="AL2">
-        <v>0.3666666748614578</v>
+        <v>0.3666666748614601</v>
       </c>
       <c r="AM2">
-        <v>1.484155485183155E-09</v>
+        <v>1.484185504249095E-09</v>
       </c>
       <c r="AN2">
-        <v>-179.9999999988594</v>
+        <v>-179.9999999988593</v>
       </c>
       <c r="AO2">
         <v>-179.9999999981704</v>
       </c>
       <c r="AP2">
-        <v>2.87857302791416E-09</v>
+        <v>2.878611540756831E-09</v>
       </c>
       <c r="AQ2">
-        <v>-179.999999991079</v>
+        <v>-179.9999999910788</v>
       </c>
       <c r="AR2">
         <v>179.9999999968235</v>
@@ -12177,40 +12177,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.85913436458201E-10</v>
+        <v>9.859447003392504E-10</v>
       </c>
       <c r="O3">
-        <v>2.464913858062406E-10</v>
+        <v>2.464583850429352E-10</v>
       </c>
       <c r="P3">
-        <v>2.464844384932088E-10</v>
+        <v>2.464948597868996E-10</v>
       </c>
       <c r="Q3">
-        <v>-9.859203839802743E-10</v>
+        <v>-9.859481740967619E-10</v>
       </c>
       <c r="R3">
-        <v>-2.464827013454965E-10</v>
+        <v>-2.464427530530749E-10</v>
       </c>
       <c r="S3">
-        <v>-2.464879122084285E-10</v>
+        <v>-2.465052810312475E-10</v>
       </c>
       <c r="T3">
-        <v>5.753042624211803E-20</v>
+        <v>3.473822094492268E-15</v>
       </c>
       <c r="U3">
-        <v>-1.28076309764742E-09</v>
+        <v>-1.280757887000588E-09</v>
       </c>
       <c r="V3">
-        <v>1.280749204515921E-09</v>
+        <v>1.280735309457671E-09</v>
       </c>
       <c r="W3">
-        <v>-4.953320906208275E-20</v>
+        <v>6.947479587026665E-15</v>
       </c>
       <c r="X3">
-        <v>1.28076309770341E-09</v>
+        <v>1.2807561501743E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.280742256930805E-09</v>
+        <v>-1.280735309401685E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -12231,37 +12231,37 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.7333333492156784</v>
+        <v>0.7333333492156776</v>
       </c>
       <c r="AH3">
-        <v>0.3666666743361501</v>
+        <v>0.36666667433615</v>
       </c>
       <c r="AI3">
-        <v>0.366666674879536</v>
+        <v>0.3666666748795377</v>
       </c>
       <c r="AJ3">
-        <v>0.7333333492104355</v>
+        <v>0.7333333492104339</v>
       </c>
       <c r="AK3">
-        <v>0.3666666743489846</v>
+        <v>0.3666666743489853</v>
       </c>
       <c r="AL3">
-        <v>0.3666666748614578</v>
+        <v>0.3666666748614601</v>
       </c>
       <c r="AM3">
-        <v>3.343346885608304E-09</v>
+        <v>3.343409039273945E-09</v>
       </c>
       <c r="AN3">
-        <v>-179.9999999884854</v>
+        <v>-179.9999999884853</v>
       </c>
       <c r="AO3">
         <v>179.9999999951597</v>
       </c>
       <c r="AP3">
-        <v>2.87857302791416E-09</v>
+        <v>2.878611540756831E-09</v>
       </c>
       <c r="AQ3">
-        <v>-179.999999991079</v>
+        <v>-179.9999999910788</v>
       </c>
       <c r="AR3">
         <v>179.9999999968235</v>
@@ -12308,40 +12308,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.859203839873235E-10</v>
+        <v>9.859308052810051E-10</v>
       </c>
       <c r="O4">
-        <v>2.464913858062423E-10</v>
+        <v>2.464653325720531E-10</v>
       </c>
       <c r="P4">
-        <v>2.464913860223363E-10</v>
+        <v>2.464948597868996E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.859342790385195E-10</v>
+        <v>-9.859447003322001E-10</v>
       </c>
       <c r="R4">
-        <v>-2.464827013454976E-10</v>
+        <v>-2.464497005821923E-10</v>
       </c>
       <c r="S4">
-        <v>-2.464879122084289E-10</v>
+        <v>-2.464983335021204E-10</v>
       </c>
       <c r="T4">
-        <v>-6.947471591425445E-15</v>
+        <v>1.042135121579958E-14</v>
       </c>
       <c r="U4">
-        <v>-1.280770045176537E-09</v>
+        <v>-1.280757887000587E-09</v>
       </c>
       <c r="V4">
-        <v>1.280749204515921E-09</v>
+        <v>1.280735309457671E-09</v>
       </c>
       <c r="W4">
-        <v>6.947479588387505E-15</v>
+        <v>-6.947578657388106E-15</v>
       </c>
       <c r="X4">
-        <v>1.280770045232528E-09</v>
+        <v>1.280756150174299E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.280749204459932E-09</v>
+        <v>-1.280735309401685E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -12362,37 +12362,37 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.7333333492156784</v>
+        <v>0.7333333492156776</v>
       </c>
       <c r="AH4">
         <v>0.36666667433615</v>
       </c>
       <c r="AI4">
-        <v>0.3666666748795361</v>
+        <v>0.3666666748795377</v>
       </c>
       <c r="AJ4">
-        <v>0.7333333492104355</v>
+        <v>0.7333333492104339</v>
       </c>
       <c r="AK4">
-        <v>0.3666666743489846</v>
+        <v>0.3666666743489853</v>
       </c>
       <c r="AL4">
-        <v>0.3666666748614578</v>
+        <v>0.3666666748614601</v>
       </c>
       <c r="AM4">
-        <v>3.343351955544776E-09</v>
+        <v>3.343395894994203E-09</v>
       </c>
       <c r="AN4">
-        <v>-179.9999999884854</v>
+        <v>-179.9999999884853</v>
       </c>
       <c r="AO4">
         <v>179.9999999951597</v>
       </c>
       <c r="AP4">
-        <v>2.87857302791416E-09</v>
+        <v>2.878611540756831E-09</v>
       </c>
       <c r="AQ4">
-        <v>-179.999999991079</v>
+        <v>-179.9999999910788</v>
       </c>
       <c r="AR4">
         <v>179.9999999968235</v>
@@ -12439,40 +12439,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-6.947529123155145E-15</v>
+        <v>1.042129368351649E-14</v>
       </c>
       <c r="O5">
-        <v>-1.395343480042167E-24</v>
+        <v>-1.736882279647944E-15</v>
       </c>
       <c r="P5">
-        <v>-6.947529127492393E-15</v>
+        <v>3.473764564332247E-15</v>
       </c>
       <c r="Q5">
-        <v>-3.473764560564058E-15</v>
+        <v>-1.736882280626623E-14</v>
       </c>
       <c r="R5">
-        <v>-3.473764557900537E-15</v>
+        <v>1.389505823474168E-14</v>
       </c>
       <c r="S5">
-        <v>-6.947529128078431E-15</v>
+        <v>-6.947529128078462E-15</v>
       </c>
       <c r="T5">
-        <v>1.389505824428326E-14</v>
+        <v>6.081189190286399E-25</v>
       </c>
       <c r="U5">
-        <v>6.947529117196422E-15</v>
+        <v>1.736882278950265E-15</v>
       </c>
       <c r="V5">
-        <v>5.860374037869076E-25</v>
+        <v>6.947529127199407E-15</v>
       </c>
       <c r="W5">
-        <v>-1.04212936837192E-14</v>
+        <v>6.947529121330799E-15</v>
       </c>
       <c r="X5">
-        <v>-3.473764559295882E-15</v>
+        <v>-1.736882276508384E-15</v>
       </c>
       <c r="Y5">
-        <v>-6.947529126906355E-15</v>
+        <v>-6.947529126906389E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -12493,37 +12493,37 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.7333333492156784</v>
+        <v>0.7333333492156776</v>
       </c>
       <c r="AH5">
-        <v>0.3666666743361501</v>
+        <v>0.36666667433615</v>
       </c>
       <c r="AI5">
-        <v>0.366666674879536</v>
+        <v>0.3666666748795377</v>
       </c>
       <c r="AJ5">
-        <v>0.7333333492156784</v>
+        <v>0.7333333492156776</v>
       </c>
       <c r="AK5">
         <v>0.36666667433615</v>
       </c>
       <c r="AL5">
-        <v>0.3666666748795361</v>
+        <v>0.3666666748795377</v>
       </c>
       <c r="AM5">
-        <v>3.343346885608304E-09</v>
+        <v>3.343409039273945E-09</v>
       </c>
       <c r="AN5">
-        <v>-179.9999999884854</v>
+        <v>-179.9999999884853</v>
       </c>
       <c r="AO5">
         <v>179.9999999951597</v>
       </c>
       <c r="AP5">
-        <v>3.343351955544776E-09</v>
+        <v>3.343395894994203E-09</v>
       </c>
       <c r="AQ5">
-        <v>-179.9999999884854</v>
+        <v>-179.9999999884853</v>
       </c>
       <c r="AR5">
         <v>179.9999999951597</v>
@@ -12717,40 +12717,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.27217640902256E-09</v>
+        <v>-2.272185889262312E-09</v>
       </c>
       <c r="O2">
-        <v>-1.904132908088462E-09</v>
+        <v>-1.904147784059369E-09</v>
       </c>
       <c r="P2">
-        <v>-3.132488178790879E-09</v>
+        <v>-3.132507685955018E-09</v>
       </c>
       <c r="Q2">
-        <v>2.272172640664604E-09</v>
+        <v>2.272181287991405E-09</v>
       </c>
       <c r="R2">
-        <v>1.90413839697278E-09</v>
+        <v>1.904153369779542E-09</v>
       </c>
       <c r="S2">
-        <v>3.132494027516656E-09</v>
+        <v>3.132497926526504E-09</v>
       </c>
       <c r="T2">
-        <v>7.092059154658381E-10</v>
+        <v>7.091862406123769E-10</v>
       </c>
       <c r="U2">
-        <v>4.349295580361688E-09</v>
+        <v>4.349318931432176E-09</v>
       </c>
       <c r="V2">
-        <v>-8.033224496886039E-10</v>
+        <v>-8.033380699578435E-10</v>
       </c>
       <c r="W2">
-        <v>-7.092015917682331E-10</v>
+        <v>-7.091940549920269E-10</v>
       </c>
       <c r="X2">
-        <v>-4.349292884203543E-09</v>
+        <v>-4.349302562008706E-09</v>
       </c>
       <c r="Y2">
-        <v>8.033351368536774E-10</v>
+        <v>8.033435948041214E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -12771,40 +12771,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.8561498316503077</v>
+        <v>0.8561498316503064</v>
       </c>
       <c r="AH2">
-        <v>0.6454597859038529</v>
+        <v>0.6454597859038537</v>
       </c>
       <c r="AI2">
-        <v>0.4396365303143207</v>
+        <v>0.4396365303143217</v>
       </c>
       <c r="AJ2">
-        <v>0.8561498316569924</v>
+        <v>0.8561498316569914</v>
       </c>
       <c r="AK2">
-        <v>0.6454597858855414</v>
+        <v>0.645459785885542</v>
       </c>
       <c r="AL2">
-        <v>0.4396365303501945</v>
+        <v>0.4396365303501959</v>
       </c>
       <c r="AM2">
-        <v>-3.925473815880367</v>
+        <v>-3.925473815880339</v>
       </c>
       <c r="AN2">
-        <v>-153.8407182488146</v>
+        <v>-153.8407182488145</v>
       </c>
       <c r="AO2">
-        <v>128.6858355510055</v>
+        <v>128.6858355510057</v>
       </c>
       <c r="AP2">
-        <v>-3.925473814878257</v>
+        <v>-3.925473814878218</v>
       </c>
       <c r="AQ2">
-        <v>-153.8407182453231</v>
+        <v>-153.840718245323</v>
       </c>
       <c r="AR2">
-        <v>128.6858355541858</v>
+        <v>128.685835554186</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -12848,40 +12848,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>7.573911578625338E-10</v>
+        <v>7.574032959397891E-10</v>
       </c>
       <c r="O3">
-        <v>6.347382514300118E-10</v>
+        <v>6.346958352567662E-10</v>
       </c>
       <c r="P3">
-        <v>1.044169660622668E-09</v>
+        <v>1.04417096836924E-09</v>
       </c>
       <c r="Q3">
-        <v>-7.574030182987903E-10</v>
+        <v>-7.574070643245414E-10</v>
       </c>
       <c r="R3">
-        <v>-6.347217853866682E-10</v>
+        <v>-6.346903465600204E-10</v>
       </c>
       <c r="S3">
-        <v>-1.044170314472507E-09</v>
+        <v>-1.044169018840875E-09</v>
       </c>
       <c r="T3">
-        <v>-2.363964845598589E-10</v>
+        <v>-2.36397317472808E-10</v>
       </c>
       <c r="U3">
-        <v>-1.449774502529406E-09</v>
+        <v>-1.449778304317855E-09</v>
       </c>
       <c r="V3">
-        <v>2.677832598071749E-10</v>
+        <v>2.677682994687003E-10</v>
       </c>
       <c r="W3">
-        <v>2.364013635023609E-10</v>
+        <v>2.364016411400101E-10</v>
       </c>
       <c r="X3">
-        <v>1.449782590312176E-09</v>
+        <v>1.449781000263181E-09</v>
       </c>
       <c r="Y3">
-        <v>-2.677757796113327E-10</v>
+        <v>-2.677640704668816E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -12902,40 +12902,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.8561498316592205</v>
+        <v>0.85614983165922</v>
       </c>
       <c r="AH3">
-        <v>0.6454597858794379</v>
+        <v>0.6454597858794378</v>
       </c>
       <c r="AI3">
-        <v>0.4396365303621524</v>
+        <v>0.4396365303621534</v>
       </c>
       <c r="AJ3">
-        <v>0.8561498316569924</v>
+        <v>0.8561498316569914</v>
       </c>
       <c r="AK3">
-        <v>0.6454597858855414</v>
+        <v>0.645459785885542</v>
       </c>
       <c r="AL3">
-        <v>0.4396365303501945</v>
+        <v>0.4396365303501959</v>
       </c>
       <c r="AM3">
-        <v>-3.925473814544234</v>
+        <v>-3.925473814544188</v>
       </c>
       <c r="AN3">
-        <v>-153.8407182441592</v>
+        <v>-153.8407182441591</v>
       </c>
       <c r="AO3">
-        <v>128.6858355552459</v>
+        <v>128.6858355552461</v>
       </c>
       <c r="AP3">
-        <v>-3.925473814878257</v>
+        <v>-3.925473814878218</v>
       </c>
       <c r="AQ3">
-        <v>-153.8407182453231</v>
+        <v>-153.840718245323</v>
       </c>
       <c r="AR3">
-        <v>128.6858355541858</v>
+        <v>128.685835554186</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -12979,40 +12979,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>7.573917131378336E-10</v>
+        <v>7.574035735774391E-10</v>
       </c>
       <c r="O4">
-        <v>6.347382514300118E-10</v>
+        <v>6.347068126033638E-10</v>
       </c>
       <c r="P4">
-        <v>1.044176163010713E-09</v>
+        <v>1.04416576161283E-09</v>
       </c>
       <c r="Q4">
-        <v>-7.573952038849363E-10</v>
+        <v>-7.573992499106874E-10</v>
       </c>
       <c r="R4">
-        <v>-6.347217853866682E-10</v>
+        <v>-6.346958352333192E-10</v>
       </c>
       <c r="S4">
-        <v>-1.044170314472507E-09</v>
+        <v>-1.04416641546267E-09</v>
       </c>
       <c r="T4">
-        <v>-2.363883925083551E-10</v>
+        <v>-2.363932714470562E-10</v>
       </c>
       <c r="U4">
-        <v>-1.449774502529406E-09</v>
+        <v>-1.449772912480411E-09</v>
       </c>
       <c r="V4">
-        <v>2.677884665635853E-10</v>
+        <v>2.677748018567452E-10</v>
       </c>
       <c r="W4">
-        <v>2.363967622013091E-10</v>
+        <v>2.363970398389583E-10</v>
       </c>
       <c r="X4">
-        <v>1.449782590312176E-09</v>
+        <v>1.449778304344459E-09</v>
       </c>
       <c r="Y4">
-        <v>-2.677757796113327E-10</v>
+        <v>-2.677673216609039E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -13033,40 +13033,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.8561498316592205</v>
+        <v>0.85614983165922</v>
       </c>
       <c r="AH4">
-        <v>0.6454597858794378</v>
+        <v>0.6454597858794379</v>
       </c>
       <c r="AI4">
-        <v>0.4396365303621524</v>
+        <v>0.4396365303621534</v>
       </c>
       <c r="AJ4">
-        <v>0.8561498316569924</v>
+        <v>0.8561498316569914</v>
       </c>
       <c r="AK4">
-        <v>0.6454597858855414</v>
+        <v>0.645459785885542</v>
       </c>
       <c r="AL4">
-        <v>0.4396365303501945</v>
+        <v>0.4396365303501959</v>
       </c>
       <c r="AM4">
-        <v>-3.925473814544236</v>
+        <v>-3.925473814544196</v>
       </c>
       <c r="AN4">
-        <v>-153.8407182441592</v>
+        <v>-153.8407182441591</v>
       </c>
       <c r="AO4">
-        <v>128.6858355552459</v>
+        <v>128.6858355552461</v>
       </c>
       <c r="AP4">
-        <v>-3.925473814878257</v>
+        <v>-3.925473814878218</v>
       </c>
       <c r="AQ4">
-        <v>-153.8407182453231</v>
+        <v>-153.840718245323</v>
       </c>
       <c r="AR4">
-        <v>128.6858355541858</v>
+        <v>128.685835554186</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -13110,40 +13110,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.023012875945784E-15</v>
+        <v>1.21380772556747E-14</v>
       </c>
       <c r="O5">
-        <v>6.885050586647289E-15</v>
+        <v>-9.683585354224832E-17</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>3.905067307760642E-15</v>
       </c>
       <c r="Q5">
-        <v>-9.837426729784136E-15</v>
+        <v>-1.158280195578513E-14</v>
       </c>
       <c r="R5">
-        <v>1.237372388525666E-14</v>
+        <v>1.444795214809029E-15</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>-4.552883125010536E-15</v>
       </c>
       <c r="T5">
-        <v>-1.388188249723926E-16</v>
+        <v>-8.32912949834345E-16</v>
       </c>
       <c r="U5">
-        <v>6.788214733105023E-15</v>
+        <v>-1.367326531975231E-14</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>-4.876791033635483E-15</v>
       </c>
       <c r="W5">
-        <v>4.740119876753532E-15</v>
+        <v>8.92496445361748E-15</v>
       </c>
       <c r="X5">
-        <v>9.484133455638577E-15</v>
+        <v>1.092892867044763E-14</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>-9.777811939619346E-16</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -13164,40 +13164,40 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.8561498316592205</v>
+        <v>0.85614983165922</v>
       </c>
       <c r="AH5">
+        <v>0.6454597858794378</v>
+      </c>
+      <c r="AI5">
+        <v>0.4396365303621534</v>
+      </c>
+      <c r="AJ5">
+        <v>0.85614983165922</v>
+      </c>
+      <c r="AK5">
         <v>0.6454597858794379</v>
       </c>
-      <c r="AI5">
-        <v>0.4396365303621524</v>
-      </c>
-      <c r="AJ5">
-        <v>0.8561498316592205</v>
-      </c>
-      <c r="AK5">
-        <v>0.6454597858794378</v>
-      </c>
       <c r="AL5">
-        <v>0.4396365303621524</v>
+        <v>0.4396365303621534</v>
       </c>
       <c r="AM5">
-        <v>-3.925473814544234</v>
+        <v>-3.925473814544188</v>
       </c>
       <c r="AN5">
-        <v>-153.8407182441592</v>
+        <v>-153.8407182441591</v>
       </c>
       <c r="AO5">
-        <v>128.6858355552459</v>
+        <v>128.6858355552461</v>
       </c>
       <c r="AP5">
-        <v>-3.925473814544236</v>
+        <v>-3.925473814544196</v>
       </c>
       <c r="AQ5">
-        <v>-153.8407182441592</v>
+        <v>-153.8407182441591</v>
       </c>
       <c r="AR5">
-        <v>128.6858355552459</v>
+        <v>128.6858355552461</v>
       </c>
     </row>
   </sheetData>
@@ -13388,40 +13388,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.27217640902256E-09</v>
+        <v>-2.272185889262312E-09</v>
       </c>
       <c r="O2">
-        <v>-1.904132908088462E-09</v>
+        <v>-1.904147784059369E-09</v>
       </c>
       <c r="P2">
-        <v>-3.132488178790879E-09</v>
+        <v>-3.132507685955018E-09</v>
       </c>
       <c r="Q2">
-        <v>2.272172640664604E-09</v>
+        <v>2.272181287991405E-09</v>
       </c>
       <c r="R2">
-        <v>1.90413839697278E-09</v>
+        <v>1.904153369779542E-09</v>
       </c>
       <c r="S2">
-        <v>3.132494027516656E-09</v>
+        <v>3.132497926526504E-09</v>
       </c>
       <c r="T2">
-        <v>7.092059154658381E-10</v>
+        <v>7.091862406123769E-10</v>
       </c>
       <c r="U2">
-        <v>4.349295580361688E-09</v>
+        <v>4.349318931432176E-09</v>
       </c>
       <c r="V2">
-        <v>-8.033224496886039E-10</v>
+        <v>-8.033380699578435E-10</v>
       </c>
       <c r="W2">
-        <v>-7.092015917682331E-10</v>
+        <v>-7.091940549920269E-10</v>
       </c>
       <c r="X2">
-        <v>-4.349292884203543E-09</v>
+        <v>-4.349302562008706E-09</v>
       </c>
       <c r="Y2">
-        <v>8.033351368536774E-10</v>
+        <v>8.033435948041214E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -13442,40 +13442,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.8561498316503077</v>
+        <v>0.8561498316503064</v>
       </c>
       <c r="AH2">
-        <v>0.6454597859038529</v>
+        <v>0.6454597859038537</v>
       </c>
       <c r="AI2">
-        <v>0.4396365303143207</v>
+        <v>0.4396365303143217</v>
       </c>
       <c r="AJ2">
-        <v>0.8561498316569924</v>
+        <v>0.8561498316569914</v>
       </c>
       <c r="AK2">
-        <v>0.6454597858855414</v>
+        <v>0.645459785885542</v>
       </c>
       <c r="AL2">
-        <v>0.4396365303501945</v>
+        <v>0.4396365303501959</v>
       </c>
       <c r="AM2">
-        <v>-3.925473815880367</v>
+        <v>-3.925473815880339</v>
       </c>
       <c r="AN2">
-        <v>-153.8407182488146</v>
+        <v>-153.8407182488145</v>
       </c>
       <c r="AO2">
-        <v>128.6858355510055</v>
+        <v>128.6858355510057</v>
       </c>
       <c r="AP2">
-        <v>-3.925473814878257</v>
+        <v>-3.925473814878218</v>
       </c>
       <c r="AQ2">
-        <v>-153.8407182453231</v>
+        <v>-153.840718245323</v>
       </c>
       <c r="AR2">
-        <v>128.6858355541858</v>
+        <v>128.685835554186</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -13519,40 +13519,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>7.573911578625338E-10</v>
+        <v>7.574032959397891E-10</v>
       </c>
       <c r="O3">
-        <v>6.347382514300118E-10</v>
+        <v>6.346958352567662E-10</v>
       </c>
       <c r="P3">
-        <v>1.044169660622668E-09</v>
+        <v>1.04417096836924E-09</v>
       </c>
       <c r="Q3">
-        <v>-7.574030182987903E-10</v>
+        <v>-7.574070643245414E-10</v>
       </c>
       <c r="R3">
-        <v>-6.347217853866682E-10</v>
+        <v>-6.346903465600204E-10</v>
       </c>
       <c r="S3">
-        <v>-1.044170314472507E-09</v>
+        <v>-1.044169018840875E-09</v>
       </c>
       <c r="T3">
-        <v>-2.363964845598589E-10</v>
+        <v>-2.36397317472808E-10</v>
       </c>
       <c r="U3">
-        <v>-1.449774502529406E-09</v>
+        <v>-1.449778304317855E-09</v>
       </c>
       <c r="V3">
-        <v>2.677832598071749E-10</v>
+        <v>2.677682994687003E-10</v>
       </c>
       <c r="W3">
-        <v>2.364013635023609E-10</v>
+        <v>2.364016411400101E-10</v>
       </c>
       <c r="X3">
-        <v>1.449782590312176E-09</v>
+        <v>1.449781000263181E-09</v>
       </c>
       <c r="Y3">
-        <v>-2.677757796113327E-10</v>
+        <v>-2.677640704668816E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -13573,40 +13573,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.8561498316592205</v>
+        <v>0.85614983165922</v>
       </c>
       <c r="AH3">
-        <v>0.6454597858794379</v>
+        <v>0.6454597858794378</v>
       </c>
       <c r="AI3">
-        <v>0.4396365303621524</v>
+        <v>0.4396365303621534</v>
       </c>
       <c r="AJ3">
-        <v>0.8561498316569924</v>
+        <v>0.8561498316569914</v>
       </c>
       <c r="AK3">
-        <v>0.6454597858855414</v>
+        <v>0.645459785885542</v>
       </c>
       <c r="AL3">
-        <v>0.4396365303501945</v>
+        <v>0.4396365303501959</v>
       </c>
       <c r="AM3">
-        <v>-3.925473814544234</v>
+        <v>-3.925473814544188</v>
       </c>
       <c r="AN3">
-        <v>-153.8407182441592</v>
+        <v>-153.8407182441591</v>
       </c>
       <c r="AO3">
-        <v>128.6858355552459</v>
+        <v>128.6858355552461</v>
       </c>
       <c r="AP3">
-        <v>-3.925473814878257</v>
+        <v>-3.925473814878218</v>
       </c>
       <c r="AQ3">
-        <v>-153.8407182453231</v>
+        <v>-153.840718245323</v>
       </c>
       <c r="AR3">
-        <v>128.6858355541858</v>
+        <v>128.685835554186</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -13650,40 +13650,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>7.573917131378336E-10</v>
+        <v>7.574035735774391E-10</v>
       </c>
       <c r="O4">
-        <v>6.347382514300118E-10</v>
+        <v>6.347068126033638E-10</v>
       </c>
       <c r="P4">
-        <v>1.044176163010713E-09</v>
+        <v>1.04416576161283E-09</v>
       </c>
       <c r="Q4">
-        <v>-7.573952038849363E-10</v>
+        <v>-7.573992499106874E-10</v>
       </c>
       <c r="R4">
-        <v>-6.347217853866682E-10</v>
+        <v>-6.346958352333192E-10</v>
       </c>
       <c r="S4">
-        <v>-1.044170314472507E-09</v>
+        <v>-1.04416641546267E-09</v>
       </c>
       <c r="T4">
-        <v>-2.363883925083551E-10</v>
+        <v>-2.363932714470562E-10</v>
       </c>
       <c r="U4">
-        <v>-1.449774502529406E-09</v>
+        <v>-1.449772912480411E-09</v>
       </c>
       <c r="V4">
-        <v>2.677884665635853E-10</v>
+        <v>2.677748018567452E-10</v>
       </c>
       <c r="W4">
-        <v>2.363967622013091E-10</v>
+        <v>2.363970398389583E-10</v>
       </c>
       <c r="X4">
-        <v>1.449782590312176E-09</v>
+        <v>1.449778304344459E-09</v>
       </c>
       <c r="Y4">
-        <v>-2.677757796113327E-10</v>
+        <v>-2.677673216609039E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -13704,40 +13704,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.8561498316592205</v>
+        <v>0.85614983165922</v>
       </c>
       <c r="AH4">
-        <v>0.6454597858794378</v>
+        <v>0.6454597858794379</v>
       </c>
       <c r="AI4">
-        <v>0.4396365303621524</v>
+        <v>0.4396365303621534</v>
       </c>
       <c r="AJ4">
-        <v>0.8561498316569924</v>
+        <v>0.8561498316569914</v>
       </c>
       <c r="AK4">
-        <v>0.6454597858855414</v>
+        <v>0.645459785885542</v>
       </c>
       <c r="AL4">
-        <v>0.4396365303501945</v>
+        <v>0.4396365303501959</v>
       </c>
       <c r="AM4">
-        <v>-3.925473814544236</v>
+        <v>-3.925473814544196</v>
       </c>
       <c r="AN4">
-        <v>-153.8407182441592</v>
+        <v>-153.8407182441591</v>
       </c>
       <c r="AO4">
-        <v>128.6858355552459</v>
+        <v>128.6858355552461</v>
       </c>
       <c r="AP4">
-        <v>-3.925473814878257</v>
+        <v>-3.925473814878218</v>
       </c>
       <c r="AQ4">
-        <v>-153.8407182453231</v>
+        <v>-153.840718245323</v>
       </c>
       <c r="AR4">
-        <v>128.6858355541858</v>
+        <v>128.685835554186</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -13781,40 +13781,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.023012875945784E-15</v>
+        <v>1.21380772556747E-14</v>
       </c>
       <c r="O5">
-        <v>6.885050586647289E-15</v>
+        <v>-9.683585354224832E-17</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>3.905067307760642E-15</v>
       </c>
       <c r="Q5">
-        <v>-9.837426729784136E-15</v>
+        <v>-1.158280195578513E-14</v>
       </c>
       <c r="R5">
-        <v>1.237372388525666E-14</v>
+        <v>1.444795214809029E-15</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>-4.552883125010536E-15</v>
       </c>
       <c r="T5">
-        <v>-1.388188249723926E-16</v>
+        <v>-8.32912949834345E-16</v>
       </c>
       <c r="U5">
-        <v>6.788214733105023E-15</v>
+        <v>-1.367326531975231E-14</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>-4.876791033635483E-15</v>
       </c>
       <c r="W5">
-        <v>4.740119876753532E-15</v>
+        <v>8.92496445361748E-15</v>
       </c>
       <c r="X5">
-        <v>9.484133455638577E-15</v>
+        <v>1.092892867044763E-14</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>-9.777811939619346E-16</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -13835,40 +13835,40 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.8561498316592205</v>
+        <v>0.85614983165922</v>
       </c>
       <c r="AH5">
+        <v>0.6454597858794378</v>
+      </c>
+      <c r="AI5">
+        <v>0.4396365303621534</v>
+      </c>
+      <c r="AJ5">
+        <v>0.85614983165922</v>
+      </c>
+      <c r="AK5">
         <v>0.6454597858794379</v>
       </c>
-      <c r="AI5">
-        <v>0.4396365303621524</v>
-      </c>
-      <c r="AJ5">
-        <v>0.8561498316592205</v>
-      </c>
-      <c r="AK5">
-        <v>0.6454597858794378</v>
-      </c>
       <c r="AL5">
-        <v>0.4396365303621524</v>
+        <v>0.4396365303621534</v>
       </c>
       <c r="AM5">
-        <v>-3.925473814544234</v>
+        <v>-3.925473814544188</v>
       </c>
       <c r="AN5">
-        <v>-153.8407182441592</v>
+        <v>-153.8407182441591</v>
       </c>
       <c r="AO5">
-        <v>128.6858355552459</v>
+        <v>128.6858355552461</v>
       </c>
       <c r="AP5">
-        <v>-3.925473814544236</v>
+        <v>-3.925473814544196</v>
       </c>
       <c r="AQ5">
-        <v>-153.8407182441592</v>
+        <v>-153.8407182441591</v>
       </c>
       <c r="AR5">
-        <v>128.6858355552459</v>
+        <v>128.6858355552461</v>
       </c>
     </row>
   </sheetData>
@@ -14059,40 +14059,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.444426488372728E-09</v>
+        <v>-2.444459647033729E-09</v>
       </c>
       <c r="O2">
-        <v>-6.111054376559182E-10</v>
+        <v>-6.111109640994147E-10</v>
       </c>
       <c r="P2">
-        <v>-6.111062277565641E-10</v>
+        <v>-6.111141226758537E-10</v>
       </c>
       <c r="Q2">
-        <v>2.444429646441114E-09</v>
+        <v>2.44446122611826E-09</v>
       </c>
       <c r="R2">
-        <v>6.111030698848291E-10</v>
+        <v>6.111141227718282E-10</v>
       </c>
       <c r="S2">
-        <v>6.111062284612707E-10</v>
+        <v>6.111157023644205E-10</v>
       </c>
       <c r="T2">
-        <v>-1.894780472824627E-14</v>
+        <v>6.315936984132854E-15</v>
       </c>
       <c r="U2">
-        <v>3.1754186424756E-09</v>
+        <v>3.175426537394874E-09</v>
       </c>
       <c r="V2">
-        <v>-3.175424961548569E-09</v>
+        <v>-3.175431277483996E-09</v>
       </c>
       <c r="W2">
-        <v>2.210583193457312E-14</v>
+        <v>-6.315877490617073E-15</v>
       </c>
       <c r="X2">
-        <v>-3.175413905107592E-09</v>
+        <v>-3.175424957994576E-09</v>
       </c>
       <c r="Y2">
-        <v>3.175428119932723E-09</v>
+        <v>3.175431277900436E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -14116,22 +14116,22 @@
         <v>0.6666666666635033</v>
       </c>
       <c r="AH2">
-        <v>0.3333333331670294</v>
+        <v>0.3333333331670286</v>
       </c>
       <c r="AI2">
-        <v>0.3333333334964816</v>
+        <v>0.3333333334964812</v>
       </c>
       <c r="AJ2">
         <v>0.6666666666909595</v>
       </c>
       <c r="AK2">
-        <v>0.3333333331386035</v>
+        <v>0.3333333331386028</v>
       </c>
       <c r="AL2">
-        <v>0.3333333335523631</v>
+        <v>0.3333333335523628</v>
       </c>
       <c r="AM2">
-        <v>-3.653257421386626E-11</v>
+        <v>-3.645201857573396E-11</v>
       </c>
       <c r="AN2">
         <v>-179.9999999981411</v>
@@ -14140,10 +14140,10 @@
         <v>179.9999999980558</v>
       </c>
       <c r="AP2">
-        <v>1.357894964940577E-09</v>
+        <v>1.358023904145246E-09</v>
       </c>
       <c r="AQ2">
-        <v>-179.9999999844856</v>
+        <v>-179.9999999844855</v>
       </c>
       <c r="AR2">
         <v>179.999999987189</v>
@@ -14190,40 +14190,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.148077768464141E-10</v>
+        <v>8.148125137979859E-10</v>
       </c>
       <c r="O3">
-        <v>2.036944442738405E-10</v>
+        <v>2.03701549701198E-10</v>
       </c>
       <c r="P3">
-        <v>2.036999709202477E-10</v>
+        <v>2.037110238072518E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.148109348029432E-10</v>
+        <v>-8.148109348029433E-10</v>
       </c>
       <c r="R3">
-        <v>-2.036999706390394E-10</v>
+        <v>-2.036952336874715E-10</v>
       </c>
       <c r="S3">
-        <v>-2.036999708419463E-10</v>
+        <v>-2.037094447450937E-10</v>
       </c>
       <c r="T3">
-        <v>-3.157941793701568E-15</v>
+        <v>-1.263184493561467E-14</v>
       </c>
       <c r="U3">
-        <v>-1.058468670016501E-09</v>
+        <v>-1.058476564935778E-09</v>
       </c>
       <c r="V3">
-        <v>1.058481303303374E-09</v>
+        <v>1.058468671432505E-09</v>
       </c>
       <c r="W3">
-        <v>3.157948403798706E-15</v>
+        <v>1.263185154577827E-14</v>
       </c>
       <c r="X3">
-        <v>1.058473407014339E-09</v>
+        <v>1.058474985998195E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.058478145289386E-09</v>
+        <v>-1.058468671386233E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -14244,37 +14244,37 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.6666666667001114</v>
+        <v>0.6666666667001112</v>
       </c>
       <c r="AH3">
-        <v>0.333333333129128</v>
+        <v>0.3333333331291276</v>
       </c>
       <c r="AI3">
-        <v>0.3333333335709902</v>
+        <v>0.3333333335709904</v>
       </c>
       <c r="AJ3">
         <v>0.6666666666909595</v>
       </c>
       <c r="AK3">
-        <v>0.3333333331386035</v>
+        <v>0.3333333331386028</v>
       </c>
       <c r="AL3">
-        <v>0.3333333335523631</v>
+        <v>0.3333333335523628</v>
       </c>
       <c r="AM3">
-        <v>1.822713111023478E-09</v>
+        <v>1.822845272087147E-09</v>
       </c>
       <c r="AN3">
-        <v>-179.9999999799338</v>
+        <v>-179.9999999799336</v>
       </c>
       <c r="AO3">
         <v>179.9999999835668</v>
       </c>
       <c r="AP3">
-        <v>1.357894964940577E-09</v>
+        <v>1.358023904145246E-09</v>
       </c>
       <c r="AQ3">
-        <v>-179.9999999844856</v>
+        <v>-179.9999999844855</v>
       </c>
       <c r="AR3">
         <v>179.999999987189</v>
@@ -14321,40 +14321,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.148109348141285E-10</v>
+        <v>8.148093558302714E-10</v>
       </c>
       <c r="O4">
-        <v>2.036976022415531E-10</v>
+        <v>2.03701549701198E-10</v>
       </c>
       <c r="P4">
-        <v>2.037031288879623E-10</v>
+        <v>2.037110238072517E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.148140927706576E-10</v>
+        <v>-8.148077768352285E-10</v>
       </c>
       <c r="R4">
-        <v>-2.037031286067512E-10</v>
+        <v>-2.037015496228968E-10</v>
       </c>
       <c r="S4">
-        <v>-2.037031288096615E-10</v>
+        <v>-2.037062867773772E-10</v>
       </c>
       <c r="T4">
-        <v>-6.315909508158277E-15</v>
+        <v>-9.473877221126139E-15</v>
       </c>
       <c r="U4">
-        <v>-1.0584686700165E-09</v>
+        <v>-1.058476564935778E-09</v>
       </c>
       <c r="V4">
-        <v>1.05847498736794E-09</v>
+        <v>1.058468671432504E-09</v>
       </c>
       <c r="W4">
-        <v>6.315916118328271E-15</v>
+        <v>9.473883831248711E-15</v>
       </c>
       <c r="X4">
-        <v>1.058470249046626E-09</v>
+        <v>1.058474985998193E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.058471829353952E-09</v>
+        <v>-1.058468671386234E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -14378,7 +14378,7 @@
         <v>0.6666666667001113</v>
       </c>
       <c r="AH4">
-        <v>0.3333333331291281</v>
+        <v>0.3333333331291276</v>
       </c>
       <c r="AI4">
         <v>0.3333333335709903</v>
@@ -14387,25 +14387,25 @@
         <v>0.6666666666909595</v>
       </c>
       <c r="AK4">
-        <v>0.3333333331386035</v>
+        <v>0.3333333331386028</v>
       </c>
       <c r="AL4">
-        <v>0.3333333335523631</v>
+        <v>0.3333333335523628</v>
       </c>
       <c r="AM4">
-        <v>1.82271948092277E-09</v>
+        <v>1.822841140260579E-09</v>
       </c>
       <c r="AN4">
-        <v>-179.9999999799338</v>
+        <v>-179.9999999799336</v>
       </c>
       <c r="AO4">
         <v>179.9999999835668</v>
       </c>
       <c r="AP4">
-        <v>1.357894964940577E-09</v>
+        <v>1.358023904145246E-09</v>
       </c>
       <c r="AQ4">
-        <v>-179.9999999844856</v>
+        <v>-179.9999999844855</v>
       </c>
       <c r="AR4">
         <v>179.999999987189</v>
@@ -14452,40 +14452,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-3.157967714848685E-15</v>
+        <v>1.57898385722341E-15</v>
       </c>
       <c r="O5">
-        <v>-4.736951569937657E-15</v>
+        <v>3.947459641246183E-15</v>
       </c>
       <c r="P5">
-        <v>-6.315935429860351E-15</v>
+        <v>1.578983858370437E-15</v>
       </c>
       <c r="Q5">
-        <v>3.01388129589872E-25</v>
+        <v>-3.15796771454729E-15</v>
       </c>
       <c r="R5">
-        <v>5.52794279333624E-25</v>
+        <v>4.736951569937657E-15</v>
       </c>
       <c r="S5">
-        <v>6.315935431671051E-15</v>
+        <v>1.578983856559746E-15</v>
       </c>
       <c r="T5">
-        <v>6.315935429195059E-15</v>
+        <v>3.157967714697994E-15</v>
       </c>
       <c r="U5">
-        <v>3.15796771089633E-15</v>
+        <v>-1.578983854895362E-15</v>
       </c>
       <c r="V5">
-        <v>1.263187086877419E-14</v>
+        <v>-4.526725791502433E-25</v>
       </c>
       <c r="W5">
-        <v>-9.47390314394328E-15</v>
+        <v>-3.157967714748229E-15</v>
       </c>
       <c r="X5">
-        <v>-1.578983856277356E-15</v>
+        <v>-3.157967710896318E-15</v>
       </c>
       <c r="Y5">
-        <v>-6.31593543529244E-15</v>
+        <v>-6.31593543393442E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -14506,37 +14506,37 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.6666666667001114</v>
+        <v>0.6666666667001112</v>
       </c>
       <c r="AH5">
-        <v>0.333333333129128</v>
+        <v>0.3333333331291276</v>
       </c>
       <c r="AI5">
-        <v>0.3333333335709902</v>
+        <v>0.3333333335709904</v>
       </c>
       <c r="AJ5">
         <v>0.6666666667001113</v>
       </c>
       <c r="AK5">
-        <v>0.3333333331291281</v>
+        <v>0.3333333331291276</v>
       </c>
       <c r="AL5">
         <v>0.3333333335709903</v>
       </c>
       <c r="AM5">
-        <v>1.822713111023478E-09</v>
+        <v>1.822845272087147E-09</v>
       </c>
       <c r="AN5">
-        <v>-179.9999999799338</v>
+        <v>-179.9999999799336</v>
       </c>
       <c r="AO5">
         <v>179.9999999835668</v>
       </c>
       <c r="AP5">
-        <v>1.82271948092277E-09</v>
+        <v>1.822841140260579E-09</v>
       </c>
       <c r="AQ5">
-        <v>-179.9999999799338</v>
+        <v>-179.9999999799336</v>
       </c>
       <c r="AR5">
         <v>179.9999999835668</v>
@@ -15008,40 +15008,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.444426488372728E-09</v>
+        <v>-2.444459647033729E-09</v>
       </c>
       <c r="O2">
-        <v>-6.111054376559182E-10</v>
+        <v>-6.111109640994147E-10</v>
       </c>
       <c r="P2">
-        <v>-6.111062277565641E-10</v>
+        <v>-6.111141226758537E-10</v>
       </c>
       <c r="Q2">
-        <v>2.444429646441114E-09</v>
+        <v>2.44446122611826E-09</v>
       </c>
       <c r="R2">
-        <v>6.111030698848291E-10</v>
+        <v>6.111141227718282E-10</v>
       </c>
       <c r="S2">
-        <v>6.111062284612707E-10</v>
+        <v>6.111157023644205E-10</v>
       </c>
       <c r="T2">
-        <v>-1.894780472824627E-14</v>
+        <v>6.315936984132854E-15</v>
       </c>
       <c r="U2">
-        <v>3.1754186424756E-09</v>
+        <v>3.175426537394874E-09</v>
       </c>
       <c r="V2">
-        <v>-3.175424961548569E-09</v>
+        <v>-3.175431277483996E-09</v>
       </c>
       <c r="W2">
-        <v>2.210583193457312E-14</v>
+        <v>-6.315877490617073E-15</v>
       </c>
       <c r="X2">
-        <v>-3.175413905107592E-09</v>
+        <v>-3.175424957994576E-09</v>
       </c>
       <c r="Y2">
-        <v>3.175428119932723E-09</v>
+        <v>3.175431277900436E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -15065,22 +15065,22 @@
         <v>0.6666666666635033</v>
       </c>
       <c r="AH2">
-        <v>0.3333333331670294</v>
+        <v>0.3333333331670286</v>
       </c>
       <c r="AI2">
-        <v>0.3333333334964816</v>
+        <v>0.3333333334964812</v>
       </c>
       <c r="AJ2">
         <v>0.6666666666909595</v>
       </c>
       <c r="AK2">
-        <v>0.3333333331386035</v>
+        <v>0.3333333331386028</v>
       </c>
       <c r="AL2">
-        <v>0.3333333335523631</v>
+        <v>0.3333333335523628</v>
       </c>
       <c r="AM2">
-        <v>-3.653257421386626E-11</v>
+        <v>-3.645201857573396E-11</v>
       </c>
       <c r="AN2">
         <v>-179.9999999981411</v>
@@ -15089,10 +15089,10 @@
         <v>179.9999999980558</v>
       </c>
       <c r="AP2">
-        <v>1.357894964940577E-09</v>
+        <v>1.358023904145246E-09</v>
       </c>
       <c r="AQ2">
-        <v>-179.9999999844856</v>
+        <v>-179.9999999844855</v>
       </c>
       <c r="AR2">
         <v>179.999999987189</v>
@@ -15139,40 +15139,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.148077768464141E-10</v>
+        <v>8.148125137979859E-10</v>
       </c>
       <c r="O3">
-        <v>2.036944442738405E-10</v>
+        <v>2.03701549701198E-10</v>
       </c>
       <c r="P3">
-        <v>2.036999709202477E-10</v>
+        <v>2.037110238072518E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.148109348029432E-10</v>
+        <v>-8.148109348029433E-10</v>
       </c>
       <c r="R3">
-        <v>-2.036999706390394E-10</v>
+        <v>-2.036952336874715E-10</v>
       </c>
       <c r="S3">
-        <v>-2.036999708419463E-10</v>
+        <v>-2.037094447450937E-10</v>
       </c>
       <c r="T3">
-        <v>-3.157941793701568E-15</v>
+        <v>-1.263184493561467E-14</v>
       </c>
       <c r="U3">
-        <v>-1.058468670016501E-09</v>
+        <v>-1.058476564935778E-09</v>
       </c>
       <c r="V3">
-        <v>1.058481303303374E-09</v>
+        <v>1.058468671432505E-09</v>
       </c>
       <c r="W3">
-        <v>3.157948403798706E-15</v>
+        <v>1.263185154577827E-14</v>
       </c>
       <c r="X3">
-        <v>1.058473407014339E-09</v>
+        <v>1.058474985998195E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.058478145289386E-09</v>
+        <v>-1.058468671386233E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -15193,37 +15193,37 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.6666666667001114</v>
+        <v>0.6666666667001112</v>
       </c>
       <c r="AH3">
-        <v>0.333333333129128</v>
+        <v>0.3333333331291276</v>
       </c>
       <c r="AI3">
-        <v>0.3333333335709902</v>
+        <v>0.3333333335709904</v>
       </c>
       <c r="AJ3">
         <v>0.6666666666909595</v>
       </c>
       <c r="AK3">
-        <v>0.3333333331386035</v>
+        <v>0.3333333331386028</v>
       </c>
       <c r="AL3">
-        <v>0.3333333335523631</v>
+        <v>0.3333333335523628</v>
       </c>
       <c r="AM3">
-        <v>1.822713111023478E-09</v>
+        <v>1.822845272087147E-09</v>
       </c>
       <c r="AN3">
-        <v>-179.9999999799338</v>
+        <v>-179.9999999799336</v>
       </c>
       <c r="AO3">
         <v>179.9999999835668</v>
       </c>
       <c r="AP3">
-        <v>1.357894964940577E-09</v>
+        <v>1.358023904145246E-09</v>
       </c>
       <c r="AQ3">
-        <v>-179.9999999844856</v>
+        <v>-179.9999999844855</v>
       </c>
       <c r="AR3">
         <v>179.999999987189</v>
@@ -15270,40 +15270,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.148109348141285E-10</v>
+        <v>8.148093558302714E-10</v>
       </c>
       <c r="O4">
-        <v>2.036976022415531E-10</v>
+        <v>2.03701549701198E-10</v>
       </c>
       <c r="P4">
-        <v>2.037031288879623E-10</v>
+        <v>2.037110238072517E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.148140927706576E-10</v>
+        <v>-8.148077768352285E-10</v>
       </c>
       <c r="R4">
-        <v>-2.037031286067512E-10</v>
+        <v>-2.037015496228968E-10</v>
       </c>
       <c r="S4">
-        <v>-2.037031288096615E-10</v>
+        <v>-2.037062867773772E-10</v>
       </c>
       <c r="T4">
-        <v>-6.315909508158277E-15</v>
+        <v>-9.473877221126139E-15</v>
       </c>
       <c r="U4">
-        <v>-1.0584686700165E-09</v>
+        <v>-1.058476564935778E-09</v>
       </c>
       <c r="V4">
-        <v>1.05847498736794E-09</v>
+        <v>1.058468671432504E-09</v>
       </c>
       <c r="W4">
-        <v>6.315916118328271E-15</v>
+        <v>9.473883831248711E-15</v>
       </c>
       <c r="X4">
-        <v>1.058470249046626E-09</v>
+        <v>1.058474985998193E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.058471829353952E-09</v>
+        <v>-1.058468671386234E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -15327,7 +15327,7 @@
         <v>0.6666666667001113</v>
       </c>
       <c r="AH4">
-        <v>0.3333333331291281</v>
+        <v>0.3333333331291276</v>
       </c>
       <c r="AI4">
         <v>0.3333333335709903</v>
@@ -15336,25 +15336,25 @@
         <v>0.6666666666909595</v>
       </c>
       <c r="AK4">
-        <v>0.3333333331386035</v>
+        <v>0.3333333331386028</v>
       </c>
       <c r="AL4">
-        <v>0.3333333335523631</v>
+        <v>0.3333333335523628</v>
       </c>
       <c r="AM4">
-        <v>1.82271948092277E-09</v>
+        <v>1.822841140260579E-09</v>
       </c>
       <c r="AN4">
-        <v>-179.9999999799338</v>
+        <v>-179.9999999799336</v>
       </c>
       <c r="AO4">
         <v>179.9999999835668</v>
       </c>
       <c r="AP4">
-        <v>1.357894964940577E-09</v>
+        <v>1.358023904145246E-09</v>
       </c>
       <c r="AQ4">
-        <v>-179.9999999844856</v>
+        <v>-179.9999999844855</v>
       </c>
       <c r="AR4">
         <v>179.999999987189</v>
@@ -15401,40 +15401,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-3.157967714848685E-15</v>
+        <v>1.57898385722341E-15</v>
       </c>
       <c r="O5">
-        <v>-4.736951569937657E-15</v>
+        <v>3.947459641246183E-15</v>
       </c>
       <c r="P5">
-        <v>-6.315935429860351E-15</v>
+        <v>1.578983858370437E-15</v>
       </c>
       <c r="Q5">
-        <v>3.01388129589872E-25</v>
+        <v>-3.15796771454729E-15</v>
       </c>
       <c r="R5">
-        <v>5.52794279333624E-25</v>
+        <v>4.736951569937657E-15</v>
       </c>
       <c r="S5">
-        <v>6.315935431671051E-15</v>
+        <v>1.578983856559746E-15</v>
       </c>
       <c r="T5">
-        <v>6.315935429195059E-15</v>
+        <v>3.157967714697994E-15</v>
       </c>
       <c r="U5">
-        <v>3.15796771089633E-15</v>
+        <v>-1.578983854895362E-15</v>
       </c>
       <c r="V5">
-        <v>1.263187086877419E-14</v>
+        <v>-4.526725791502433E-25</v>
       </c>
       <c r="W5">
-        <v>-9.47390314394328E-15</v>
+        <v>-3.157967714748229E-15</v>
       </c>
       <c r="X5">
-        <v>-1.578983856277356E-15</v>
+        <v>-3.157967710896318E-15</v>
       </c>
       <c r="Y5">
-        <v>-6.31593543529244E-15</v>
+        <v>-6.31593543393442E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -15455,37 +15455,37 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.6666666667001114</v>
+        <v>0.6666666667001112</v>
       </c>
       <c r="AH5">
-        <v>0.333333333129128</v>
+        <v>0.3333333331291276</v>
       </c>
       <c r="AI5">
-        <v>0.3333333335709902</v>
+        <v>0.3333333335709904</v>
       </c>
       <c r="AJ5">
         <v>0.6666666667001113</v>
       </c>
       <c r="AK5">
-        <v>0.3333333331291281</v>
+        <v>0.3333333331291276</v>
       </c>
       <c r="AL5">
         <v>0.3333333335709903</v>
       </c>
       <c r="AM5">
-        <v>1.822713111023478E-09</v>
+        <v>1.822845272087147E-09</v>
       </c>
       <c r="AN5">
-        <v>-179.9999999799338</v>
+        <v>-179.9999999799336</v>
       </c>
       <c r="AO5">
         <v>179.9999999835668</v>
       </c>
       <c r="AP5">
-        <v>1.82271948092277E-09</v>
+        <v>1.822841140260579E-09</v>
       </c>
       <c r="AQ5">
-        <v>-179.9999999799338</v>
+        <v>-179.9999999799336</v>
       </c>
       <c r="AR5">
         <v>179.9999999835668</v>
@@ -15679,40 +15679,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-1.941664673910368E-09</v>
+        <v>-1.941681499266477E-09</v>
       </c>
       <c r="O2">
-        <v>-1.538334099701026E-09</v>
+        <v>-1.538354191505896E-09</v>
       </c>
       <c r="P2">
-        <v>-2.506376899628722E-09</v>
+        <v>-2.506384663791584E-09</v>
       </c>
       <c r="Q2">
-        <v>1.941661284823312E-09</v>
+        <v>1.941681258641643E-09</v>
       </c>
       <c r="R2">
-        <v>1.538338198605439E-09</v>
+        <v>1.538355469242646E-09</v>
       </c>
       <c r="S2">
-        <v>2.506379874020185E-09</v>
+        <v>2.506387043377323E-09</v>
       </c>
       <c r="T2">
-        <v>5.58871396961715E-10</v>
+        <v>5.588925643306191E-10</v>
       </c>
       <c r="U2">
-        <v>3.623720242019631E-09</v>
+        <v>3.62374349120024E-09</v>
       </c>
       <c r="V2">
-        <v>-8.292813237592463E-10</v>
+        <v>-8.292833897350752E-10</v>
       </c>
       <c r="W2">
-        <v>-5.588675264388592E-10</v>
+        <v>-5.588961941155449E-10</v>
       </c>
       <c r="X2">
-        <v>-3.623722796553055E-09</v>
+        <v>-3.623741441715032E-09</v>
       </c>
       <c r="Y2">
-        <v>8.29277958386186E-10</v>
+        <v>8.292806974795104E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -15733,25 +15733,25 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.7679592756099299</v>
+        <v>0.7679592756099295</v>
       </c>
       <c r="AH2">
-        <v>0.5655462792825747</v>
+        <v>0.5655462792825744</v>
       </c>
       <c r="AI2">
-        <v>0.3792589156706159</v>
+        <v>0.3792589156706158</v>
       </c>
       <c r="AJ2">
-        <v>0.7679592756256419</v>
+        <v>0.7679592756256417</v>
       </c>
       <c r="AK2">
-        <v>0.5655462792745896</v>
+        <v>0.5655462792745893</v>
       </c>
       <c r="AL2">
-        <v>0.3792589157297769</v>
+        <v>0.3792589157297771</v>
       </c>
       <c r="AM2">
-        <v>-3.793471525611864</v>
+        <v>-3.793471525611821</v>
       </c>
       <c r="AN2">
         <v>-155.6266320097133</v>
@@ -15760,7 +15760,7 @@
         <v>131.4656840130515</v>
       </c>
       <c r="AP2">
-        <v>-3.793471524370595</v>
+        <v>-3.793471524370523</v>
       </c>
       <c r="AQ2">
         <v>-155.6266320036331</v>
@@ -15810,40 +15810,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.472127675213018E-10</v>
+        <v>6.472195457990793E-10</v>
       </c>
       <c r="O3">
-        <v>5.127840824309526E-10</v>
+        <v>5.127823668216072E-10</v>
       </c>
       <c r="P3">
-        <v>8.354637462755905E-10</v>
+        <v>8.35470320827001E-10</v>
       </c>
       <c r="Q3">
-        <v>-6.47213008192211E-10</v>
+        <v>-6.472197864699887E-10</v>
       </c>
       <c r="R3">
-        <v>-5.127775436449472E-10</v>
+        <v>-5.127857407281209E-10</v>
       </c>
       <c r="S3">
-        <v>-8.354607722066444E-10</v>
+        <v>-8.35468536369507E-10</v>
       </c>
       <c r="T3">
-        <v>-1.862947438154749E-10</v>
+        <v>-1.863024847999249E-10</v>
       </c>
       <c r="U3">
-        <v>-1.207915771022121E-09</v>
+        <v>-1.207913607207596E-09</v>
       </c>
       <c r="V3">
-        <v>2.764289340772605E-10</v>
+        <v>2.764323462880813E-10</v>
       </c>
       <c r="W3">
-        <v>1.862911140033212E-10</v>
+        <v>1.862988549877712E-10</v>
       </c>
       <c r="X3">
-        <v>1.20791432185643E-09</v>
+        <v>1.207919431352101E-09</v>
       </c>
       <c r="Y3">
-        <v>-2.764322996409101E-10</v>
+        <v>-2.764343656167406E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -15864,34 +15864,34 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.7679592756308792</v>
+        <v>0.7679592756308787</v>
       </c>
       <c r="AH3">
-        <v>0.5655462792719279</v>
+        <v>0.5655462792719278</v>
       </c>
       <c r="AI3">
-        <v>0.3792589157494974</v>
+        <v>0.3792589157494976</v>
       </c>
       <c r="AJ3">
-        <v>0.7679592756256419</v>
+        <v>0.7679592756256417</v>
       </c>
       <c r="AK3">
-        <v>0.5655462792745896</v>
+        <v>0.5655462792745893</v>
       </c>
       <c r="AL3">
-        <v>0.3792589157297769</v>
+        <v>0.3792589157297771</v>
       </c>
       <c r="AM3">
-        <v>-3.793471523956835</v>
+        <v>-3.793471523956761</v>
       </c>
       <c r="AN3">
-        <v>-155.6266320016064</v>
+        <v>-155.6266320016063</v>
       </c>
       <c r="AO3">
-        <v>131.4656840156439</v>
+        <v>131.465684015644</v>
       </c>
       <c r="AP3">
-        <v>-3.793471524370595</v>
+        <v>-3.793471524370523</v>
       </c>
       <c r="AQ3">
         <v>-155.6266320036331</v>
@@ -15941,40 +15941,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.472132488746382E-10</v>
+        <v>6.472162769985247E-10</v>
       </c>
       <c r="O4">
-        <v>5.12784082430953E-10</v>
+        <v>5.127867890548914E-10</v>
       </c>
       <c r="P4">
-        <v>8.354679416040962E-10</v>
+        <v>8.354685364098225E-10</v>
       </c>
       <c r="Q4">
-        <v>-6.472132488688793E-10</v>
+        <v>-6.472165176694339E-10</v>
       </c>
       <c r="R4">
-        <v>-5.127846351697987E-10</v>
+        <v>-5.127833005240161E-10</v>
       </c>
       <c r="S4">
-        <v>-8.354649675351496E-10</v>
+        <v>-8.354667519523285E-10</v>
       </c>
       <c r="T4">
-        <v>-1.862874841843606E-10</v>
+        <v>-1.862967993999209E-10</v>
       </c>
       <c r="U4">
-        <v>-1.207915771022121E-09</v>
+        <v>-1.207923368024014E-09</v>
       </c>
       <c r="V4">
-        <v>2.764350387580598E-10</v>
+        <v>2.76434365640565E-10</v>
       </c>
       <c r="W4">
-        <v>1.86287484187764E-10</v>
+        <v>1.862931695877671E-10</v>
       </c>
       <c r="X4">
-        <v>1.207916991147997E-09</v>
+        <v>1.207920536910422E-09</v>
       </c>
       <c r="Y4">
-        <v>-2.76438404321709E-10</v>
+        <v>-2.764363849692246E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -15995,34 +15995,34 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.7679592756308792</v>
+        <v>0.7679592756308787</v>
       </c>
       <c r="AH4">
-        <v>0.5655462792719279</v>
+        <v>0.5655462792719277</v>
       </c>
       <c r="AI4">
-        <v>0.3792589157494975</v>
+        <v>0.3792589157494976</v>
       </c>
       <c r="AJ4">
-        <v>0.7679592756256419</v>
+        <v>0.7679592756256417</v>
       </c>
       <c r="AK4">
-        <v>0.5655462792745896</v>
+        <v>0.5655462792745893</v>
       </c>
       <c r="AL4">
-        <v>0.3792589157297769</v>
+        <v>0.3792589157297771</v>
       </c>
       <c r="AM4">
-        <v>-3.793471523956838</v>
+        <v>-3.793471523956762</v>
       </c>
       <c r="AN4">
-        <v>-155.6266320016064</v>
+        <v>-155.6266320016063</v>
       </c>
       <c r="AO4">
         <v>131.4656840156439</v>
       </c>
       <c r="AP4">
-        <v>-3.793471524370595</v>
+        <v>-3.793471524370523</v>
       </c>
       <c r="AQ4">
         <v>-155.6266320036331</v>
@@ -16072,40 +16072,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-1.148130557583726E-15</v>
+        <v>8.833862224622685E-15</v>
       </c>
       <c r="O5">
-        <v>-4.098541586409478E-15</v>
+        <v>-9.337427242852038E-16</v>
       </c>
       <c r="P5">
-        <v>5.94805726224926E-16</v>
+        <v>3.882081431292643E-15</v>
       </c>
       <c r="Q5">
-        <v>-9.074538892914919E-16</v>
+        <v>-8.167085003623422E-15</v>
       </c>
       <c r="R5">
-        <v>4.327629048867768E-15</v>
+        <v>-1.334645783587195E-15</v>
       </c>
       <c r="S5">
-        <v>1.189611452449852E-15</v>
+        <v>-2.097664252617865E-15</v>
       </c>
       <c r="T5">
-        <v>-3.569646390092909E-15</v>
+        <v>-4.23150722789654E-15</v>
       </c>
       <c r="U5">
-        <v>2.554747835945256E-15</v>
+        <v>6.92967900263696E-15</v>
       </c>
       <c r="V5">
-        <v>-6.731174947106972E-16</v>
+        <v>1.032987915478311E-15</v>
       </c>
       <c r="W5">
-        <v>6.016916707305861E-17</v>
+        <v>5.415225036575165E-16</v>
       </c>
       <c r="X5">
-        <v>3.431218694615879E-15</v>
+        <v>-3.545762425845023E-15</v>
       </c>
       <c r="Y5">
-        <v>-1.346234989421395E-15</v>
+        <v>-3.052340399610403E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -16126,37 +16126,37 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.7679592756308792</v>
+        <v>0.7679592756308787</v>
       </c>
       <c r="AH5">
-        <v>0.5655462792719279</v>
+        <v>0.5655462792719278</v>
       </c>
       <c r="AI5">
-        <v>0.3792589157494974</v>
+        <v>0.3792589157494976</v>
       </c>
       <c r="AJ5">
-        <v>0.7679592756308792</v>
+        <v>0.7679592756308787</v>
       </c>
       <c r="AK5">
-        <v>0.5655462792719279</v>
+        <v>0.5655462792719277</v>
       </c>
       <c r="AL5">
-        <v>0.3792589157494975</v>
+        <v>0.3792589157494976</v>
       </c>
       <c r="AM5">
-        <v>-3.793471523956835</v>
+        <v>-3.793471523956761</v>
       </c>
       <c r="AN5">
-        <v>-155.6266320016064</v>
+        <v>-155.6266320016063</v>
       </c>
       <c r="AO5">
-        <v>131.4656840156439</v>
+        <v>131.465684015644</v>
       </c>
       <c r="AP5">
-        <v>-3.793471523956838</v>
+        <v>-3.793471523956762</v>
       </c>
       <c r="AQ5">
-        <v>-155.6266320016064</v>
+        <v>-155.6266320016063</v>
       </c>
       <c r="AR5">
         <v>131.4656840156439</v>
@@ -16350,40 +16350,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-1.941664673910368E-09</v>
+        <v>-1.941681499266477E-09</v>
       </c>
       <c r="O2">
-        <v>-1.538334099701026E-09</v>
+        <v>-1.538354191505896E-09</v>
       </c>
       <c r="P2">
-        <v>-2.506376899628722E-09</v>
+        <v>-2.506384663791584E-09</v>
       </c>
       <c r="Q2">
-        <v>1.941661284823312E-09</v>
+        <v>1.941681258641643E-09</v>
       </c>
       <c r="R2">
-        <v>1.538338198605439E-09</v>
+        <v>1.538355469242646E-09</v>
       </c>
       <c r="S2">
-        <v>2.506379874020185E-09</v>
+        <v>2.506387043377323E-09</v>
       </c>
       <c r="T2">
-        <v>5.58871396961715E-10</v>
+        <v>5.588925643306191E-10</v>
       </c>
       <c r="U2">
-        <v>3.623720242019631E-09</v>
+        <v>3.62374349120024E-09</v>
       </c>
       <c r="V2">
-        <v>-8.292813237592463E-10</v>
+        <v>-8.292833897350752E-10</v>
       </c>
       <c r="W2">
-        <v>-5.588675264388592E-10</v>
+        <v>-5.588961941155449E-10</v>
       </c>
       <c r="X2">
-        <v>-3.623722796553055E-09</v>
+        <v>-3.623741441715032E-09</v>
       </c>
       <c r="Y2">
-        <v>8.29277958386186E-10</v>
+        <v>8.292806974795104E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -16404,25 +16404,25 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.7679592756099299</v>
+        <v>0.7679592756099295</v>
       </c>
       <c r="AH2">
-        <v>0.5655462792825747</v>
+        <v>0.5655462792825744</v>
       </c>
       <c r="AI2">
-        <v>0.3792589156706159</v>
+        <v>0.3792589156706158</v>
       </c>
       <c r="AJ2">
-        <v>0.7679592756256419</v>
+        <v>0.7679592756256417</v>
       </c>
       <c r="AK2">
-        <v>0.5655462792745896</v>
+        <v>0.5655462792745893</v>
       </c>
       <c r="AL2">
-        <v>0.3792589157297769</v>
+        <v>0.3792589157297771</v>
       </c>
       <c r="AM2">
-        <v>-3.793471525611864</v>
+        <v>-3.793471525611821</v>
       </c>
       <c r="AN2">
         <v>-155.6266320097133</v>
@@ -16431,7 +16431,7 @@
         <v>131.4656840130515</v>
       </c>
       <c r="AP2">
-        <v>-3.793471524370595</v>
+        <v>-3.793471524370523</v>
       </c>
       <c r="AQ2">
         <v>-155.6266320036331</v>
@@ -16481,40 +16481,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.472127675213018E-10</v>
+        <v>6.472195457990793E-10</v>
       </c>
       <c r="O3">
-        <v>5.127840824309526E-10</v>
+        <v>5.127823668216072E-10</v>
       </c>
       <c r="P3">
-        <v>8.354637462755905E-10</v>
+        <v>8.35470320827001E-10</v>
       </c>
       <c r="Q3">
-        <v>-6.47213008192211E-10</v>
+        <v>-6.472197864699887E-10</v>
       </c>
       <c r="R3">
-        <v>-5.127775436449472E-10</v>
+        <v>-5.127857407281209E-10</v>
       </c>
       <c r="S3">
-        <v>-8.354607722066444E-10</v>
+        <v>-8.35468536369507E-10</v>
       </c>
       <c r="T3">
-        <v>-1.862947438154749E-10</v>
+        <v>-1.863024847999249E-10</v>
       </c>
       <c r="U3">
-        <v>-1.207915771022121E-09</v>
+        <v>-1.207913607207596E-09</v>
       </c>
       <c r="V3">
-        <v>2.764289340772605E-10</v>
+        <v>2.764323462880813E-10</v>
       </c>
       <c r="W3">
-        <v>1.862911140033212E-10</v>
+        <v>1.862988549877712E-10</v>
       </c>
       <c r="X3">
-        <v>1.20791432185643E-09</v>
+        <v>1.207919431352101E-09</v>
       </c>
       <c r="Y3">
-        <v>-2.764322996409101E-10</v>
+        <v>-2.764343656167406E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -16535,34 +16535,34 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.7679592756308792</v>
+        <v>0.7679592756308787</v>
       </c>
       <c r="AH3">
-        <v>0.5655462792719279</v>
+        <v>0.5655462792719278</v>
       </c>
       <c r="AI3">
-        <v>0.3792589157494974</v>
+        <v>0.3792589157494976</v>
       </c>
       <c r="AJ3">
-        <v>0.7679592756256419</v>
+        <v>0.7679592756256417</v>
       </c>
       <c r="AK3">
-        <v>0.5655462792745896</v>
+        <v>0.5655462792745893</v>
       </c>
       <c r="AL3">
-        <v>0.3792589157297769</v>
+        <v>0.3792589157297771</v>
       </c>
       <c r="AM3">
-        <v>-3.793471523956835</v>
+        <v>-3.793471523956761</v>
       </c>
       <c r="AN3">
-        <v>-155.6266320016064</v>
+        <v>-155.6266320016063</v>
       </c>
       <c r="AO3">
-        <v>131.4656840156439</v>
+        <v>131.465684015644</v>
       </c>
       <c r="AP3">
-        <v>-3.793471524370595</v>
+        <v>-3.793471524370523</v>
       </c>
       <c r="AQ3">
         <v>-155.6266320036331</v>
@@ -16612,40 +16612,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.472132488746382E-10</v>
+        <v>6.472162769985247E-10</v>
       </c>
       <c r="O4">
-        <v>5.12784082430953E-10</v>
+        <v>5.127867890548914E-10</v>
       </c>
       <c r="P4">
-        <v>8.354679416040962E-10</v>
+        <v>8.354685364098225E-10</v>
       </c>
       <c r="Q4">
-        <v>-6.472132488688793E-10</v>
+        <v>-6.472165176694339E-10</v>
       </c>
       <c r="R4">
-        <v>-5.127846351697987E-10</v>
+        <v>-5.127833005240161E-10</v>
       </c>
       <c r="S4">
-        <v>-8.354649675351496E-10</v>
+        <v>-8.354667519523285E-10</v>
       </c>
       <c r="T4">
-        <v>-1.862874841843606E-10</v>
+        <v>-1.862967993999209E-10</v>
       </c>
       <c r="U4">
-        <v>-1.207915771022121E-09</v>
+        <v>-1.207923368024014E-09</v>
       </c>
       <c r="V4">
-        <v>2.764350387580598E-10</v>
+        <v>2.76434365640565E-10</v>
       </c>
       <c r="W4">
-        <v>1.86287484187764E-10</v>
+        <v>1.862931695877671E-10</v>
       </c>
       <c r="X4">
-        <v>1.207916991147997E-09</v>
+        <v>1.207920536910422E-09</v>
       </c>
       <c r="Y4">
-        <v>-2.76438404321709E-10</v>
+        <v>-2.764363849692246E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -16666,34 +16666,34 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.7679592756308792</v>
+        <v>0.7679592756308787</v>
       </c>
       <c r="AH4">
-        <v>0.5655462792719279</v>
+        <v>0.5655462792719277</v>
       </c>
       <c r="AI4">
-        <v>0.3792589157494975</v>
+        <v>0.3792589157494976</v>
       </c>
       <c r="AJ4">
-        <v>0.7679592756256419</v>
+        <v>0.7679592756256417</v>
       </c>
       <c r="AK4">
-        <v>0.5655462792745896</v>
+        <v>0.5655462792745893</v>
       </c>
       <c r="AL4">
-        <v>0.3792589157297769</v>
+        <v>0.3792589157297771</v>
       </c>
       <c r="AM4">
-        <v>-3.793471523956838</v>
+        <v>-3.793471523956762</v>
       </c>
       <c r="AN4">
-        <v>-155.6266320016064</v>
+        <v>-155.6266320016063</v>
       </c>
       <c r="AO4">
         <v>131.4656840156439</v>
       </c>
       <c r="AP4">
-        <v>-3.793471524370595</v>
+        <v>-3.793471524370523</v>
       </c>
       <c r="AQ4">
         <v>-155.6266320036331</v>
@@ -16743,40 +16743,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-1.148130557583726E-15</v>
+        <v>8.833862224622685E-15</v>
       </c>
       <c r="O5">
-        <v>-4.098541586409478E-15</v>
+        <v>-9.337427242852038E-16</v>
       </c>
       <c r="P5">
-        <v>5.94805726224926E-16</v>
+        <v>3.882081431292643E-15</v>
       </c>
       <c r="Q5">
-        <v>-9.074538892914919E-16</v>
+        <v>-8.167085003623422E-15</v>
       </c>
       <c r="R5">
-        <v>4.327629048867768E-15</v>
+        <v>-1.334645783587195E-15</v>
       </c>
       <c r="S5">
-        <v>1.189611452449852E-15</v>
+        <v>-2.097664252617865E-15</v>
       </c>
       <c r="T5">
-        <v>-3.569646390092909E-15</v>
+        <v>-4.23150722789654E-15</v>
       </c>
       <c r="U5">
-        <v>2.554747835945256E-15</v>
+        <v>6.92967900263696E-15</v>
       </c>
       <c r="V5">
-        <v>-6.731174947106972E-16</v>
+        <v>1.032987915478311E-15</v>
       </c>
       <c r="W5">
-        <v>6.016916707305861E-17</v>
+        <v>5.415225036575165E-16</v>
       </c>
       <c r="X5">
-        <v>3.431218694615879E-15</v>
+        <v>-3.545762425845023E-15</v>
       </c>
       <c r="Y5">
-        <v>-1.346234989421395E-15</v>
+        <v>-3.052340399610403E-15</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -16797,37 +16797,37 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.7679592756308792</v>
+        <v>0.7679592756308787</v>
       </c>
       <c r="AH5">
-        <v>0.5655462792719279</v>
+        <v>0.5655462792719278</v>
       </c>
       <c r="AI5">
-        <v>0.3792589157494974</v>
+        <v>0.3792589157494976</v>
       </c>
       <c r="AJ5">
-        <v>0.7679592756308792</v>
+        <v>0.7679592756308787</v>
       </c>
       <c r="AK5">
-        <v>0.5655462792719279</v>
+        <v>0.5655462792719277</v>
       </c>
       <c r="AL5">
-        <v>0.3792589157494975</v>
+        <v>0.3792589157494976</v>
       </c>
       <c r="AM5">
-        <v>-3.793471523956835</v>
+        <v>-3.793471523956761</v>
       </c>
       <c r="AN5">
-        <v>-155.6266320016064</v>
+        <v>-155.6266320016063</v>
       </c>
       <c r="AO5">
-        <v>131.4656840156439</v>
+        <v>131.465684015644</v>
       </c>
       <c r="AP5">
-        <v>-3.793471523956838</v>
+        <v>-3.793471523956762</v>
       </c>
       <c r="AQ5">
-        <v>-155.6266320016064</v>
+        <v>-155.6266320016063</v>
       </c>
       <c r="AR5">
         <v>131.4656840156439</v>
@@ -18408,40 +18408,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.563194052506556E-14</v>
+        <v>-1.042129368337661E-14</v>
       </c>
       <c r="O2">
-        <v>1.563189667967258E-14</v>
+        <v>2.084254351685506E-14</v>
       </c>
       <c r="P2">
-        <v>-1.042133822868902E-14</v>
+        <v>-4.168521929015074E-14</v>
       </c>
       <c r="Q2">
-        <v>-2.60532342084423E-14</v>
+        <v>-1.283339516412291E-28</v>
       </c>
       <c r="R2">
-        <v>-5.210174758053882E-15</v>
+        <v>-1.302614500946349E-14</v>
       </c>
       <c r="S2">
-        <v>5.211119632898032E-15</v>
+        <v>2.60537070077728E-14</v>
       </c>
       <c r="T2">
-        <v>-3.647452789181843E-14</v>
+        <v>-1.042129368337686E-14</v>
       </c>
       <c r="U2">
-        <v>5.763350571398476E-09</v>
+        <v>5.763389651249776E-09</v>
       </c>
       <c r="V2">
-        <v>-5.763387050089307E-09</v>
+        <v>-5.763392260736167E-09</v>
       </c>
       <c r="W2">
-        <v>3.64745278918183E-14</v>
+        <v>1.042129368337674E-14</v>
       </c>
       <c r="X2">
-        <v>-5.763355781559422E-09</v>
+        <v>-5.763392256087297E-09</v>
       </c>
       <c r="Y2">
-        <v>5.763387050575203E-09</v>
+        <v>5.76338705057522E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -18462,37 +18462,37 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023808766</v>
+        <v>1.100000023808765</v>
       </c>
       <c r="AG2">
-        <v>0.5500000117057474</v>
+        <v>0.5500000117057475</v>
       </c>
       <c r="AH2">
-        <v>0.550000012103018</v>
+        <v>0.5500000121030195</v>
       </c>
       <c r="AI2">
-        <v>1.100000023808766</v>
+        <v>1.100000023808765</v>
       </c>
       <c r="AJ2">
-        <v>0.5500000116593784</v>
+        <v>0.5500000116593782</v>
       </c>
       <c r="AK2">
-        <v>0.550000012149387</v>
+        <v>0.5500000121493889</v>
       </c>
       <c r="AL2">
-        <v>6.94449666104254E-13</v>
+        <v>7.050436821470241E-13</v>
       </c>
       <c r="AM2">
-        <v>-179.9999999995569</v>
+        <v>-179.9999999995568</v>
       </c>
       <c r="AN2">
         <v>179.9999999995499</v>
       </c>
       <c r="AO2">
-        <v>6.887451165512839E-13</v>
+        <v>7.055739930837065E-13</v>
       </c>
       <c r="AP2">
-        <v>-179.9999999952996</v>
+        <v>-179.9999999952995</v>
       </c>
       <c r="AQ2">
         <v>179.9999999952925</v>
@@ -18539,40 +18539,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-2.084258736675361E-14</v>
+        <v>-2.08425873667536E-14</v>
       </c>
       <c r="O3">
-        <v>1.563214546371081E-14</v>
+        <v>-2.084238241016898E-14</v>
       </c>
       <c r="P3">
-        <v>1.042149886348086E-14</v>
+        <v>2.051791148516571E-19</v>
       </c>
       <c r="Q3">
-        <v>1.252730165043641E-28</v>
+        <v>1.563194052506523E-14</v>
       </c>
       <c r="R3">
-        <v>-5.210804201512236E-15</v>
+        <v>2.865840025239669E-14</v>
       </c>
       <c r="S3">
-        <v>-1.563209812746983E-14</v>
+        <v>-5.210804441627689E-15</v>
       </c>
       <c r="T3">
-        <v>1.04212936833765E-14</v>
+        <v>1.042129368337648E-14</v>
       </c>
       <c r="U3">
-        <v>-1.92113422573967E-09</v>
+        <v>-1.92113683106309E-09</v>
       </c>
       <c r="V3">
-        <v>1.921108174325013E-09</v>
+        <v>1.92113422755924E-09</v>
       </c>
       <c r="W3">
-        <v>-1.042129368337675E-14</v>
+        <v>-1.042129368337654E-14</v>
       </c>
       <c r="X3">
-        <v>1.921139436440498E-09</v>
+        <v>1.921144647087339E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.921118595564711E-09</v>
+        <v>-1.921149859445783E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -18593,25 +18593,25 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023808766</v>
+        <v>1.100000023808765</v>
       </c>
       <c r="AG3">
-        <v>0.5500000116439223</v>
+        <v>0.5500000116439215</v>
       </c>
       <c r="AH3">
-        <v>0.5500000121648436</v>
+        <v>0.5500000121648452</v>
       </c>
       <c r="AI3">
-        <v>1.100000023808766</v>
+        <v>1.100000023808765</v>
       </c>
       <c r="AJ3">
-        <v>0.5500000116593784</v>
+        <v>0.5500000116593782</v>
       </c>
       <c r="AK3">
-        <v>0.550000012149387</v>
+        <v>0.5500000121493889</v>
       </c>
       <c r="AL3">
-        <v>6.660169023184687E-13</v>
+        <v>6.927639275834002E-13</v>
       </c>
       <c r="AM3">
         <v>-179.9999999938804</v>
@@ -18620,10 +18620,10 @@
         <v>179.9999999938735</v>
       </c>
       <c r="AO3">
-        <v>6.887451165512839E-13</v>
+        <v>7.055739930837065E-13</v>
       </c>
       <c r="AP3">
-        <v>-179.9999999952996</v>
+        <v>-179.9999999952995</v>
       </c>
       <c r="AQ3">
         <v>179.9999999952925</v>
@@ -18670,40 +18670,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-1.563194052506493E-14</v>
+        <v>-1.563194052506529E-14</v>
       </c>
       <c r="O4">
-        <v>1.563214546482255E-14</v>
+        <v>-1.042108873095181E-14</v>
       </c>
       <c r="P4">
-        <v>1.042149886348086E-14</v>
+        <v>-1.042108850958488E-14</v>
       </c>
       <c r="Q4">
-        <v>-1.252730165043641E-28</v>
+        <v>1.042129368337699E-14</v>
       </c>
       <c r="R4">
-        <v>5.210489477222209E-15</v>
+        <v>2.865840025239669E-14</v>
       </c>
       <c r="S4">
-        <v>-1.563209812661494E-14</v>
+        <v>-5.2108044407728E-15</v>
       </c>
       <c r="T4">
-        <v>-1.56319405250653E-14</v>
+        <v>1.563194052506492E-14</v>
       </c>
       <c r="U4">
-        <v>-1.921144647033347E-09</v>
+        <v>-1.921136831063089E-09</v>
       </c>
       <c r="V4">
-        <v>1.921108174325013E-09</v>
+        <v>1.921134227559241E-09</v>
       </c>
       <c r="W4">
-        <v>1.042129368337675E-14</v>
+        <v>-2.084258736675334E-14</v>
       </c>
       <c r="X4">
-        <v>1.921139436440499E-09</v>
+        <v>1.921144647087339E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.921108174271024E-09</v>
+        <v>-1.921139438152095E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -18724,25 +18724,25 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023808766</v>
+        <v>1.100000023808765</v>
       </c>
       <c r="AG4">
-        <v>0.5500000116439222</v>
+        <v>0.5500000116439215</v>
       </c>
       <c r="AH4">
-        <v>0.5500000121648436</v>
+        <v>0.5500000121648452</v>
       </c>
       <c r="AI4">
-        <v>1.100000023808766</v>
+        <v>1.100000023808765</v>
       </c>
       <c r="AJ4">
-        <v>0.5500000116593784</v>
+        <v>0.5500000116593782</v>
       </c>
       <c r="AK4">
-        <v>0.550000012149387</v>
+        <v>0.5500000121493889</v>
       </c>
       <c r="AL4">
-        <v>6.729871228056328E-13</v>
+        <v>6.8770712626023E-13</v>
       </c>
       <c r="AM4">
         <v>-179.9999999938804</v>
@@ -18751,10 +18751,10 @@
         <v>179.9999999938735</v>
       </c>
       <c r="AO4">
-        <v>6.887451165512839E-13</v>
+        <v>7.055739930837065E-13</v>
       </c>
       <c r="AP4">
-        <v>-179.9999999952996</v>
+        <v>-179.9999999952995</v>
       </c>
       <c r="AQ4">
         <v>179.9999999952925</v>
@@ -18801,40 +18801,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-5.210646841688615E-15</v>
+        <v>1.260039815139964E-28</v>
       </c>
       <c r="O5">
-        <v>1.042129367732985E-14</v>
+        <v>-5.210646839498722E-15</v>
       </c>
       <c r="P5">
-        <v>-5.210646844155951E-15</v>
+        <v>5.210646844712469E-15</v>
       </c>
       <c r="Q5">
-        <v>-1.042129368337644E-14</v>
+        <v>-6.254211035974127E-29</v>
       </c>
       <c r="R5">
-        <v>-5.210646840332533E-15</v>
+        <v>1.04212936778857E-14</v>
       </c>
       <c r="S5">
-        <v>-5.21064684526895E-15</v>
+        <v>-1.042129368998144E-14</v>
       </c>
       <c r="T5">
-        <v>2.084258736675343E-14</v>
+        <v>-1.042129368337674E-14</v>
       </c>
       <c r="U5">
-        <v>1.042129367955333E-14</v>
+        <v>2.605323419054521E-15</v>
       </c>
       <c r="V5">
-        <v>5.56499296051812E-25</v>
+        <v>5.210646843599464E-15</v>
       </c>
       <c r="W5">
-        <v>-2.605323420844199E-14</v>
+        <v>5.210646841688368E-15</v>
       </c>
       <c r="X5">
-        <v>1.042129367788572E-14</v>
+        <v>5.210646840332533E-15</v>
       </c>
       <c r="Y5">
-        <v>-1.042129368775541E-14</v>
+        <v>-1.56319405313549E-14</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -18855,25 +18855,25 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>1.100000023808766</v>
+        <v>1.100000023808765</v>
       </c>
       <c r="AG5">
-        <v>0.5500000116439223</v>
+        <v>0.5500000116439215</v>
       </c>
       <c r="AH5">
-        <v>0.5500000121648436</v>
+        <v>0.5500000121648452</v>
       </c>
       <c r="AI5">
-        <v>1.100000023808766</v>
+        <v>1.100000023808765</v>
       </c>
       <c r="AJ5">
-        <v>0.5500000116439222</v>
+        <v>0.5500000116439215</v>
       </c>
       <c r="AK5">
-        <v>0.5500000121648436</v>
+        <v>0.5500000121648452</v>
       </c>
       <c r="AL5">
-        <v>6.660169023184687E-13</v>
+        <v>6.927639275834002E-13</v>
       </c>
       <c r="AM5">
         <v>-179.9999999938804</v>
@@ -18882,7 +18882,7 @@
         <v>179.9999999938735</v>
       </c>
       <c r="AO5">
-        <v>6.729871228056328E-13</v>
+        <v>6.8770712626023E-13</v>
       </c>
       <c r="AP5">
         <v>-179.9999999938804</v>
